--- a/sofascore_team_data/La_Liga_Team_Stats.xlsx
+++ b/sofascore_team_data/La_Liga_Team_Stats.xlsx
@@ -1229,10 +1229,10 @@
         <v>128</v>
       </c>
       <c r="AA2" t="n">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AB2" t="n">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="AC2" t="n">
         <v>173</v>
@@ -1253,58 +1253,58 @@
         <v>68.73913043478299</v>
       </c>
       <c r="AI2" t="n">
-        <v>14819</v>
+        <v>14816</v>
       </c>
       <c r="AJ2" t="n">
-        <v>13244</v>
+        <v>13243</v>
       </c>
       <c r="AK2" t="n">
-        <v>89.371752479924</v>
+        <v>89.383099352052</v>
       </c>
       <c r="AL2" t="n">
-        <v>6005</v>
+        <v>6003</v>
       </c>
       <c r="AM2" t="n">
-        <v>5597</v>
+        <v>5596</v>
       </c>
       <c r="AN2" t="n">
-        <v>93.205661948376</v>
+        <v>93.220056638347</v>
       </c>
       <c r="AO2" t="n">
-        <v>8814</v>
+        <v>8813</v>
       </c>
       <c r="AP2" t="n">
         <v>7647</v>
       </c>
       <c r="AQ2" t="n">
-        <v>86.75970047651499</v>
+        <v>86.769544990355</v>
       </c>
       <c r="AR2" t="n">
         <v>652</v>
       </c>
       <c r="AS2" t="n">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AT2" t="n">
-        <v>55.981595092025</v>
+        <v>56.134969325153</v>
       </c>
       <c r="AU2" t="n">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AV2" t="n">
         <v>88</v>
       </c>
       <c r="AW2" t="n">
-        <v>26.506024096386</v>
+        <v>26.426426426426</v>
       </c>
       <c r="AX2" t="n">
         <v>9</v>
       </c>
       <c r="AY2" t="n">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AZ2" t="n">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="BA2" t="n">
         <v>62</v>
@@ -1313,7 +1313,7 @@
         <v>1</v>
       </c>
       <c r="BC2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BD2" t="n">
         <v>4</v>
@@ -1334,31 +1334,31 @@
         <v>2125</v>
       </c>
       <c r="BJ2" t="n">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="BK2" t="n">
-        <v>54.776470588235</v>
+        <v>54.729411764706</v>
       </c>
       <c r="BL2" t="n">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="BM2" t="n">
         <v>897</v>
       </c>
       <c r="BN2" t="n">
-        <v>53.488372093023</v>
+        <v>53.520286396181</v>
       </c>
       <c r="BO2" t="n">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="BP2" t="n">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="BQ2" t="n">
-        <v>59.598214285714</v>
+        <v>59.24276169265</v>
       </c>
       <c r="BR2" t="n">
-        <v>2724</v>
+        <v>2721</v>
       </c>
       <c r="BS2" t="n">
         <v>48</v>
@@ -1382,10 +1382,10 @@
         <v>1047</v>
       </c>
       <c r="BZ2" t="n">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="CA2" t="n">
-        <v>2895</v>
+        <v>2894</v>
       </c>
       <c r="CB2" t="n">
         <v>4900</v>
@@ -1412,7 +1412,7 @@
         <v>260</v>
       </c>
       <c r="CJ2" t="n">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="CK2" t="n">
         <v>137</v>
@@ -1427,7 +1427,7 @@
         <v>4</v>
       </c>
       <c r="CO2" t="n">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="CP2" t="n">
         <v>169</v>
@@ -1436,7 +1436,7 @@
         <v>512</v>
       </c>
       <c r="CR2" t="n">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="CS2" t="n">
         <v>112</v>
@@ -1466,19 +1466,19 @@
         <v>54</v>
       </c>
       <c r="DB2" t="n">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="DC2" t="n">
-        <v>1733</v>
+        <v>1731</v>
       </c>
       <c r="DD2" t="n">
-        <v>3157</v>
+        <v>3156</v>
       </c>
       <c r="DE2" t="n">
-        <v>3347</v>
+        <v>3346</v>
       </c>
       <c r="DF2" t="n">
-        <v>6504</v>
+        <v>6502</v>
       </c>
       <c r="DG2" t="n">
         <v>56</v>
@@ -1551,13 +1551,13 @@
         <v>0.17</v>
       </c>
       <c r="EC2" t="n">
-        <v>575.83</v>
+        <v>575.78</v>
       </c>
       <c r="ED2" t="n">
-        <v>16.04</v>
+        <v>16.09</v>
       </c>
       <c r="EE2" t="n">
-        <v>7</v>
+        <v>7.04</v>
       </c>
       <c r="EF2" t="n">
         <v>17.22</v>
@@ -1566,19 +1566,19 @@
         <v>2.7</v>
       </c>
       <c r="EH2" t="n">
-        <v>50.61</v>
+        <v>50.57</v>
       </c>
       <c r="EI2" t="n">
         <v>39</v>
       </c>
       <c r="EJ2" t="n">
-        <v>11.61</v>
+        <v>11.57</v>
       </c>
       <c r="EK2" t="n">
-        <v>118.43</v>
+        <v>118.3</v>
       </c>
       <c r="EL2" t="n">
-        <v>11.39</v>
+        <v>11.35</v>
       </c>
     </row>
     <row r="3">
@@ -1596,10 +1596,10 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E3" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F3" t="n">
         <v>18</v>
@@ -1608,10 +1608,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I3" t="n">
-        <v>424</v>
+        <v>435</v>
       </c>
       <c r="J3" t="n">
         <v>9</v>
@@ -1626,16 +1626,16 @@
         <v>13</v>
       </c>
       <c r="N3" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O3" t="n">
         <v>7</v>
       </c>
       <c r="P3" t="n">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="Q3" t="n">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="R3" t="n">
         <v>6</v>
@@ -1644,34 +1644,34 @@
         <v>8</v>
       </c>
       <c r="T3" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="U3" t="n">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="V3" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="W3" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="X3" t="n">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="Y3" t="n">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="Z3" t="n">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AA3" t="n">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="AB3" t="n">
-        <v>504</v>
+        <v>517</v>
       </c>
       <c r="AC3" t="n">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="AD3" t="n">
         <v>11</v>
@@ -1686,61 +1686,61 @@
         <v>28</v>
       </c>
       <c r="AH3" t="n">
-        <v>59.227272727273</v>
+        <v>59.260869565217</v>
       </c>
       <c r="AI3" t="n">
-        <v>12815</v>
+        <v>13373</v>
       </c>
       <c r="AJ3" t="n">
-        <v>11469</v>
+        <v>11964</v>
       </c>
       <c r="AK3" t="n">
-        <v>89.49668357393701</v>
+        <v>89.463845060944</v>
       </c>
       <c r="AL3" t="n">
-        <v>4765</v>
+        <v>4941</v>
       </c>
       <c r="AM3" t="n">
-        <v>4484</v>
+        <v>4643</v>
       </c>
       <c r="AN3" t="n">
-        <v>94.102833158447</v>
+        <v>93.968832220198</v>
       </c>
       <c r="AO3" t="n">
-        <v>8050</v>
+        <v>8432</v>
       </c>
       <c r="AP3" t="n">
-        <v>6985</v>
+        <v>7321</v>
       </c>
       <c r="AQ3" t="n">
-        <v>86.77018633540401</v>
+        <v>86.82400379506601</v>
       </c>
       <c r="AR3" t="n">
-        <v>758</v>
+        <v>787</v>
       </c>
       <c r="AS3" t="n">
-        <v>465</v>
+        <v>481</v>
       </c>
       <c r="AT3" t="n">
-        <v>61.345646437995</v>
+        <v>61.118170266836</v>
       </c>
       <c r="AU3" t="n">
-        <v>336</v>
+        <v>352</v>
       </c>
       <c r="AV3" t="n">
         <v>88</v>
       </c>
       <c r="AW3" t="n">
-        <v>26.190476190476</v>
+        <v>25</v>
       </c>
       <c r="AX3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AY3" t="n">
-        <v>386</v>
+        <v>403</v>
       </c>
       <c r="AZ3" t="n">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="BA3" t="n">
         <v>49</v>
@@ -1749,7 +1749,7 @@
         <v>2</v>
       </c>
       <c r="BC3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD3" t="n">
         <v>2</v>
@@ -1758,52 +1758,52 @@
         <v>2</v>
       </c>
       <c r="BF3" t="n">
-        <v>374</v>
+        <v>401</v>
       </c>
       <c r="BG3" t="n">
         <v>3</v>
       </c>
       <c r="BH3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BI3" t="n">
-        <v>2081</v>
+        <v>2171</v>
       </c>
       <c r="BJ3" t="n">
-        <v>1156</v>
+        <v>1202</v>
       </c>
       <c r="BK3" t="n">
-        <v>55.550216242191</v>
+        <v>55.366190695532</v>
       </c>
       <c r="BL3" t="n">
-        <v>1680</v>
+        <v>1743</v>
       </c>
       <c r="BM3" t="n">
-        <v>925</v>
+        <v>955</v>
       </c>
       <c r="BN3" t="n">
-        <v>55.059523809524</v>
+        <v>54.790590935169</v>
       </c>
       <c r="BO3" t="n">
-        <v>401</v>
+        <v>428</v>
       </c>
       <c r="BP3" t="n">
-        <v>231</v>
+        <v>247</v>
       </c>
       <c r="BQ3" t="n">
-        <v>57.605985037406</v>
+        <v>57.710280373832</v>
       </c>
       <c r="BR3" t="n">
-        <v>2422</v>
+        <v>2534</v>
       </c>
       <c r="BS3" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="BT3" t="n">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="BU3" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="BV3" t="n">
         <v>1</v>
@@ -1812,19 +1812,19 @@
         <v>5</v>
       </c>
       <c r="BX3" t="n">
-        <v>7.0954407294833</v>
+        <v>7.0927113702624</v>
       </c>
       <c r="BY3" t="n">
-        <v>1567</v>
+        <v>1624</v>
       </c>
       <c r="BZ3" t="n">
-        <v>3283</v>
+        <v>3422</v>
       </c>
       <c r="CA3" t="n">
-        <v>3941</v>
+        <v>4085</v>
       </c>
       <c r="CB3" t="n">
-        <v>7224</v>
+        <v>7507</v>
       </c>
       <c r="CC3" t="n">
         <v>43</v>
@@ -1836,22 +1836,22 @@
         <v>31</v>
       </c>
       <c r="CF3" t="n">
-        <v>517</v>
+        <v>550</v>
       </c>
       <c r="CG3" t="n">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="CH3" t="n">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="CI3" t="n">
-        <v>294</v>
+        <v>315</v>
       </c>
       <c r="CJ3" t="n">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="CK3" t="n">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="CL3" t="n">
         <v>7</v>
@@ -1860,82 +1860,82 @@
         <v>17</v>
       </c>
       <c r="CN3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="CO3" t="n">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="CP3" t="n">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="CQ3" t="n">
-        <v>431</v>
+        <v>452</v>
       </c>
       <c r="CR3" t="n">
-        <v>996</v>
+        <v>1049</v>
       </c>
       <c r="CS3" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="CT3" t="n">
         <v>9</v>
       </c>
       <c r="CU3" t="n">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="CV3" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="CW3" t="n">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="CX3" t="n">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="CY3" t="n">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="CZ3" t="n">
         <v>70</v>
       </c>
       <c r="DA3" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="DB3" t="n">
-        <v>424</v>
+        <v>442</v>
       </c>
       <c r="DC3" t="n">
-        <v>2162</v>
+        <v>2251</v>
       </c>
       <c r="DD3" t="n">
-        <v>4230</v>
+        <v>4428</v>
       </c>
       <c r="DE3" t="n">
-        <v>4427</v>
+        <v>4588</v>
       </c>
       <c r="DF3" t="n">
-        <v>8657</v>
+        <v>9016</v>
       </c>
       <c r="DG3" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="DH3" t="n">
-        <v>351</v>
+        <v>367</v>
       </c>
       <c r="DI3" t="n">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="DJ3" t="n">
-        <v>1071</v>
+        <v>1112</v>
       </c>
       <c r="DK3" t="n">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="DL3" t="n">
         <v>48745</v>
       </c>
       <c r="DM3" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="DN3" t="n">
         <v>0</v>
@@ -1951,70 +1951,70 @@
         </is>
       </c>
       <c r="DQ3" t="n">
-        <v>2.14</v>
+        <v>2.13</v>
       </c>
       <c r="DR3" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="DS3" t="n">
-        <v>19.27</v>
+        <v>18.91</v>
       </c>
       <c r="DT3" t="n">
-        <v>7.18</v>
+        <v>7.13</v>
       </c>
       <c r="DU3" t="n">
-        <v>6.45</v>
+        <v>6.52</v>
       </c>
       <c r="DV3" t="n">
-        <v>9.859999999999999</v>
+        <v>10</v>
       </c>
       <c r="DW3" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="DX3" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="DY3" t="n">
-        <v>3.59</v>
+        <v>3.52</v>
       </c>
       <c r="DZ3" t="n">
-        <v>2.18</v>
+        <v>2.13</v>
       </c>
       <c r="EA3" t="n">
-        <v>0.5</v>
+        <v>0.48</v>
       </c>
       <c r="EB3" t="n">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="EC3" t="n">
-        <v>521.3200000000001</v>
+        <v>520.17</v>
       </c>
       <c r="ED3" t="n">
-        <v>17.55</v>
+        <v>17.52</v>
       </c>
       <c r="EE3" t="n">
-        <v>7.05</v>
+        <v>6.87</v>
       </c>
       <c r="EF3" t="n">
-        <v>17</v>
+        <v>17.43</v>
       </c>
       <c r="EG3" t="n">
-        <v>2.23</v>
+        <v>2.13</v>
       </c>
       <c r="EH3" t="n">
-        <v>52.55</v>
+        <v>52.26</v>
       </c>
       <c r="EI3" t="n">
-        <v>42.05</v>
+        <v>41.52</v>
       </c>
       <c r="EJ3" t="n">
-        <v>10.5</v>
+        <v>10.74</v>
       </c>
       <c r="EK3" t="n">
-        <v>110.09</v>
+        <v>110.17</v>
       </c>
       <c r="EL3" t="n">
-        <v>11.05</v>
+        <v>10.78</v>
       </c>
     </row>
     <row r="4">
@@ -2032,13 +2032,13 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4" t="n">
         <v>38</v>
       </c>
       <c r="F4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>21</v>
       </c>
       <c r="I4" t="n">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="J4" t="n">
         <v>2</v>
@@ -2068,10 +2068,10 @@
         <v>5</v>
       </c>
       <c r="P4" t="n">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="Q4" t="n">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="R4" t="n">
         <v>5</v>
@@ -2083,34 +2083,34 @@
         <v>15</v>
       </c>
       <c r="U4" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="V4" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="W4" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="X4" t="n">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="Y4" t="n">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="Z4" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AA4" t="n">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="AB4" t="n">
-        <v>342</v>
+        <v>358</v>
       </c>
       <c r="AC4" t="n">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="AD4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AE4" t="n">
         <v>26</v>
@@ -2122,70 +2122,70 @@
         <v>23</v>
       </c>
       <c r="AH4" t="n">
-        <v>53.954545454545</v>
+        <v>54.434782608696</v>
       </c>
       <c r="AI4" t="n">
-        <v>11258</v>
+        <v>11936</v>
       </c>
       <c r="AJ4" t="n">
-        <v>9659</v>
+        <v>10264</v>
       </c>
       <c r="AK4" t="n">
-        <v>85.796766743649</v>
+        <v>85.991957104558</v>
       </c>
       <c r="AL4" t="n">
-        <v>5259</v>
+        <v>5482</v>
       </c>
       <c r="AM4" t="n">
-        <v>4793</v>
+        <v>5009</v>
       </c>
       <c r="AN4" t="n">
-        <v>91.13899980985001</v>
+        <v>91.371762130609</v>
       </c>
       <c r="AO4" t="n">
-        <v>5999</v>
+        <v>6454</v>
       </c>
       <c r="AP4" t="n">
-        <v>4866</v>
+        <v>5255</v>
       </c>
       <c r="AQ4" t="n">
-        <v>81.11351891982</v>
+        <v>81.42237372172301</v>
       </c>
       <c r="AR4" t="n">
-        <v>777</v>
+        <v>805</v>
       </c>
       <c r="AS4" t="n">
-        <v>457</v>
+        <v>472</v>
       </c>
       <c r="AT4" t="n">
-        <v>58.815958815959</v>
+        <v>58.633540372671</v>
       </c>
       <c r="AU4" t="n">
-        <v>463</v>
+        <v>487</v>
       </c>
       <c r="AV4" t="n">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="AW4" t="n">
-        <v>26.997840172786</v>
+        <v>26.899383983573</v>
       </c>
       <c r="AX4" t="n">
         <v>10</v>
       </c>
       <c r="AY4" t="n">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="AZ4" t="n">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="BA4" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="BB4" t="n">
         <v>2</v>
       </c>
       <c r="BC4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BD4" t="n">
         <v>2</v>
@@ -2194,7 +2194,7 @@
         <v>1</v>
       </c>
       <c r="BF4" t="n">
-        <v>446</v>
+        <v>456</v>
       </c>
       <c r="BG4" t="n">
         <v>0</v>
@@ -2203,43 +2203,43 @@
         <v>1</v>
       </c>
       <c r="BI4" t="n">
-        <v>2158</v>
+        <v>2228</v>
       </c>
       <c r="BJ4" t="n">
-        <v>1075</v>
+        <v>1106</v>
       </c>
       <c r="BK4" t="n">
-        <v>49.814643188137</v>
+        <v>49.640933572711</v>
       </c>
       <c r="BL4" t="n">
-        <v>1524</v>
+        <v>1573</v>
       </c>
       <c r="BM4" t="n">
-        <v>730</v>
+        <v>747</v>
       </c>
       <c r="BN4" t="n">
-        <v>47.900262467192</v>
+        <v>47.488874761602</v>
       </c>
       <c r="BO4" t="n">
-        <v>634</v>
+        <v>655</v>
       </c>
       <c r="BP4" t="n">
-        <v>345</v>
+        <v>359</v>
       </c>
       <c r="BQ4" t="n">
-        <v>54.416403785489</v>
+        <v>54.809160305344</v>
       </c>
       <c r="BR4" t="n">
-        <v>2764</v>
+        <v>2887</v>
       </c>
       <c r="BS4" t="n">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="BT4" t="n">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="BU4" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="BV4" t="n">
         <v>1</v>
@@ -2248,46 +2248,46 @@
         <v>2</v>
       </c>
       <c r="BX4" t="n">
-        <v>6.9037463976945</v>
+        <v>6.8939393939394</v>
       </c>
       <c r="BY4" t="n">
-        <v>1958</v>
+        <v>2012</v>
       </c>
       <c r="BZ4" t="n">
-        <v>4243</v>
+        <v>4373</v>
       </c>
       <c r="CA4" t="n">
-        <v>3863</v>
+        <v>4037</v>
       </c>
       <c r="CB4" t="n">
-        <v>8106</v>
+        <v>8410</v>
       </c>
       <c r="CC4" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="CD4" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="CE4" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="CF4" t="n">
-        <v>568</v>
+        <v>603</v>
       </c>
       <c r="CG4" t="n">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="CH4" t="n">
         <v>80</v>
       </c>
       <c r="CI4" t="n">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="CJ4" t="n">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="CK4" t="n">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="CL4" t="n">
         <v>3</v>
@@ -2299,79 +2299,79 @@
         <v>4</v>
       </c>
       <c r="CO4" t="n">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="CP4" t="n">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="CQ4" t="n">
-        <v>505</v>
+        <v>531</v>
       </c>
       <c r="CR4" t="n">
-        <v>1103</v>
+        <v>1161</v>
       </c>
       <c r="CS4" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="CT4" t="n">
         <v>0</v>
       </c>
       <c r="CU4" t="n">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="CV4" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="CW4" t="n">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="CX4" t="n">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="CY4" t="n">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="CZ4" t="n">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="DA4" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="DB4" t="n">
-        <v>363</v>
+        <v>378</v>
       </c>
       <c r="DC4" t="n">
-        <v>2706</v>
+        <v>2789</v>
       </c>
       <c r="DD4" t="n">
-        <v>5436</v>
+        <v>5614</v>
       </c>
       <c r="DE4" t="n">
-        <v>4265</v>
+        <v>4458</v>
       </c>
       <c r="DF4" t="n">
-        <v>9701</v>
+        <v>10072</v>
       </c>
       <c r="DG4" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="DH4" t="n">
-        <v>429</v>
+        <v>444</v>
       </c>
       <c r="DI4" t="n">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="DJ4" t="n">
-        <v>1056</v>
+        <v>1112</v>
       </c>
       <c r="DK4" t="n">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="DL4" t="n">
         <v>48491</v>
       </c>
       <c r="DM4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="DN4" t="n">
         <v>0</v>
@@ -2387,70 +2387,70 @@
         </is>
       </c>
       <c r="DQ4" t="n">
-        <v>1.73</v>
+        <v>1.65</v>
       </c>
       <c r="DR4" t="n">
-        <v>0.77</v>
+        <v>0.78</v>
       </c>
       <c r="DS4" t="n">
-        <v>13.36</v>
+        <v>13.22</v>
       </c>
       <c r="DT4" t="n">
-        <v>5.55</v>
+        <v>5.52</v>
       </c>
       <c r="DU4" t="n">
         <v>6.91</v>
       </c>
       <c r="DV4" t="n">
-        <v>11.5</v>
+        <v>11.52</v>
       </c>
       <c r="DW4" t="n">
-        <v>1.73</v>
+        <v>1.78</v>
       </c>
       <c r="DX4" t="n">
         <v>0.09</v>
       </c>
       <c r="DY4" t="n">
-        <v>3.09</v>
+        <v>3</v>
       </c>
       <c r="DZ4" t="n">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="EA4" t="n">
-        <v>0.32</v>
+        <v>0.35</v>
       </c>
       <c r="EB4" t="n">
         <v>0.09</v>
       </c>
       <c r="EC4" t="n">
-        <v>439.05</v>
+        <v>446.26</v>
       </c>
       <c r="ED4" t="n">
-        <v>16.82</v>
+        <v>16.39</v>
       </c>
       <c r="EE4" t="n">
-        <v>7.73</v>
+        <v>7.65</v>
       </c>
       <c r="EF4" t="n">
-        <v>20.27</v>
+        <v>19.83</v>
       </c>
       <c r="EG4" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="EH4" t="n">
-        <v>48.86</v>
+        <v>48.09</v>
       </c>
       <c r="EI4" t="n">
-        <v>33.18</v>
+        <v>32.48</v>
       </c>
       <c r="EJ4" t="n">
-        <v>15.68</v>
+        <v>15.61</v>
       </c>
       <c r="EK4" t="n">
-        <v>125.64</v>
+        <v>125.52</v>
       </c>
       <c r="EL4" t="n">
-        <v>7.05</v>
+        <v>7.04</v>
       </c>
     </row>
     <row r="5">
@@ -2468,22 +2468,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5" t="n">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F5" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I5" t="n">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="J5" t="n">
         <v>2</v>
@@ -2498,52 +2498,52 @@
         <v>3</v>
       </c>
       <c r="N5" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="O5" t="n">
         <v>9</v>
       </c>
       <c r="P5" t="n">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="Q5" t="n">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="R5" t="n">
         <v>4</v>
       </c>
       <c r="S5" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="T5" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="U5" t="n">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="V5" t="n">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="W5" t="n">
         <v>37</v>
       </c>
       <c r="X5" t="n">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="Y5" t="n">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="Z5" t="n">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AA5" t="n">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="AB5" t="n">
-        <v>338</v>
+        <v>356</v>
       </c>
       <c r="AC5" t="n">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="AD5" t="n">
         <v>4</v>
@@ -2558,70 +2558,70 @@
         <v>38</v>
       </c>
       <c r="AH5" t="n">
-        <v>44</v>
+        <v>44.227272727273</v>
       </c>
       <c r="AI5" t="n">
-        <v>8601</v>
+        <v>9029</v>
       </c>
       <c r="AJ5" t="n">
-        <v>7140</v>
+        <v>7518</v>
       </c>
       <c r="AK5" t="n">
-        <v>83.013603069411</v>
+        <v>83.26503488758399</v>
       </c>
       <c r="AL5" t="n">
-        <v>4193</v>
+        <v>4457</v>
       </c>
       <c r="AM5" t="n">
-        <v>3751</v>
+        <v>4003</v>
       </c>
       <c r="AN5" t="n">
-        <v>89.458621512044</v>
+        <v>89.813776082567</v>
       </c>
       <c r="AO5" t="n">
-        <v>4408</v>
+        <v>4572</v>
       </c>
       <c r="AP5" t="n">
-        <v>3389</v>
+        <v>3515</v>
       </c>
       <c r="AQ5" t="n">
-        <v>76.882940108893</v>
+        <v>76.881014873141</v>
       </c>
       <c r="AR5" t="n">
-        <v>725</v>
+        <v>750</v>
       </c>
       <c r="AS5" t="n">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="AT5" t="n">
-        <v>50.068965517241</v>
+        <v>49.866666666667</v>
       </c>
       <c r="AU5" t="n">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="AV5" t="n">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AW5" t="n">
-        <v>27.881040892193</v>
+        <v>27.112676056338</v>
       </c>
       <c r="AX5" t="n">
         <v>7</v>
       </c>
       <c r="AY5" t="n">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="AZ5" t="n">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="BA5" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="BB5" t="n">
         <v>7</v>
       </c>
       <c r="BC5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BD5" t="n">
         <v>5</v>
@@ -2630,7 +2630,7 @@
         <v>4</v>
       </c>
       <c r="BF5" t="n">
-        <v>519</v>
+        <v>553</v>
       </c>
       <c r="BG5" t="n">
         <v>2</v>
@@ -2639,43 +2639,43 @@
         <v>3</v>
       </c>
       <c r="BI5" t="n">
-        <v>2027</v>
+        <v>2114</v>
       </c>
       <c r="BJ5" t="n">
-        <v>1002</v>
+        <v>1048</v>
       </c>
       <c r="BK5" t="n">
-        <v>49.432659102121</v>
+        <v>49.57426679281</v>
       </c>
       <c r="BL5" t="n">
-        <v>1567</v>
+        <v>1630</v>
       </c>
       <c r="BM5" t="n">
-        <v>783</v>
+        <v>812</v>
       </c>
       <c r="BN5" t="n">
-        <v>49.968091895341</v>
+        <v>49.815950920245</v>
       </c>
       <c r="BO5" t="n">
-        <v>460</v>
+        <v>484</v>
       </c>
       <c r="BP5" t="n">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="BQ5" t="n">
-        <v>47.608695652174</v>
+        <v>48.760330578512</v>
       </c>
       <c r="BR5" t="n">
-        <v>2481</v>
+        <v>2572</v>
       </c>
       <c r="BS5" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="BT5" t="n">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="BU5" t="n">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="BV5" t="n">
         <v>1</v>
@@ -2684,46 +2684,46 @@
         <v>3</v>
       </c>
       <c r="BX5" t="n">
-        <v>6.8798192771084</v>
+        <v>6.8859195402299</v>
       </c>
       <c r="BY5" t="n">
-        <v>2420</v>
+        <v>2503</v>
       </c>
       <c r="BZ5" t="n">
-        <v>5001</v>
+        <v>5162</v>
       </c>
       <c r="CA5" t="n">
-        <v>4663</v>
+        <v>4876</v>
       </c>
       <c r="CB5" t="n">
-        <v>9664</v>
+        <v>10038</v>
       </c>
       <c r="CC5" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="CD5" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="CE5" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="CF5" t="n">
-        <v>444</v>
+        <v>467</v>
       </c>
       <c r="CG5" t="n">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="CH5" t="n">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="CI5" t="n">
-        <v>405</v>
+        <v>431</v>
       </c>
       <c r="CJ5" t="n">
-        <v>419</v>
+        <v>433</v>
       </c>
       <c r="CK5" t="n">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="CL5" t="n">
         <v>5</v>
@@ -2735,16 +2735,16 @@
         <v>2</v>
       </c>
       <c r="CO5" t="n">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="CP5" t="n">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="CQ5" t="n">
-        <v>550</v>
+        <v>575</v>
       </c>
       <c r="CR5" t="n">
-        <v>1048</v>
+        <v>1098</v>
       </c>
       <c r="CS5" t="n">
         <v>17</v>
@@ -2753,61 +2753,61 @@
         <v>3</v>
       </c>
       <c r="CU5" t="n">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="CV5" t="n">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="CW5" t="n">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="CX5" t="n">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="CY5" t="n">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="CZ5" t="n">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="DA5" t="n">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="DB5" t="n">
-        <v>359</v>
+        <v>372</v>
       </c>
       <c r="DC5" t="n">
-        <v>3186</v>
+        <v>3300</v>
       </c>
       <c r="DD5" t="n">
-        <v>6139</v>
+        <v>6351</v>
       </c>
       <c r="DE5" t="n">
-        <v>5024</v>
+        <v>5251</v>
       </c>
       <c r="DF5" t="n">
-        <v>11163</v>
+        <v>11602</v>
       </c>
       <c r="DG5" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="DH5" t="n">
-        <v>380</v>
+        <v>391</v>
       </c>
       <c r="DI5" t="n">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="DJ5" t="n">
-        <v>993</v>
+        <v>1033</v>
       </c>
       <c r="DK5" t="n">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="DL5" t="n">
         <v>48108</v>
       </c>
       <c r="DM5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="DN5" t="n">
         <v>0</v>
@@ -2823,70 +2823,70 @@
         </is>
       </c>
       <c r="DQ5" t="n">
-        <v>1.86</v>
+        <v>1.95</v>
       </c>
       <c r="DR5" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="DS5" t="n">
-        <v>12.29</v>
+        <v>12.18</v>
       </c>
       <c r="DT5" t="n">
-        <v>4.62</v>
+        <v>4.55</v>
       </c>
       <c r="DU5" t="n">
-        <v>4.1</v>
+        <v>4.14</v>
       </c>
       <c r="DV5" t="n">
-        <v>12.33</v>
+        <v>12.59</v>
       </c>
       <c r="DW5" t="n">
-        <v>2.29</v>
+        <v>2.32</v>
       </c>
       <c r="DX5" t="n">
         <v>0.14</v>
       </c>
       <c r="DY5" t="n">
-        <v>2.81</v>
+        <v>2.82</v>
       </c>
       <c r="DZ5" t="n">
-        <v>1.76</v>
+        <v>1.68</v>
       </c>
       <c r="EA5" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="EB5" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="EC5" t="n">
-        <v>340</v>
+        <v>341.73</v>
       </c>
       <c r="ED5" t="n">
-        <v>18.81</v>
+        <v>18.41</v>
       </c>
       <c r="EE5" t="n">
-        <v>8.81</v>
+        <v>8.77</v>
       </c>
       <c r="EF5" t="n">
-        <v>24.71</v>
+        <v>25.14</v>
       </c>
       <c r="EG5" t="n">
-        <v>2.48</v>
+        <v>2.41</v>
       </c>
       <c r="EH5" t="n">
-        <v>47.71</v>
+        <v>47.64</v>
       </c>
       <c r="EI5" t="n">
-        <v>37.29</v>
+        <v>36.91</v>
       </c>
       <c r="EJ5" t="n">
-        <v>10.43</v>
+        <v>10.73</v>
       </c>
       <c r="EK5" t="n">
-        <v>118.14</v>
+        <v>116.91</v>
       </c>
       <c r="EL5" t="n">
-        <v>7.48</v>
+        <v>7.55</v>
       </c>
     </row>
     <row r="6">
@@ -2904,10 +2904,10 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E6" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F6" t="n">
         <v>28</v>
@@ -2916,10 +2916,10 @@
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I6" t="n">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="J6" t="n">
         <v>2</v>
@@ -2931,127 +2931,127 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N6" t="n">
         <v>29</v>
       </c>
       <c r="O6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P6" t="n">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q6" t="n">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="R6" t="n">
         <v>7</v>
       </c>
       <c r="S6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="T6" t="n">
         <v>20</v>
       </c>
       <c r="U6" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="V6" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="W6" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="X6" t="n">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="Y6" t="n">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="Z6" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AA6" t="n">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="AB6" t="n">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="AC6" t="n">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="AD6" t="n">
         <v>12</v>
       </c>
       <c r="AE6" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AF6" t="n">
         <v>4</v>
       </c>
       <c r="AG6" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="AH6" t="n">
-        <v>50.454545454545</v>
+        <v>49.782608695652</v>
       </c>
       <c r="AI6" t="n">
-        <v>10275</v>
+        <v>10646</v>
       </c>
       <c r="AJ6" t="n">
-        <v>8664</v>
+        <v>8968</v>
       </c>
       <c r="AK6" t="n">
-        <v>84.321167883212</v>
+        <v>84.238211534849</v>
       </c>
       <c r="AL6" t="n">
-        <v>4714</v>
+        <v>4907</v>
       </c>
       <c r="AM6" t="n">
-        <v>4341</v>
+        <v>4515</v>
       </c>
       <c r="AN6" t="n">
-        <v>92.087399236317</v>
+        <v>92.011412268188</v>
       </c>
       <c r="AO6" t="n">
-        <v>5561</v>
+        <v>5739</v>
       </c>
       <c r="AP6" t="n">
-        <v>4323</v>
+        <v>4453</v>
       </c>
       <c r="AQ6" t="n">
-        <v>77.737816939399</v>
+        <v>77.591914967764</v>
       </c>
       <c r="AR6" t="n">
-        <v>821</v>
+        <v>846</v>
       </c>
       <c r="AS6" t="n">
-        <v>416</v>
+        <v>429</v>
       </c>
       <c r="AT6" t="n">
-        <v>50.669914738124</v>
+        <v>50.709219858156</v>
       </c>
       <c r="AU6" t="n">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="AV6" t="n">
         <v>81</v>
       </c>
       <c r="AW6" t="n">
-        <v>23.342939481268</v>
+        <v>22.946175637394</v>
       </c>
       <c r="AX6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AY6" t="n">
-        <v>383</v>
+        <v>398</v>
       </c>
       <c r="AZ6" t="n">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="BA6" t="n">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="BB6" t="n">
         <v>4</v>
@@ -3066,7 +3066,7 @@
         <v>1</v>
       </c>
       <c r="BF6" t="n">
-        <v>654</v>
+        <v>689</v>
       </c>
       <c r="BG6" t="n">
         <v>1</v>
@@ -3075,43 +3075,43 @@
         <v>3</v>
       </c>
       <c r="BI6" t="n">
-        <v>2182</v>
+        <v>2252</v>
       </c>
       <c r="BJ6" t="n">
-        <v>1109</v>
+        <v>1148</v>
       </c>
       <c r="BK6" t="n">
-        <v>50.824931255729</v>
+        <v>50.976909413854</v>
       </c>
       <c r="BL6" t="n">
-        <v>1626</v>
+        <v>1675</v>
       </c>
       <c r="BM6" t="n">
-        <v>825</v>
+        <v>857</v>
       </c>
       <c r="BN6" t="n">
-        <v>50.738007380074</v>
+        <v>51.164179104478</v>
       </c>
       <c r="BO6" t="n">
-        <v>556</v>
+        <v>577</v>
       </c>
       <c r="BP6" t="n">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="BQ6" t="n">
-        <v>51.079136690647</v>
+        <v>50.433275563258</v>
       </c>
       <c r="BR6" t="n">
-        <v>2702</v>
+        <v>2805</v>
       </c>
       <c r="BS6" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="BT6" t="n">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="BU6" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="BV6" t="n">
         <v>0</v>
@@ -3120,130 +3120,130 @@
         <v>1</v>
       </c>
       <c r="BX6" t="n">
-        <v>6.8743119266055</v>
+        <v>6.8815789473684</v>
       </c>
       <c r="BY6" t="n">
-        <v>1793</v>
+        <v>1964</v>
       </c>
       <c r="BZ6" t="n">
-        <v>3695</v>
+        <v>4084</v>
       </c>
       <c r="CA6" t="n">
-        <v>4592</v>
+        <v>4808</v>
       </c>
       <c r="CB6" t="n">
-        <v>8287</v>
+        <v>8892</v>
       </c>
       <c r="CC6" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="CD6" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="CE6" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="CF6" t="n">
-        <v>484</v>
+        <v>494</v>
       </c>
       <c r="CG6" t="n">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="CH6" t="n">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="CI6" t="n">
-        <v>412</v>
+        <v>436</v>
       </c>
       <c r="CJ6" t="n">
-        <v>402</v>
+        <v>418</v>
       </c>
       <c r="CK6" t="n">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="CL6" t="n">
         <v>6</v>
       </c>
       <c r="CM6" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="CN6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CO6" t="n">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="CP6" t="n">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="CQ6" t="n">
-        <v>465</v>
+        <v>480</v>
       </c>
       <c r="CR6" t="n">
-        <v>1015</v>
+        <v>1043</v>
       </c>
       <c r="CS6" t="n">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="CT6" t="n">
         <v>2</v>
       </c>
       <c r="CU6" t="n">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="CV6" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="CW6" t="n">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="CX6" t="n">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="CY6" t="n">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="CZ6" t="n">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="DA6" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="DB6" t="n">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="DC6" t="n">
-        <v>2552</v>
+        <v>2780</v>
       </c>
       <c r="DD6" t="n">
-        <v>4890</v>
+        <v>5345</v>
       </c>
       <c r="DE6" t="n">
-        <v>5037</v>
+        <v>5260</v>
       </c>
       <c r="DF6" t="n">
-        <v>9927</v>
+        <v>10605</v>
       </c>
       <c r="DG6" t="n">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="DH6" t="n">
-        <v>379</v>
+        <v>391</v>
       </c>
       <c r="DI6" t="n">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="DJ6" t="n">
-        <v>1093</v>
+        <v>1132</v>
       </c>
       <c r="DK6" t="n">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="DL6" t="n">
         <v>48668</v>
       </c>
       <c r="DM6" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="DN6" t="n">
         <v>0</v>
@@ -3259,70 +3259,70 @@
         </is>
       </c>
       <c r="DQ6" t="n">
-        <v>1.64</v>
+        <v>1.61</v>
       </c>
       <c r="DR6" t="n">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="DS6" t="n">
-        <v>15</v>
+        <v>14.7</v>
       </c>
       <c r="DT6" t="n">
-        <v>4.91</v>
+        <v>4.87</v>
       </c>
       <c r="DU6" t="n">
-        <v>4.68</v>
+        <v>4.61</v>
       </c>
       <c r="DV6" t="n">
-        <v>10.68</v>
+        <v>10.35</v>
       </c>
       <c r="DW6" t="n">
-        <v>1.86</v>
+        <v>1.83</v>
       </c>
       <c r="DX6" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="DY6" t="n">
-        <v>2.64</v>
+        <v>2.61</v>
       </c>
       <c r="DZ6" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="EA6" t="n">
-        <v>0.55</v>
+        <v>0.52</v>
       </c>
       <c r="EB6" t="n">
         <v>0.09</v>
       </c>
       <c r="EC6" t="n">
-        <v>393.82</v>
+        <v>389.91</v>
       </c>
       <c r="ED6" t="n">
-        <v>17.41</v>
+        <v>17.3</v>
       </c>
       <c r="EE6" t="n">
-        <v>9.18</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="EF6" t="n">
-        <v>29.73</v>
+        <v>29.96</v>
       </c>
       <c r="EG6" t="n">
-        <v>3.14</v>
+        <v>3.22</v>
       </c>
       <c r="EH6" t="n">
-        <v>50.41</v>
+        <v>49.91</v>
       </c>
       <c r="EI6" t="n">
-        <v>37.5</v>
+        <v>37.26</v>
       </c>
       <c r="EJ6" t="n">
-        <v>12.91</v>
+        <v>12.65</v>
       </c>
       <c r="EK6" t="n">
-        <v>122.82</v>
+        <v>121.96</v>
       </c>
       <c r="EL6" t="n">
-        <v>7.41</v>
+        <v>7.35</v>
       </c>
     </row>
     <row r="7">
@@ -3340,22 +3340,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E7" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F7" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H7" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I7" t="n">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="J7" t="n">
         <v>3</v>
@@ -3367,22 +3367,22 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N7" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O7" t="n">
         <v>3</v>
       </c>
       <c r="P7" t="n">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q7" t="n">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="R7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S7" t="n">
         <v>8</v>
@@ -3391,31 +3391,31 @@
         <v>8</v>
       </c>
       <c r="U7" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="V7" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W7" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="X7" t="n">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="Y7" t="n">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="Z7" t="n">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AA7" t="n">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="AB7" t="n">
-        <v>290</v>
+        <v>304</v>
       </c>
       <c r="AC7" t="n">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="AD7" t="n">
         <v>3</v>
@@ -3430,61 +3430,61 @@
         <v>15</v>
       </c>
       <c r="AH7" t="n">
-        <v>42.136363636364</v>
+        <v>42.521739130435</v>
       </c>
       <c r="AI7" t="n">
-        <v>7737</v>
+        <v>8176</v>
       </c>
       <c r="AJ7" t="n">
-        <v>6108</v>
+        <v>6482</v>
       </c>
       <c r="AK7" t="n">
-        <v>78.94532764637501</v>
+        <v>79.280821917808</v>
       </c>
       <c r="AL7" t="n">
-        <v>3679</v>
+        <v>3906</v>
       </c>
       <c r="AM7" t="n">
-        <v>3312</v>
+        <v>3525</v>
       </c>
       <c r="AN7" t="n">
-        <v>90.024463169339</v>
+        <v>90.24577572964699</v>
       </c>
       <c r="AO7" t="n">
-        <v>4058</v>
+        <v>4270</v>
       </c>
       <c r="AP7" t="n">
-        <v>2796</v>
+        <v>2957</v>
       </c>
       <c r="AQ7" t="n">
-        <v>68.900936421883</v>
+        <v>69.250585480094</v>
       </c>
       <c r="AR7" t="n">
-        <v>754</v>
+        <v>789</v>
       </c>
       <c r="AS7" t="n">
-        <v>321</v>
+        <v>341</v>
       </c>
       <c r="AT7" t="n">
-        <v>42.572944297082</v>
+        <v>43.219264892269</v>
       </c>
       <c r="AU7" t="n">
-        <v>483</v>
+        <v>509</v>
       </c>
       <c r="AV7" t="n">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="AW7" t="n">
-        <v>24.430641821946</v>
+        <v>23.7721021611</v>
       </c>
       <c r="AX7" t="n">
         <v>7</v>
       </c>
       <c r="AY7" t="n">
-        <v>374</v>
+        <v>387</v>
       </c>
       <c r="AZ7" t="n">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="BA7" t="n">
         <v>70</v>
@@ -3502,7 +3502,7 @@
         <v>4</v>
       </c>
       <c r="BF7" t="n">
-        <v>502</v>
+        <v>525</v>
       </c>
       <c r="BG7" t="n">
         <v>1</v>
@@ -3511,43 +3511,43 @@
         <v>3</v>
       </c>
       <c r="BI7" t="n">
-        <v>2248</v>
+        <v>2335</v>
       </c>
       <c r="BJ7" t="n">
-        <v>1090</v>
+        <v>1131</v>
       </c>
       <c r="BK7" t="n">
-        <v>48.487544483986</v>
+        <v>48.436830835118</v>
       </c>
       <c r="BL7" t="n">
-        <v>1559</v>
+        <v>1622</v>
       </c>
       <c r="BM7" t="n">
-        <v>768</v>
+        <v>802</v>
       </c>
       <c r="BN7" t="n">
-        <v>49.262347658756</v>
+        <v>49.44512946979</v>
       </c>
       <c r="BO7" t="n">
-        <v>689</v>
+        <v>713</v>
       </c>
       <c r="BP7" t="n">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="BQ7" t="n">
-        <v>46.734397677794</v>
+        <v>46.143057503506</v>
       </c>
       <c r="BR7" t="n">
-        <v>2817</v>
+        <v>2929</v>
       </c>
       <c r="BS7" t="n">
         <v>34</v>
       </c>
       <c r="BT7" t="n">
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="BU7" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="BV7" t="n">
         <v>1</v>
@@ -3556,130 +3556,130 @@
         <v>2</v>
       </c>
       <c r="BX7" t="n">
-        <v>6.780523255814</v>
+        <v>6.7602777777778</v>
       </c>
       <c r="BY7" t="n">
-        <v>1957</v>
+        <v>2019</v>
       </c>
       <c r="BZ7" t="n">
-        <v>4279</v>
+        <v>4405</v>
       </c>
       <c r="CA7" t="n">
-        <v>4915</v>
+        <v>5167</v>
       </c>
       <c r="CB7" t="n">
-        <v>9194</v>
+        <v>9572</v>
       </c>
       <c r="CC7" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="CD7" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="CE7" t="n">
         <v>26</v>
       </c>
       <c r="CF7" t="n">
-        <v>589</v>
+        <v>623</v>
       </c>
       <c r="CG7" t="n">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="CH7" t="n">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="CI7" t="n">
-        <v>376</v>
+        <v>391</v>
       </c>
       <c r="CJ7" t="n">
-        <v>383</v>
+        <v>401</v>
       </c>
       <c r="CK7" t="n">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="CL7" t="n">
         <v>4</v>
       </c>
       <c r="CM7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="CN7" t="n">
         <v>9</v>
       </c>
       <c r="CO7" t="n">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="CP7" t="n">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="CQ7" t="n">
-        <v>616</v>
+        <v>629</v>
       </c>
       <c r="CR7" t="n">
-        <v>1233</v>
+        <v>1264</v>
       </c>
       <c r="CS7" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="CT7" t="n">
         <v>2</v>
       </c>
       <c r="CU7" t="n">
+        <v>285</v>
+      </c>
+      <c r="CV7" t="n">
+        <v>87</v>
+      </c>
+      <c r="CW7" t="n">
+        <v>182</v>
+      </c>
+      <c r="CX7" t="n">
+        <v>103</v>
+      </c>
+      <c r="CY7" t="n">
+        <v>99</v>
+      </c>
+      <c r="CZ7" t="n">
+        <v>99</v>
+      </c>
+      <c r="DA7" t="n">
+        <v>87</v>
+      </c>
+      <c r="DB7" t="n">
+        <v>346</v>
+      </c>
+      <c r="DC7" t="n">
+        <v>2815</v>
+      </c>
+      <c r="DD7" t="n">
+        <v>5651</v>
+      </c>
+      <c r="DE7" t="n">
+        <v>5653</v>
+      </c>
+      <c r="DF7" t="n">
+        <v>11304</v>
+      </c>
+      <c r="DG7" t="n">
+        <v>59</v>
+      </c>
+      <c r="DH7" t="n">
+        <v>469</v>
+      </c>
+      <c r="DI7" t="n">
+        <v>164</v>
+      </c>
+      <c r="DJ7" t="n">
+        <v>1036</v>
+      </c>
+      <c r="DK7" t="n">
         <v>275</v>
-      </c>
-      <c r="CV7" t="n">
-        <v>84</v>
-      </c>
-      <c r="CW7" t="n">
-        <v>175</v>
-      </c>
-      <c r="CX7" t="n">
-        <v>100</v>
-      </c>
-      <c r="CY7" t="n">
-        <v>95</v>
-      </c>
-      <c r="CZ7" t="n">
-        <v>96</v>
-      </c>
-      <c r="DA7" t="n">
-        <v>84</v>
-      </c>
-      <c r="DB7" t="n">
-        <v>336</v>
-      </c>
-      <c r="DC7" t="n">
-        <v>2731</v>
-      </c>
-      <c r="DD7" t="n">
-        <v>5487</v>
-      </c>
-      <c r="DE7" t="n">
-        <v>5389</v>
-      </c>
-      <c r="DF7" t="n">
-        <v>10876</v>
-      </c>
-      <c r="DG7" t="n">
-        <v>56</v>
-      </c>
-      <c r="DH7" t="n">
-        <v>454</v>
-      </c>
-      <c r="DI7" t="n">
-        <v>157</v>
-      </c>
-      <c r="DJ7" t="n">
-        <v>1010</v>
-      </c>
-      <c r="DK7" t="n">
-        <v>260</v>
       </c>
       <c r="DL7" t="n">
         <v>48490</v>
       </c>
       <c r="DM7" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="DN7" t="n">
         <v>0</v>
@@ -3695,70 +3695,70 @@
         </is>
       </c>
       <c r="DQ7" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="DR7" t="n">
-        <v>1.23</v>
+        <v>1.35</v>
       </c>
       <c r="DS7" t="n">
-        <v>13.05</v>
+        <v>12.87</v>
       </c>
       <c r="DT7" t="n">
-        <v>4.41</v>
+        <v>4.3</v>
       </c>
       <c r="DU7" t="n">
-        <v>4.41</v>
+        <v>4.57</v>
       </c>
       <c r="DV7" t="n">
-        <v>13.27</v>
+        <v>13.17</v>
       </c>
       <c r="DW7" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="DX7" t="n">
         <v>0.09</v>
       </c>
       <c r="DY7" t="n">
-        <v>2.27</v>
+        <v>2.22</v>
       </c>
       <c r="DZ7" t="n">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="EA7" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="EB7" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="EC7" t="n">
-        <v>277.64</v>
+        <v>281.83</v>
       </c>
       <c r="ED7" t="n">
-        <v>17</v>
+        <v>16.83</v>
       </c>
       <c r="EE7" t="n">
-        <v>8.18</v>
+        <v>8.17</v>
       </c>
       <c r="EF7" t="n">
-        <v>22.82</v>
+        <v>22.83</v>
       </c>
       <c r="EG7" t="n">
-        <v>3.18</v>
+        <v>3.04</v>
       </c>
       <c r="EH7" t="n">
-        <v>49.55</v>
+        <v>49.17</v>
       </c>
       <c r="EI7" t="n">
-        <v>34.91</v>
+        <v>34.87</v>
       </c>
       <c r="EJ7" t="n">
-        <v>14.64</v>
+        <v>14.3</v>
       </c>
       <c r="EK7" t="n">
-        <v>128.05</v>
+        <v>127.35</v>
       </c>
       <c r="EL7" t="n">
-        <v>6.5</v>
+        <v>6.52</v>
       </c>
     </row>
     <row r="8">
@@ -5072,11 +5072,11 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Deportivo Alavés</t>
+          <t>Athletic Club</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2885</v>
+        <v>2825</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -5084,346 +5084,346 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F11" t="n">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="I11" t="n">
-        <v>254</v>
+        <v>331</v>
       </c>
       <c r="J11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K11" t="n">
         <v>4</v>
       </c>
       <c r="L11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N11" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="O11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P11" t="n">
-        <v>154</v>
+        <v>224</v>
       </c>
       <c r="Q11" t="n">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="R11" t="n">
         <v>2</v>
       </c>
       <c r="S11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" t="n">
+        <v>17</v>
+      </c>
+      <c r="U11" t="n">
+        <v>52</v>
+      </c>
+      <c r="V11" t="n">
+        <v>37</v>
+      </c>
+      <c r="W11" t="n">
+        <v>34</v>
+      </c>
+      <c r="X11" t="n">
+        <v>104</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>126</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>101</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>172</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>392</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>129</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>49.869565217391</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>9686</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>7834</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>80.879620070204</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>3947</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>3541</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>89.713706612617</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>5739</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>4293</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>74.803972817564</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>758</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>396</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>52.242744063325</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>533</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>112</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>21.013133208255</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>336</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>210</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>16</v>
+      </c>
+      <c r="BD11" t="n">
         <v>3</v>
-      </c>
-      <c r="T11" t="n">
-        <v>14</v>
-      </c>
-      <c r="U11" t="n">
-        <v>43</v>
-      </c>
-      <c r="V11" t="n">
-        <v>34</v>
-      </c>
-      <c r="W11" t="n">
-        <v>29</v>
-      </c>
-      <c r="X11" t="n">
-        <v>84</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>106</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>64</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>182</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>399</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>110</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>16</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>49.818181818182</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>9443</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>7622</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>80.715874192524</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>4256</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>3791</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>89.07424812030099</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>5187</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>3831</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>73.857721226142</v>
-      </c>
-      <c r="AR11" t="n">
-        <v>733</v>
-      </c>
-      <c r="AS11" t="n">
-        <v>337</v>
-      </c>
-      <c r="AT11" t="n">
-        <v>45.975443383356</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>425</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>93</v>
-      </c>
-      <c r="AW11" t="n">
-        <v>21.882352941176</v>
-      </c>
-      <c r="AX11" t="n">
-        <v>3</v>
-      </c>
-      <c r="AY11" t="n">
-        <v>414</v>
-      </c>
-      <c r="AZ11" t="n">
-        <v>178</v>
-      </c>
-      <c r="BA11" t="n">
-        <v>57</v>
-      </c>
-      <c r="BB11" t="n">
-        <v>2</v>
-      </c>
-      <c r="BC11" t="n">
-        <v>10</v>
-      </c>
-      <c r="BD11" t="n">
-        <v>2</v>
       </c>
       <c r="BE11" t="n">
         <v>2</v>
       </c>
       <c r="BF11" t="n">
-        <v>527</v>
+        <v>505</v>
       </c>
       <c r="BG11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BH11" t="n">
         <v>3</v>
       </c>
       <c r="BI11" t="n">
-        <v>2583</v>
+        <v>2391</v>
       </c>
       <c r="BJ11" t="n">
-        <v>1235</v>
+        <v>1119</v>
       </c>
       <c r="BK11" t="n">
-        <v>47.812620983353</v>
+        <v>46.800501882058</v>
       </c>
       <c r="BL11" t="n">
-        <v>1847</v>
+        <v>1680</v>
       </c>
       <c r="BM11" t="n">
-        <v>882</v>
+        <v>771</v>
       </c>
       <c r="BN11" t="n">
-        <v>47.75311315647</v>
+        <v>45.892857142857</v>
       </c>
       <c r="BO11" t="n">
-        <v>736</v>
+        <v>711</v>
       </c>
       <c r="BP11" t="n">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="BQ11" t="n">
-        <v>47.961956521739</v>
+        <v>48.945147679325</v>
       </c>
       <c r="BR11" t="n">
-        <v>3112</v>
+        <v>3301</v>
       </c>
       <c r="BS11" t="n">
+        <v>28</v>
+      </c>
+      <c r="BT11" t="n">
+        <v>308</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>49</v>
+      </c>
+      <c r="BV11" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW11" t="n">
+        <v>6</v>
+      </c>
+      <c r="BX11" t="n">
+        <v>6.7223756906077</v>
+      </c>
+      <c r="BY11" t="n">
+        <v>1299</v>
+      </c>
+      <c r="BZ11" t="n">
+        <v>2881</v>
+      </c>
+      <c r="CA11" t="n">
+        <v>5149</v>
+      </c>
+      <c r="CB11" t="n">
+        <v>8030</v>
+      </c>
+      <c r="CC11" t="n">
+        <v>52</v>
+      </c>
+      <c r="CD11" t="n">
+        <v>39</v>
+      </c>
+      <c r="CE11" t="n">
+        <v>32</v>
+      </c>
+      <c r="CF11" t="n">
+        <v>707</v>
+      </c>
+      <c r="CG11" t="n">
+        <v>94</v>
+      </c>
+      <c r="CH11" t="n">
+        <v>78</v>
+      </c>
+      <c r="CI11" t="n">
+        <v>309</v>
+      </c>
+      <c r="CJ11" t="n">
+        <v>361</v>
+      </c>
+      <c r="CK11" t="n">
+        <v>187</v>
+      </c>
+      <c r="CL11" t="n">
+        <v>1</v>
+      </c>
+      <c r="CM11" t="n">
+        <v>16</v>
+      </c>
+      <c r="CN11" t="n">
+        <v>5</v>
+      </c>
+      <c r="CO11" t="n">
+        <v>227</v>
+      </c>
+      <c r="CP11" t="n">
+        <v>145</v>
+      </c>
+      <c r="CQ11" t="n">
+        <v>594</v>
+      </c>
+      <c r="CR11" t="n">
+        <v>1389</v>
+      </c>
+      <c r="CS11" t="n">
+        <v>80</v>
+      </c>
+      <c r="CT11" t="n">
+        <v>3</v>
+      </c>
+      <c r="CU11" t="n">
+        <v>223</v>
+      </c>
+      <c r="CV11" t="n">
+        <v>45</v>
+      </c>
+      <c r="CW11" t="n">
+        <v>142</v>
+      </c>
+      <c r="CX11" t="n">
+        <v>81</v>
+      </c>
+      <c r="CY11" t="n">
+        <v>80</v>
+      </c>
+      <c r="CZ11" t="n">
+        <v>99</v>
+      </c>
+      <c r="DA11" t="n">
+        <v>44</v>
+      </c>
+      <c r="DB11" t="n">
+        <v>432</v>
+      </c>
+      <c r="DC11" t="n">
+        <v>2141</v>
+      </c>
+      <c r="DD11" t="n">
+        <v>4258</v>
+      </c>
+      <c r="DE11" t="n">
+        <v>5795</v>
+      </c>
+      <c r="DF11" t="n">
+        <v>10053</v>
+      </c>
+      <c r="DG11" t="n">
         <v>48</v>
       </c>
-      <c r="BT11" t="n">
-        <v>330</v>
-      </c>
-      <c r="BU11" t="n">
-        <v>48</v>
-      </c>
-      <c r="BV11" t="n">
-        <v>2</v>
-      </c>
-      <c r="BW11" t="n">
-        <v>2</v>
-      </c>
-      <c r="BX11" t="n">
-        <v>6.7177514792899</v>
-      </c>
-      <c r="BY11" t="n">
-        <v>1832</v>
-      </c>
-      <c r="BZ11" t="n">
-        <v>3953</v>
-      </c>
-      <c r="CA11" t="n">
-        <v>3974</v>
-      </c>
-      <c r="CB11" t="n">
-        <v>7927</v>
-      </c>
-      <c r="CC11" t="n">
-        <v>48</v>
-      </c>
-      <c r="CD11" t="n">
-        <v>32</v>
-      </c>
-      <c r="CE11" t="n">
-        <v>29</v>
-      </c>
-      <c r="CF11" t="n">
-        <v>550</v>
-      </c>
-      <c r="CG11" t="n">
-        <v>104</v>
-      </c>
-      <c r="CH11" t="n">
-        <v>94</v>
-      </c>
-      <c r="CI11" t="n">
-        <v>383</v>
-      </c>
-      <c r="CJ11" t="n">
-        <v>399</v>
-      </c>
-      <c r="CK11" t="n">
-        <v>199</v>
-      </c>
-      <c r="CL11" t="n">
-        <v>4</v>
-      </c>
-      <c r="CM11" t="n">
-        <v>12</v>
-      </c>
-      <c r="CN11" t="n">
-        <v>8</v>
-      </c>
-      <c r="CO11" t="n">
-        <v>176</v>
-      </c>
-      <c r="CP11" t="n">
-        <v>198</v>
-      </c>
-      <c r="CQ11" t="n">
-        <v>601</v>
-      </c>
-      <c r="CR11" t="n">
-        <v>1203</v>
-      </c>
-      <c r="CS11" t="n">
-        <v>33</v>
-      </c>
-      <c r="CT11" t="n">
-        <v>2</v>
-      </c>
-      <c r="CU11" t="n">
-        <v>276</v>
-      </c>
-      <c r="CV11" t="n">
-        <v>83</v>
-      </c>
-      <c r="CW11" t="n">
-        <v>181</v>
-      </c>
-      <c r="CX11" t="n">
-        <v>95</v>
-      </c>
-      <c r="CY11" t="n">
-        <v>108</v>
-      </c>
-      <c r="CZ11" t="n">
-        <v>85</v>
-      </c>
-      <c r="DA11" t="n">
-        <v>83</v>
-      </c>
-      <c r="DB11" t="n">
-        <v>457</v>
-      </c>
-      <c r="DC11" t="n">
-        <v>2665</v>
-      </c>
-      <c r="DD11" t="n">
-        <v>5262</v>
-      </c>
-      <c r="DE11" t="n">
-        <v>4421</v>
-      </c>
-      <c r="DF11" t="n">
-        <v>9683</v>
-      </c>
-      <c r="DG11" t="n">
-        <v>38</v>
-      </c>
       <c r="DH11" t="n">
-        <v>434</v>
+        <v>494</v>
       </c>
       <c r="DI11" t="n">
-        <v>175</v>
+        <v>126</v>
       </c>
       <c r="DJ11" t="n">
-        <v>1118</v>
+        <v>1188</v>
       </c>
       <c r="DK11" t="n">
-        <v>289</v>
+        <v>270</v>
       </c>
       <c r="DL11" t="n">
-        <v>48317</v>
+        <v>48472</v>
       </c>
       <c r="DM11" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="DN11" t="n">
         <v>0</v>
@@ -5439,80 +5439,80 @@
         </is>
       </c>
       <c r="DQ11" t="n">
-        <v>0.91</v>
+        <v>1.09</v>
       </c>
       <c r="DR11" t="n">
-        <v>1.23</v>
+        <v>1.43</v>
       </c>
       <c r="DS11" t="n">
-        <v>11.55</v>
+        <v>14.39</v>
       </c>
       <c r="DT11" t="n">
-        <v>3.82</v>
+        <v>4.52</v>
       </c>
       <c r="DU11" t="n">
-        <v>5</v>
+        <v>5.61</v>
       </c>
       <c r="DV11" t="n">
-        <v>15</v>
+        <v>13.39</v>
       </c>
       <c r="DW11" t="n">
-        <v>2.18</v>
+        <v>2.13</v>
       </c>
       <c r="DX11" t="n">
-        <v>0.09</v>
+        <v>0.26</v>
       </c>
       <c r="DY11" t="n">
-        <v>1.95</v>
+        <v>2.26</v>
       </c>
       <c r="DZ11" t="n">
-        <v>1.32</v>
+        <v>1.48</v>
       </c>
       <c r="EA11" t="n">
-        <v>0.32</v>
+        <v>0.35</v>
       </c>
       <c r="EB11" t="n">
-        <v>0.18</v>
+        <v>0.13</v>
       </c>
       <c r="EC11" t="n">
-        <v>346.45</v>
+        <v>340.61</v>
       </c>
       <c r="ED11" t="n">
-        <v>18.82</v>
+        <v>14.61</v>
       </c>
       <c r="EE11" t="n">
-        <v>8.09</v>
+        <v>9.130000000000001</v>
       </c>
       <c r="EF11" t="n">
-        <v>23.95</v>
+        <v>21.96</v>
       </c>
       <c r="EG11" t="n">
-        <v>2.59</v>
+        <v>2.91</v>
       </c>
       <c r="EH11" t="n">
-        <v>56.14</v>
+        <v>48.65</v>
       </c>
       <c r="EI11" t="n">
-        <v>40.09</v>
+        <v>33.52</v>
       </c>
       <c r="EJ11" t="n">
-        <v>16.05</v>
+        <v>15.13</v>
       </c>
       <c r="EK11" t="n">
-        <v>141.45</v>
+        <v>143.52</v>
       </c>
       <c r="EL11" t="n">
-        <v>8.27</v>
+        <v>7.48</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Athletic Club</t>
+          <t>Getafe</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2825</v>
+        <v>2859</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -5520,346 +5520,346 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E12" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F12" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G12" t="n">
+        <v>2</v>
+      </c>
+      <c r="H12" t="n">
+        <v>16</v>
+      </c>
+      <c r="I12" t="n">
+        <v>230</v>
+      </c>
+      <c r="J12" t="n">
         <v>1</v>
       </c>
-      <c r="H12" t="n">
-        <v>11</v>
-      </c>
-      <c r="I12" t="n">
-        <v>309</v>
-      </c>
-      <c r="J12" t="n">
-        <v>3</v>
-      </c>
       <c r="K12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N12" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="O12" t="n">
         <v>2</v>
       </c>
       <c r="P12" t="n">
-        <v>210</v>
+        <v>128</v>
       </c>
       <c r="Q12" t="n">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="R12" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T12" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="U12" t="n">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="V12" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="W12" t="n">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="X12" t="n">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="Y12" t="n">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="Z12" t="n">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="AA12" t="n">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="AB12" t="n">
-        <v>374</v>
+        <v>304</v>
       </c>
       <c r="AC12" t="n">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="AD12" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AE12" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AF12" t="n">
         <v>1</v>
       </c>
       <c r="AG12" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AH12" t="n">
-        <v>49.636363636364</v>
+        <v>41.652173913043</v>
       </c>
       <c r="AI12" t="n">
-        <v>9184</v>
+        <v>7020</v>
       </c>
       <c r="AJ12" t="n">
-        <v>7397</v>
+        <v>4956</v>
       </c>
       <c r="AK12" t="n">
-        <v>80.54224738676</v>
+        <v>70.598290598291</v>
       </c>
       <c r="AL12" t="n">
-        <v>3743</v>
+        <v>2567</v>
       </c>
       <c r="AM12" t="n">
-        <v>3347</v>
+        <v>2163</v>
       </c>
       <c r="AN12" t="n">
-        <v>89.420251135453</v>
+        <v>84.261784183872</v>
       </c>
       <c r="AO12" t="n">
-        <v>5441</v>
+        <v>4453</v>
       </c>
       <c r="AP12" t="n">
-        <v>4050</v>
+        <v>2793</v>
       </c>
       <c r="AQ12" t="n">
-        <v>74.434846535563</v>
+        <v>62.721760610824</v>
       </c>
       <c r="AR12" t="n">
-        <v>721</v>
+        <v>922</v>
       </c>
       <c r="AS12" t="n">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="AT12" t="n">
-        <v>51.872399445215</v>
+        <v>39.479392624729</v>
       </c>
       <c r="AU12" t="n">
-        <v>517</v>
+        <v>460</v>
       </c>
       <c r="AV12" t="n">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="AW12" t="n">
-        <v>20.889748549323</v>
+        <v>22.826086956522</v>
       </c>
       <c r="AX12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY12" t="n">
-        <v>326</v>
+        <v>418</v>
       </c>
       <c r="AZ12" t="n">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="BA12" t="n">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="BB12" t="n">
         <v>4</v>
       </c>
       <c r="BC12" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="BD12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BE12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF12" t="n">
-        <v>482</v>
+        <v>606</v>
       </c>
       <c r="BG12" t="n">
         <v>1</v>
       </c>
       <c r="BH12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BI12" t="n">
-        <v>2291</v>
+        <v>2623</v>
       </c>
       <c r="BJ12" t="n">
-        <v>1076</v>
+        <v>1284</v>
       </c>
       <c r="BK12" t="n">
-        <v>46.96639022261</v>
+        <v>48.951582157835</v>
       </c>
       <c r="BL12" t="n">
-        <v>1606</v>
+        <v>1752</v>
       </c>
       <c r="BM12" t="n">
-        <v>741</v>
+        <v>886</v>
       </c>
       <c r="BN12" t="n">
-        <v>46.139476961395</v>
+        <v>50.570776255708</v>
       </c>
       <c r="BO12" t="n">
-        <v>685</v>
+        <v>871</v>
       </c>
       <c r="BP12" t="n">
-        <v>335</v>
+        <v>398</v>
       </c>
       <c r="BQ12" t="n">
-        <v>48.905109489051</v>
+        <v>45.694603903559</v>
       </c>
       <c r="BR12" t="n">
-        <v>3189</v>
+        <v>3385</v>
       </c>
       <c r="BS12" t="n">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="BT12" t="n">
-        <v>291</v>
+        <v>343</v>
       </c>
       <c r="BU12" t="n">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="BV12" t="n">
         <v>1</v>
       </c>
       <c r="BW12" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BX12" t="n">
-        <v>6.7046242774566</v>
+        <v>6.6821212121212</v>
       </c>
       <c r="BY12" t="n">
-        <v>1275</v>
+        <v>1771</v>
       </c>
       <c r="BZ12" t="n">
-        <v>2796</v>
+        <v>3930</v>
       </c>
       <c r="CA12" t="n">
-        <v>4920</v>
+        <v>4354</v>
       </c>
       <c r="CB12" t="n">
-        <v>7716</v>
+        <v>8284</v>
       </c>
       <c r="CC12" t="n">
+        <v>46</v>
+      </c>
+      <c r="CD12" t="n">
+        <v>33</v>
+      </c>
+      <c r="CE12" t="n">
+        <v>28</v>
+      </c>
+      <c r="CF12" t="n">
+        <v>718</v>
+      </c>
+      <c r="CG12" t="n">
+        <v>97</v>
+      </c>
+      <c r="CH12" t="n">
+        <v>94</v>
+      </c>
+      <c r="CI12" t="n">
+        <v>350</v>
+      </c>
+      <c r="CJ12" t="n">
+        <v>397</v>
+      </c>
+      <c r="CK12" t="n">
+        <v>184</v>
+      </c>
+      <c r="CL12" t="n">
+        <v>2</v>
+      </c>
+      <c r="CM12" t="n">
+        <v>7</v>
+      </c>
+      <c r="CN12" t="n">
+        <v>7</v>
+      </c>
+      <c r="CO12" t="n">
+        <v>134</v>
+      </c>
+      <c r="CP12" t="n">
+        <v>184</v>
+      </c>
+      <c r="CQ12" t="n">
+        <v>576</v>
+      </c>
+      <c r="CR12" t="n">
+        <v>1374</v>
+      </c>
+      <c r="CS12" t="n">
+        <v>64</v>
+      </c>
+      <c r="CT12" t="n">
+        <v>3</v>
+      </c>
+      <c r="CU12" t="n">
+        <v>242</v>
+      </c>
+      <c r="CV12" t="n">
         <v>51</v>
       </c>
-      <c r="CD12" t="n">
-        <v>38</v>
-      </c>
-      <c r="CE12" t="n">
-        <v>31</v>
-      </c>
-      <c r="CF12" t="n">
-        <v>687</v>
-      </c>
-      <c r="CG12" t="n">
+      <c r="CW12" t="n">
+        <v>151</v>
+      </c>
+      <c r="CX12" t="n">
         <v>91</v>
       </c>
-      <c r="CH12" t="n">
-        <v>75</v>
-      </c>
-      <c r="CI12" t="n">
-        <v>292</v>
-      </c>
-      <c r="CJ12" t="n">
-        <v>343</v>
-      </c>
-      <c r="CK12" t="n">
-        <v>174</v>
-      </c>
-      <c r="CL12" t="n">
-        <v>1</v>
-      </c>
-      <c r="CM12" t="n">
-        <v>15</v>
-      </c>
-      <c r="CN12" t="n">
-        <v>5</v>
-      </c>
-      <c r="CO12" t="n">
-        <v>220</v>
-      </c>
-      <c r="CP12" t="n">
-        <v>142</v>
-      </c>
-      <c r="CQ12" t="n">
-        <v>563</v>
-      </c>
-      <c r="CR12" t="n">
-        <v>1326</v>
-      </c>
-      <c r="CS12" t="n">
-        <v>77</v>
-      </c>
-      <c r="CT12" t="n">
-        <v>2</v>
-      </c>
-      <c r="CU12" t="n">
-        <v>217</v>
-      </c>
-      <c r="CV12" t="n">
-        <v>44</v>
-      </c>
-      <c r="CW12" t="n">
-        <v>140</v>
-      </c>
-      <c r="CX12" t="n">
-        <v>77</v>
-      </c>
       <c r="CY12" t="n">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="CZ12" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="DA12" t="n">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="DB12" t="n">
-        <v>419</v>
+        <v>366</v>
       </c>
       <c r="DC12" t="n">
-        <v>2078</v>
+        <v>2679</v>
       </c>
       <c r="DD12" t="n">
-        <v>4109</v>
+        <v>5356</v>
       </c>
       <c r="DE12" t="n">
-        <v>5544</v>
+        <v>4997</v>
       </c>
       <c r="DF12" t="n">
-        <v>9653</v>
+        <v>10353</v>
       </c>
       <c r="DG12" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="DH12" t="n">
-        <v>478</v>
+        <v>562</v>
       </c>
       <c r="DI12" t="n">
-        <v>122</v>
+        <v>159</v>
       </c>
       <c r="DJ12" t="n">
-        <v>1131</v>
+        <v>1064</v>
       </c>
       <c r="DK12" t="n">
-        <v>260</v>
+        <v>333</v>
       </c>
       <c r="DL12" t="n">
-        <v>48472</v>
+        <v>48413</v>
       </c>
       <c r="DM12" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="DN12" t="n">
         <v>0</v>
@@ -5875,70 +5875,70 @@
         </is>
       </c>
       <c r="DQ12" t="n">
-        <v>0.95</v>
+        <v>0.78</v>
       </c>
       <c r="DR12" t="n">
-        <v>1.41</v>
+        <v>1.17</v>
       </c>
       <c r="DS12" t="n">
-        <v>14.05</v>
+        <v>10</v>
       </c>
       <c r="DT12" t="n">
-        <v>4.41</v>
+        <v>2.74</v>
       </c>
       <c r="DU12" t="n">
-        <v>5.68</v>
+        <v>4.7</v>
       </c>
       <c r="DV12" t="n">
-        <v>13.23</v>
+        <v>14.91</v>
       </c>
       <c r="DW12" t="n">
-        <v>2.14</v>
+        <v>2.57</v>
       </c>
       <c r="DX12" t="n">
-        <v>0.27</v>
+        <v>0.13</v>
       </c>
       <c r="DY12" t="n">
-        <v>2.14</v>
+        <v>1.26</v>
       </c>
       <c r="DZ12" t="n">
-        <v>1.45</v>
+        <v>0.61</v>
       </c>
       <c r="EA12" t="n">
-        <v>0.36</v>
+        <v>0.13</v>
       </c>
       <c r="EB12" t="n">
-        <v>0.14</v>
+        <v>0.04</v>
       </c>
       <c r="EC12" t="n">
-        <v>336.23</v>
+        <v>215.48</v>
       </c>
       <c r="ED12" t="n">
-        <v>14.82</v>
+        <v>18.17</v>
       </c>
       <c r="EE12" t="n">
-        <v>9.050000000000001</v>
+        <v>8.43</v>
       </c>
       <c r="EF12" t="n">
-        <v>21.91</v>
+        <v>26.35</v>
       </c>
       <c r="EG12" t="n">
-        <v>3</v>
+        <v>3.22</v>
       </c>
       <c r="EH12" t="n">
-        <v>48.91</v>
+        <v>55.83</v>
       </c>
       <c r="EI12" t="n">
-        <v>33.68</v>
+        <v>38.52</v>
       </c>
       <c r="EJ12" t="n">
-        <v>15.23</v>
+        <v>17.3</v>
       </c>
       <c r="EK12" t="n">
-        <v>144.95</v>
+        <v>147.17</v>
       </c>
       <c r="EL12" t="n">
-        <v>7.36</v>
+        <v>6.13</v>
       </c>
     </row>
     <row r="13">
@@ -5956,28 +5956,28 @@
         </is>
       </c>
       <c r="D13" t="n">
+        <v>23</v>
+      </c>
+      <c r="E13" t="n">
         <v>22</v>
       </c>
-      <c r="E13" t="n">
-        <v>21</v>
-      </c>
       <c r="F13" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I13" t="n">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="J13" t="n">
         <v>6</v>
       </c>
       <c r="K13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -5989,13 +5989,13 @@
         <v>19</v>
       </c>
       <c r="O13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P13" t="n">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="Q13" t="n">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="R13" t="n">
         <v>2</v>
@@ -6004,112 +6004,112 @@
         <v>7</v>
       </c>
       <c r="T13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="U13" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="V13" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="W13" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="X13" t="n">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="Y13" t="n">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="Z13" t="n">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="AA13" t="n">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="AB13" t="n">
-        <v>406</v>
+        <v>426</v>
       </c>
       <c r="AC13" t="n">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="AD13" t="n">
         <v>3</v>
       </c>
       <c r="AE13" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AF13" t="n">
         <v>2</v>
       </c>
       <c r="AG13" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AH13" t="n">
-        <v>49.409090909091</v>
+        <v>49.391304347826</v>
       </c>
       <c r="AI13" t="n">
-        <v>9895</v>
+        <v>10316</v>
       </c>
       <c r="AJ13" t="n">
-        <v>8407</v>
+        <v>8760</v>
       </c>
       <c r="AK13" t="n">
-        <v>84.96210207175299</v>
+        <v>84.916634354401</v>
       </c>
       <c r="AL13" t="n">
-        <v>5261</v>
+        <v>5479</v>
       </c>
       <c r="AM13" t="n">
-        <v>4810</v>
+        <v>5013</v>
       </c>
       <c r="AN13" t="n">
-        <v>91.42748526896</v>
+        <v>91.49479832086099</v>
       </c>
       <c r="AO13" t="n">
-        <v>4634</v>
+        <v>4837</v>
       </c>
       <c r="AP13" t="n">
-        <v>3597</v>
+        <v>3747</v>
       </c>
       <c r="AQ13" t="n">
-        <v>77.621924902892</v>
+        <v>77.46537109778799</v>
       </c>
       <c r="AR13" t="n">
-        <v>732</v>
+        <v>755</v>
       </c>
       <c r="AS13" t="n">
-        <v>375</v>
+        <v>386</v>
       </c>
       <c r="AT13" t="n">
-        <v>51.229508196721</v>
+        <v>51.12582781457</v>
       </c>
       <c r="AU13" t="n">
-        <v>306</v>
+        <v>318</v>
       </c>
       <c r="AV13" t="n">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="AW13" t="n">
-        <v>19.281045751634</v>
+        <v>19.811320754717</v>
       </c>
       <c r="AX13" t="n">
         <v>4</v>
       </c>
       <c r="AY13" t="n">
-        <v>330</v>
+        <v>349</v>
       </c>
       <c r="AZ13" t="n">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="BA13" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="BB13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BC13" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BD13" t="n">
         <v>5</v>
@@ -6118,7 +6118,7 @@
         <v>5</v>
       </c>
       <c r="BF13" t="n">
-        <v>567</v>
+        <v>595</v>
       </c>
       <c r="BG13" t="n">
         <v>2</v>
@@ -6127,43 +6127,43 @@
         <v>4</v>
       </c>
       <c r="BI13" t="n">
-        <v>2135</v>
+        <v>2243</v>
       </c>
       <c r="BJ13" t="n">
-        <v>1077</v>
+        <v>1128</v>
       </c>
       <c r="BK13" t="n">
-        <v>50.444964871194</v>
+        <v>50.289790459206</v>
       </c>
       <c r="BL13" t="n">
-        <v>1616</v>
+        <v>1701</v>
       </c>
       <c r="BM13" t="n">
-        <v>818</v>
+        <v>860</v>
       </c>
       <c r="BN13" t="n">
-        <v>50.618811881188</v>
+        <v>50.558495002939</v>
       </c>
       <c r="BO13" t="n">
-        <v>519</v>
+        <v>542</v>
       </c>
       <c r="BP13" t="n">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="BQ13" t="n">
-        <v>49.90366088632</v>
+        <v>49.446494464945</v>
       </c>
       <c r="BR13" t="n">
-        <v>2591</v>
+        <v>2701</v>
       </c>
       <c r="BS13" t="n">
         <v>47</v>
       </c>
       <c r="BT13" t="n">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="BU13" t="n">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="BV13" t="n">
         <v>2</v>
@@ -6172,130 +6172,130 @@
         <v>6</v>
       </c>
       <c r="BX13" t="n">
-        <v>6.7300884955752</v>
+        <v>6.7299435028249</v>
       </c>
       <c r="BY13" t="n">
-        <v>2350</v>
+        <v>2464</v>
       </c>
       <c r="BZ13" t="n">
-        <v>4561</v>
+        <v>4766</v>
       </c>
       <c r="CA13" t="n">
-        <v>4151</v>
+        <v>4318</v>
       </c>
       <c r="CB13" t="n">
-        <v>8712</v>
+        <v>9084</v>
       </c>
       <c r="CC13" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="CD13" t="n">
         <v>40</v>
       </c>
       <c r="CE13" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="CF13" t="n">
-        <v>426</v>
+        <v>447</v>
       </c>
       <c r="CG13" t="n">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="CH13" t="n">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="CI13" t="n">
-        <v>434</v>
+        <v>460</v>
       </c>
       <c r="CJ13" t="n">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="CK13" t="n">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="CL13" t="n">
         <v>1</v>
       </c>
       <c r="CM13" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="CN13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="CO13" t="n">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="CP13" t="n">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="CQ13" t="n">
-        <v>483</v>
+        <v>505</v>
       </c>
       <c r="CR13" t="n">
-        <v>1026</v>
+        <v>1067</v>
       </c>
       <c r="CS13" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="CT13" t="n">
         <v>1</v>
       </c>
       <c r="CU13" t="n">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="CV13" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="CW13" t="n">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="CX13" t="n">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="CY13" t="n">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="CZ13" t="n">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="DA13" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="DB13" t="n">
-        <v>414</v>
+        <v>434</v>
       </c>
       <c r="DC13" t="n">
-        <v>3136</v>
+        <v>3276</v>
       </c>
       <c r="DD13" t="n">
-        <v>5724</v>
+        <v>5980</v>
       </c>
       <c r="DE13" t="n">
-        <v>4474</v>
+        <v>4650</v>
       </c>
       <c r="DF13" t="n">
-        <v>10198</v>
+        <v>10630</v>
       </c>
       <c r="DG13" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="DH13" t="n">
-        <v>363</v>
+        <v>375</v>
       </c>
       <c r="DI13" t="n">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="DJ13" t="n">
-        <v>997</v>
+        <v>1040</v>
       </c>
       <c r="DK13" t="n">
-        <v>294</v>
+        <v>309</v>
       </c>
       <c r="DL13" t="n">
         <v>48069</v>
       </c>
       <c r="DM13" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="DN13" t="n">
         <v>0</v>
@@ -6311,80 +6311,80 @@
         </is>
       </c>
       <c r="DQ13" t="n">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="DR13" t="n">
-        <v>1.64</v>
+        <v>1.61</v>
       </c>
       <c r="DS13" t="n">
-        <v>9.449999999999999</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="DT13" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="DU13" t="n">
-        <v>3.86</v>
+        <v>4</v>
       </c>
       <c r="DV13" t="n">
-        <v>11.23</v>
+        <v>11.3</v>
       </c>
       <c r="DW13" t="n">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="DX13" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="DY13" t="n">
-        <v>1.82</v>
+        <v>1.91</v>
       </c>
       <c r="DZ13" t="n">
-        <v>1.18</v>
+        <v>1.3</v>
       </c>
       <c r="EA13" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="EB13" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="EC13" t="n">
-        <v>382.14</v>
+        <v>380.87</v>
       </c>
       <c r="ED13" t="n">
-        <v>15</v>
+        <v>15.17</v>
       </c>
       <c r="EE13" t="n">
-        <v>7.73</v>
+        <v>7.7</v>
       </c>
       <c r="EF13" t="n">
-        <v>25.77</v>
+        <v>25.87</v>
       </c>
       <c r="EG13" t="n">
-        <v>3.18</v>
+        <v>3.13</v>
       </c>
       <c r="EH13" t="n">
-        <v>48.95</v>
+        <v>49.04</v>
       </c>
       <c r="EI13" t="n">
-        <v>37.18</v>
+        <v>37.39</v>
       </c>
       <c r="EJ13" t="n">
-        <v>11.77</v>
+        <v>11.65</v>
       </c>
       <c r="EK13" t="n">
-        <v>117.77</v>
+        <v>117.43</v>
       </c>
       <c r="EL13" t="n">
-        <v>9.050000000000001</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Elche</t>
+          <t>Sevilla</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2846</v>
+        <v>2833</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -6395,145 +6395,145 @@
         <v>23</v>
       </c>
       <c r="E14" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F14" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I14" t="n">
-        <v>251</v>
+        <v>270</v>
       </c>
       <c r="J14" t="n">
+        <v>4</v>
+      </c>
+      <c r="K14" t="n">
+        <v>5</v>
+      </c>
+      <c r="L14" t="n">
         <v>0</v>
       </c>
-      <c r="K14" t="n">
-        <v>1</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
       <c r="M14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N14" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="O14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P14" t="n">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="Q14" t="n">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="T14" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="U14" t="n">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="V14" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="W14" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="X14" t="n">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="Y14" t="n">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="Z14" t="n">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="AA14" t="n">
-        <v>192</v>
+        <v>165</v>
       </c>
       <c r="AB14" t="n">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="AC14" t="n">
-        <v>80</v>
+        <v>123</v>
       </c>
       <c r="AD14" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AE14" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="AF14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG14" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="AH14" t="n">
-        <v>58.304347826087</v>
+        <v>54.652173913043</v>
       </c>
       <c r="AI14" t="n">
-        <v>11931</v>
+        <v>9898</v>
       </c>
       <c r="AJ14" t="n">
-        <v>10316</v>
+        <v>8156</v>
       </c>
       <c r="AK14" t="n">
-        <v>86.463833710502</v>
+        <v>82.400484946454</v>
       </c>
       <c r="AL14" t="n">
-        <v>5646</v>
+        <v>4988</v>
       </c>
       <c r="AM14" t="n">
-        <v>5164</v>
+        <v>4512</v>
       </c>
       <c r="AN14" t="n">
-        <v>91.46298264257899</v>
+        <v>90.45709703287901</v>
       </c>
       <c r="AO14" t="n">
-        <v>6285</v>
+        <v>4910</v>
       </c>
       <c r="AP14" t="n">
-        <v>5152</v>
+        <v>3644</v>
       </c>
       <c r="AQ14" t="n">
-        <v>81.97295147175799</v>
+        <v>74.215885947047</v>
       </c>
       <c r="AR14" t="n">
-        <v>633</v>
+        <v>857</v>
       </c>
       <c r="AS14" t="n">
-        <v>319</v>
+        <v>434</v>
       </c>
       <c r="AT14" t="n">
-        <v>50.394944707741</v>
+        <v>50.641773628938</v>
       </c>
       <c r="AU14" t="n">
-        <v>343</v>
+        <v>392</v>
       </c>
       <c r="AV14" t="n">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="AW14" t="n">
-        <v>24.781341107872</v>
+        <v>25.765306122449</v>
       </c>
       <c r="AX14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY14" t="n">
-        <v>390</v>
+        <v>424</v>
       </c>
       <c r="AZ14" t="n">
         <v>184</v>
@@ -6542,193 +6542,193 @@
         <v>73</v>
       </c>
       <c r="BB14" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BC14" t="n">
         <v>13</v>
       </c>
       <c r="BD14" t="n">
+        <v>9</v>
+      </c>
+      <c r="BE14" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF14" t="n">
+        <v>588</v>
+      </c>
+      <c r="BG14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH14" t="n">
         <v>4</v>
       </c>
-      <c r="BE14" t="n">
-        <v>4</v>
-      </c>
-      <c r="BF14" t="n">
-        <v>497</v>
-      </c>
-      <c r="BG14" t="n">
-        <v>1</v>
-      </c>
-      <c r="BH14" t="n">
-        <v>6</v>
-      </c>
       <c r="BI14" t="n">
-        <v>2249</v>
+        <v>2434</v>
       </c>
       <c r="BJ14" t="n">
-        <v>1145</v>
+        <v>1231</v>
       </c>
       <c r="BK14" t="n">
-        <v>50.911516229435</v>
+        <v>50.575184880855</v>
       </c>
       <c r="BL14" t="n">
-        <v>1705</v>
+        <v>1778</v>
       </c>
       <c r="BM14" t="n">
-        <v>896</v>
+        <v>886</v>
       </c>
       <c r="BN14" t="n">
-        <v>52.551319648094</v>
+        <v>49.831271091114</v>
       </c>
       <c r="BO14" t="n">
-        <v>544</v>
+        <v>656</v>
       </c>
       <c r="BP14" t="n">
-        <v>249</v>
+        <v>345</v>
       </c>
       <c r="BQ14" t="n">
-        <v>45.772058823529</v>
+        <v>52.591463414634</v>
       </c>
       <c r="BR14" t="n">
-        <v>2798</v>
+        <v>3024</v>
       </c>
       <c r="BS14" t="n">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="BT14" t="n">
-        <v>292</v>
+        <v>344</v>
       </c>
       <c r="BU14" t="n">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="BV14" t="n">
         <v>1</v>
       </c>
       <c r="BW14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BX14" t="n">
-        <v>6.8225274725275</v>
+        <v>6.7532577903683</v>
       </c>
       <c r="BY14" t="n">
-        <v>1806</v>
+        <v>1447</v>
       </c>
       <c r="BZ14" t="n">
-        <v>3510</v>
+        <v>3008</v>
       </c>
       <c r="CA14" t="n">
-        <v>3221</v>
+        <v>3370</v>
       </c>
       <c r="CB14" t="n">
-        <v>6731</v>
+        <v>6378</v>
       </c>
       <c r="CC14" t="n">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="CD14" t="n">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="CE14" t="n">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="CF14" t="n">
-        <v>501</v>
+        <v>550</v>
       </c>
       <c r="CG14" t="n">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="CH14" t="n">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="CI14" t="n">
-        <v>380</v>
+        <v>366</v>
       </c>
       <c r="CJ14" t="n">
-        <v>348</v>
+        <v>394</v>
       </c>
       <c r="CK14" t="n">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="CL14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CM14" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="CN14" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="CO14" t="n">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="CP14" t="n">
-        <v>267</v>
+        <v>192</v>
       </c>
       <c r="CQ14" t="n">
-        <v>476</v>
+        <v>448</v>
       </c>
       <c r="CR14" t="n">
-        <v>1054</v>
+        <v>1156</v>
       </c>
       <c r="CS14" t="n">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="CT14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CU14" t="n">
-        <v>343</v>
+        <v>255</v>
       </c>
       <c r="CV14" t="n">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="CW14" t="n">
-        <v>229</v>
+        <v>185</v>
       </c>
       <c r="CX14" t="n">
-        <v>114</v>
+        <v>70</v>
       </c>
       <c r="CY14" t="n">
-        <v>141</v>
+        <v>79</v>
       </c>
       <c r="CZ14" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="DA14" t="n">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="DB14" t="n">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="DC14" t="n">
-        <v>2619</v>
+        <v>2308</v>
       </c>
       <c r="DD14" t="n">
-        <v>4707</v>
+        <v>4363</v>
       </c>
       <c r="DE14" t="n">
-        <v>3580</v>
+        <v>3780</v>
       </c>
       <c r="DF14" t="n">
-        <v>8287</v>
+        <v>8143</v>
       </c>
       <c r="DG14" t="n">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="DH14" t="n">
-        <v>377</v>
+        <v>452</v>
       </c>
       <c r="DI14" t="n">
-        <v>187</v>
+        <v>134</v>
       </c>
       <c r="DJ14" t="n">
-        <v>1106</v>
+        <v>1118</v>
       </c>
       <c r="DK14" t="n">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="DL14" t="n">
-        <v>48667</v>
+        <v>48473</v>
       </c>
       <c r="DM14" t="n">
         <v>23</v>
@@ -6747,80 +6747,80 @@
         </is>
       </c>
       <c r="DQ14" t="n">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
       <c r="DR14" t="n">
-        <v>1.52</v>
+        <v>1.65</v>
       </c>
       <c r="DS14" t="n">
-        <v>10.91</v>
+        <v>11.74</v>
       </c>
       <c r="DT14" t="n">
-        <v>3.78</v>
+        <v>4</v>
       </c>
       <c r="DU14" t="n">
-        <v>3.48</v>
+        <v>5.35</v>
       </c>
       <c r="DV14" t="n">
-        <v>12.7</v>
+        <v>14.96</v>
       </c>
       <c r="DW14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="DX14" t="n">
-        <v>0.13</v>
+        <v>0.04</v>
       </c>
       <c r="DY14" t="n">
-        <v>1.87</v>
+        <v>1.61</v>
       </c>
       <c r="DZ14" t="n">
-        <v>1.13</v>
+        <v>1.04</v>
       </c>
       <c r="EA14" t="n">
-        <v>0.22</v>
+        <v>0.35</v>
       </c>
       <c r="EB14" t="n">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="EC14" t="n">
-        <v>448.52</v>
+        <v>354.61</v>
       </c>
       <c r="ED14" t="n">
-        <v>16.96</v>
+        <v>18.43</v>
       </c>
       <c r="EE14" t="n">
         <v>8</v>
       </c>
       <c r="EF14" t="n">
-        <v>21.61</v>
+        <v>25.57</v>
       </c>
       <c r="EG14" t="n">
         <v>3.17</v>
       </c>
       <c r="EH14" t="n">
-        <v>49.78</v>
+        <v>53.52</v>
       </c>
       <c r="EI14" t="n">
-        <v>38.96</v>
+        <v>38.52</v>
       </c>
       <c r="EJ14" t="n">
-        <v>10.83</v>
+        <v>15</v>
       </c>
       <c r="EK14" t="n">
-        <v>121.65</v>
+        <v>131.48</v>
       </c>
       <c r="EL14" t="n">
-        <v>8.35</v>
+        <v>7.17</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Sevilla</t>
+          <t>Deportivo Alavés</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2833</v>
+        <v>2885</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -6828,346 +6828,346 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15" t="n">
+        <v>20</v>
+      </c>
+      <c r="F15" t="n">
         <v>29</v>
-      </c>
-      <c r="F15" t="n">
-        <v>37</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="I15" t="n">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="J15" t="n">
         <v>4</v>
       </c>
       <c r="K15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="O15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P15" t="n">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="Q15" t="n">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S15" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="T15" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="U15" t="n">
+        <v>48</v>
+      </c>
+      <c r="V15" t="n">
         <v>36</v>
       </c>
-      <c r="V15" t="n">
-        <v>27</v>
-      </c>
       <c r="W15" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="X15" t="n">
         <v>89</v>
       </c>
       <c r="Y15" t="n">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="Z15" t="n">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="AA15" t="n">
-        <v>155</v>
+        <v>188</v>
       </c>
       <c r="AB15" t="n">
-        <v>346</v>
+        <v>417</v>
       </c>
       <c r="AC15" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AD15" t="n">
         <v>7</v>
       </c>
       <c r="AE15" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="AF15" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AG15" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AH15" t="n">
-        <v>54.818181818182</v>
+        <v>50.260869565217</v>
       </c>
       <c r="AI15" t="n">
-        <v>9466</v>
+        <v>9847</v>
       </c>
       <c r="AJ15" t="n">
-        <v>7784</v>
+        <v>7937</v>
       </c>
       <c r="AK15" t="n">
-        <v>82.231143038242</v>
+        <v>80.603229409973</v>
       </c>
       <c r="AL15" t="n">
-        <v>4812</v>
+        <v>4466</v>
       </c>
       <c r="AM15" t="n">
-        <v>4345</v>
+        <v>3972</v>
       </c>
       <c r="AN15" t="n">
-        <v>90.295095594347</v>
+        <v>88.938647559337</v>
       </c>
       <c r="AO15" t="n">
-        <v>4654</v>
+        <v>5381</v>
       </c>
       <c r="AP15" t="n">
-        <v>3439</v>
+        <v>3965</v>
       </c>
       <c r="AQ15" t="n">
-        <v>73.893425010743</v>
+        <v>73.68518862664899</v>
       </c>
       <c r="AR15" t="n">
-        <v>832</v>
+        <v>769</v>
       </c>
       <c r="AS15" t="n">
-        <v>418</v>
+        <v>352</v>
       </c>
       <c r="AT15" t="n">
-        <v>50.240384615385</v>
+        <v>45.773732119636</v>
       </c>
       <c r="AU15" t="n">
-        <v>366</v>
+        <v>444</v>
       </c>
       <c r="AV15" t="n">
         <v>98</v>
       </c>
       <c r="AW15" t="n">
-        <v>26.775956284153</v>
+        <v>22.072072072072</v>
       </c>
       <c r="AX15" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>431</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>184</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>60</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>3</v>
+      </c>
+      <c r="BE15" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF15" t="n">
+        <v>549</v>
+      </c>
+      <c r="BG15" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH15" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI15" t="n">
+        <v>2723</v>
+      </c>
+      <c r="BJ15" t="n">
+        <v>1302</v>
+      </c>
+      <c r="BK15" t="n">
+        <v>47.814910025707</v>
+      </c>
+      <c r="BL15" t="n">
+        <v>1944</v>
+      </c>
+      <c r="BM15" t="n">
+        <v>924</v>
+      </c>
+      <c r="BN15" t="n">
+        <v>47.530864197531</v>
+      </c>
+      <c r="BO15" t="n">
+        <v>779</v>
+      </c>
+      <c r="BP15" t="n">
+        <v>378</v>
+      </c>
+      <c r="BQ15" t="n">
+        <v>48.523748395379</v>
+      </c>
+      <c r="BR15" t="n">
+        <v>3265</v>
+      </c>
+      <c r="BS15" t="n">
+        <v>51</v>
+      </c>
+      <c r="BT15" t="n">
+        <v>350</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>50</v>
+      </c>
+      <c r="BV15" t="n">
+        <v>2</v>
+      </c>
+      <c r="BW15" t="n">
+        <v>2</v>
+      </c>
+      <c r="BX15" t="n">
+        <v>6.7135593220339</v>
+      </c>
+      <c r="BY15" t="n">
+        <v>1890</v>
+      </c>
+      <c r="BZ15" t="n">
+        <v>4048</v>
+      </c>
+      <c r="CA15" t="n">
+        <v>4059</v>
+      </c>
+      <c r="CB15" t="n">
+        <v>8107</v>
+      </c>
+      <c r="CC15" t="n">
+        <v>50</v>
+      </c>
+      <c r="CD15" t="n">
+        <v>33</v>
+      </c>
+      <c r="CE15" t="n">
+        <v>30</v>
+      </c>
+      <c r="CF15" t="n">
+        <v>577</v>
+      </c>
+      <c r="CG15" t="n">
+        <v>107</v>
+      </c>
+      <c r="CH15" t="n">
+        <v>98</v>
+      </c>
+      <c r="CI15" t="n">
+        <v>395</v>
+      </c>
+      <c r="CJ15" t="n">
+        <v>418</v>
+      </c>
+      <c r="CK15" t="n">
+        <v>206</v>
+      </c>
+      <c r="CL15" t="n">
         <v>4</v>
       </c>
-      <c r="AY15" t="n">
-        <v>404</v>
-      </c>
-      <c r="AZ15" t="n">
-        <v>178</v>
-      </c>
-      <c r="BA15" t="n">
-        <v>68</v>
-      </c>
-      <c r="BB15" t="n">
-        <v>6</v>
-      </c>
-      <c r="BC15" t="n">
-        <v>11</v>
-      </c>
-      <c r="BD15" t="n">
+      <c r="CM15" t="n">
+        <v>12</v>
+      </c>
+      <c r="CN15" t="n">
         <v>8</v>
       </c>
-      <c r="BE15" t="n">
-        <v>7</v>
-      </c>
-      <c r="BF15" t="n">
-        <v>567</v>
-      </c>
-      <c r="BG15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH15" t="n">
-        <v>4</v>
-      </c>
-      <c r="BI15" t="n">
-        <v>2326</v>
-      </c>
-      <c r="BJ15" t="n">
-        <v>1174</v>
-      </c>
-      <c r="BK15" t="n">
-        <v>50.472914875322</v>
-      </c>
-      <c r="BL15" t="n">
-        <v>1693</v>
-      </c>
-      <c r="BM15" t="n">
-        <v>843</v>
-      </c>
-      <c r="BN15" t="n">
-        <v>49.793266391022</v>
-      </c>
-      <c r="BO15" t="n">
+      <c r="CO15" t="n">
+        <v>194</v>
+      </c>
+      <c r="CP15" t="n">
+        <v>209</v>
+      </c>
+      <c r="CQ15" t="n">
         <v>633</v>
       </c>
-      <c r="BP15" t="n">
-        <v>331</v>
-      </c>
-      <c r="BQ15" t="n">
-        <v>52.290679304897</v>
-      </c>
-      <c r="BR15" t="n">
-        <v>2909</v>
-      </c>
-      <c r="BS15" t="n">
-        <v>60</v>
-      </c>
-      <c r="BT15" t="n">
-        <v>328</v>
-      </c>
-      <c r="BU15" t="n">
-        <v>66</v>
-      </c>
-      <c r="BV15" t="n">
-        <v>1</v>
-      </c>
-      <c r="BW15" t="n">
-        <v>1</v>
-      </c>
-      <c r="BX15" t="n">
-        <v>6.7459940652819</v>
-      </c>
-      <c r="BY15" t="n">
-        <v>1366</v>
-      </c>
-      <c r="BZ15" t="n">
-        <v>2858</v>
-      </c>
-      <c r="CA15" t="n">
-        <v>3167</v>
-      </c>
-      <c r="CB15" t="n">
-        <v>6025</v>
-      </c>
-      <c r="CC15" t="n">
-        <v>66</v>
-      </c>
-      <c r="CD15" t="n">
-        <v>45</v>
-      </c>
-      <c r="CE15" t="n">
-        <v>38</v>
-      </c>
-      <c r="CF15" t="n">
-        <v>522</v>
-      </c>
-      <c r="CG15" t="n">
-        <v>108</v>
-      </c>
-      <c r="CH15" t="n">
-        <v>81</v>
-      </c>
-      <c r="CI15" t="n">
-        <v>354</v>
-      </c>
-      <c r="CJ15" t="n">
-        <v>374</v>
-      </c>
-      <c r="CK15" t="n">
-        <v>172</v>
-      </c>
-      <c r="CL15" t="n">
-        <v>3</v>
-      </c>
-      <c r="CM15" t="n">
-        <v>9</v>
-      </c>
-      <c r="CN15" t="n">
-        <v>5</v>
-      </c>
-      <c r="CO15" t="n">
-        <v>170</v>
-      </c>
-      <c r="CP15" t="n">
-        <v>180</v>
-      </c>
-      <c r="CQ15" t="n">
-        <v>427</v>
-      </c>
       <c r="CR15" t="n">
-        <v>1108</v>
+        <v>1277</v>
       </c>
       <c r="CS15" t="n">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="CT15" t="n">
         <v>2</v>
       </c>
       <c r="CU15" t="n">
-        <v>240</v>
+        <v>293</v>
       </c>
       <c r="CV15" t="n">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="CW15" t="n">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="CX15" t="n">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="CY15" t="n">
-        <v>74</v>
+        <v>114</v>
       </c>
       <c r="CZ15" t="n">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="DA15" t="n">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="DB15" t="n">
-        <v>372</v>
+        <v>485</v>
       </c>
       <c r="DC15" t="n">
-        <v>2200</v>
+        <v>2767</v>
       </c>
       <c r="DD15" t="n">
-        <v>4160</v>
+        <v>5427</v>
       </c>
       <c r="DE15" t="n">
-        <v>3562</v>
+        <v>4530</v>
       </c>
       <c r="DF15" t="n">
-        <v>7722</v>
+        <v>9957</v>
       </c>
       <c r="DG15" t="n">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="DH15" t="n">
-        <v>431</v>
+        <v>460</v>
       </c>
       <c r="DI15" t="n">
-        <v>125</v>
+        <v>185</v>
       </c>
       <c r="DJ15" t="n">
-        <v>1077</v>
+        <v>1164</v>
       </c>
       <c r="DK15" t="n">
-        <v>289</v>
+        <v>308</v>
       </c>
       <c r="DL15" t="n">
-        <v>48473</v>
+        <v>48317</v>
       </c>
       <c r="DM15" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="DN15" t="n">
         <v>0</v>
@@ -7183,80 +7183,80 @@
         </is>
       </c>
       <c r="DQ15" t="n">
-        <v>1.32</v>
+        <v>0.87</v>
       </c>
       <c r="DR15" t="n">
-        <v>1.68</v>
+        <v>1.26</v>
       </c>
       <c r="DS15" t="n">
-        <v>11.77</v>
+        <v>11.61</v>
       </c>
       <c r="DT15" t="n">
-        <v>4.05</v>
+        <v>3.87</v>
       </c>
       <c r="DU15" t="n">
-        <v>5.36</v>
+        <v>5.04</v>
       </c>
       <c r="DV15" t="n">
-        <v>14.91</v>
+        <v>15.22</v>
       </c>
       <c r="DW15" t="n">
-        <v>3</v>
+        <v>2.17</v>
       </c>
       <c r="DX15" t="n">
-        <v>0.05</v>
+        <v>0.09</v>
       </c>
       <c r="DY15" t="n">
-        <v>1.64</v>
+        <v>2.09</v>
       </c>
       <c r="DZ15" t="n">
-        <v>1.05</v>
+        <v>1.48</v>
       </c>
       <c r="EA15" t="n">
-        <v>0.32</v>
+        <v>0.3</v>
       </c>
       <c r="EB15" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="EC15" t="n">
-        <v>353.82</v>
+        <v>345.09</v>
       </c>
       <c r="ED15" t="n">
-        <v>18.36</v>
+        <v>18.74</v>
       </c>
       <c r="EE15" t="n">
-        <v>8.09</v>
+        <v>8</v>
       </c>
       <c r="EF15" t="n">
-        <v>25.77</v>
+        <v>23.87</v>
       </c>
       <c r="EG15" t="n">
-        <v>3.09</v>
+        <v>2.61</v>
       </c>
       <c r="EH15" t="n">
-        <v>53.36</v>
+        <v>56.61</v>
       </c>
       <c r="EI15" t="n">
-        <v>38.32</v>
+        <v>40.17</v>
       </c>
       <c r="EJ15" t="n">
-        <v>15.05</v>
+        <v>16.43</v>
       </c>
       <c r="EK15" t="n">
-        <v>132.23</v>
+        <v>141.96</v>
       </c>
       <c r="EL15" t="n">
-        <v>7.05</v>
+        <v>8.17</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Mallorca</t>
+          <t>Elche</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2826</v>
+        <v>2846</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -7267,340 +7267,340 @@
         <v>23</v>
       </c>
       <c r="E16" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F16" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I16" t="n">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="J16" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N16" t="n">
         <v>25</v>
       </c>
       <c r="O16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P16" t="n">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="Q16" t="n">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="R16" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>14</v>
       </c>
       <c r="T16" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="U16" t="n">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="V16" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="W16" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="X16" t="n">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="Y16" t="n">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="Z16" t="n">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="AA16" t="n">
-        <v>163</v>
+        <v>192</v>
       </c>
       <c r="AB16" t="n">
-        <v>337</v>
+        <v>372</v>
       </c>
       <c r="AC16" t="n">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AD16" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AE16" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AF16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AG16" t="n">
         <v>14</v>
       </c>
       <c r="AH16" t="n">
-        <v>42.913043478261</v>
+        <v>58.304347826087</v>
       </c>
       <c r="AI16" t="n">
-        <v>8382</v>
+        <v>11931</v>
       </c>
       <c r="AJ16" t="n">
-        <v>6599</v>
+        <v>10316</v>
       </c>
       <c r="AK16" t="n">
-        <v>78.728227153424</v>
+        <v>86.463833710502</v>
       </c>
       <c r="AL16" t="n">
-        <v>4098</v>
+        <v>5646</v>
       </c>
       <c r="AM16" t="n">
-        <v>3617</v>
+        <v>5164</v>
       </c>
       <c r="AN16" t="n">
-        <v>88.26256710590501</v>
+        <v>91.46298264257899</v>
       </c>
       <c r="AO16" t="n">
-        <v>4284</v>
+        <v>6285</v>
       </c>
       <c r="AP16" t="n">
-        <v>2982</v>
+        <v>5152</v>
       </c>
       <c r="AQ16" t="n">
-        <v>69.607843137255</v>
+        <v>81.97295147175799</v>
       </c>
       <c r="AR16" t="n">
-        <v>924</v>
+        <v>633</v>
       </c>
       <c r="AS16" t="n">
-        <v>422</v>
+        <v>319</v>
       </c>
       <c r="AT16" t="n">
-        <v>45.670995670996</v>
+        <v>50.394944707741</v>
       </c>
       <c r="AU16" t="n">
-        <v>382</v>
+        <v>343</v>
       </c>
       <c r="AV16" t="n">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="AW16" t="n">
-        <v>28.534031413613</v>
+        <v>24.781341107872</v>
       </c>
       <c r="AX16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AY16" t="n">
-        <v>342</v>
+        <v>390</v>
       </c>
       <c r="AZ16" t="n">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="BA16" t="n">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="BB16" t="n">
         <v>4</v>
       </c>
       <c r="BC16" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="BD16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BE16" t="n">
         <v>4</v>
       </c>
       <c r="BF16" t="n">
-        <v>691</v>
+        <v>497</v>
       </c>
       <c r="BG16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BH16" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI16" t="n">
+        <v>2249</v>
+      </c>
+      <c r="BJ16" t="n">
+        <v>1145</v>
+      </c>
+      <c r="BK16" t="n">
+        <v>50.911516229435</v>
+      </c>
+      <c r="BL16" t="n">
+        <v>1705</v>
+      </c>
+      <c r="BM16" t="n">
+        <v>896</v>
+      </c>
+      <c r="BN16" t="n">
+        <v>52.551319648094</v>
+      </c>
+      <c r="BO16" t="n">
+        <v>544</v>
+      </c>
+      <c r="BP16" t="n">
+        <v>249</v>
+      </c>
+      <c r="BQ16" t="n">
+        <v>45.772058823529</v>
+      </c>
+      <c r="BR16" t="n">
+        <v>2798</v>
+      </c>
+      <c r="BS16" t="n">
+        <v>38</v>
+      </c>
+      <c r="BT16" t="n">
+        <v>292</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>46</v>
+      </c>
+      <c r="BV16" t="n">
         <v>1</v>
-      </c>
-      <c r="BI16" t="n">
-        <v>2236</v>
-      </c>
-      <c r="BJ16" t="n">
-        <v>1125</v>
-      </c>
-      <c r="BK16" t="n">
-        <v>50.313059033989</v>
-      </c>
-      <c r="BL16" t="n">
-        <v>1531</v>
-      </c>
-      <c r="BM16" t="n">
-        <v>759</v>
-      </c>
-      <c r="BN16" t="n">
-        <v>49.575440888308</v>
-      </c>
-      <c r="BO16" t="n">
-        <v>705</v>
-      </c>
-      <c r="BP16" t="n">
-        <v>366</v>
-      </c>
-      <c r="BQ16" t="n">
-        <v>51.914893617021</v>
-      </c>
-      <c r="BR16" t="n">
-        <v>2891</v>
-      </c>
-      <c r="BS16" t="n">
-        <v>33</v>
-      </c>
-      <c r="BT16" t="n">
-        <v>264</v>
-      </c>
-      <c r="BU16" t="n">
-        <v>45</v>
-      </c>
-      <c r="BV16" t="n">
-        <v>2</v>
       </c>
       <c r="BW16" t="n">
         <v>3</v>
       </c>
       <c r="BX16" t="n">
-        <v>6.7459154929577</v>
+        <v>6.8225274725275</v>
       </c>
       <c r="BY16" t="n">
-        <v>2722</v>
+        <v>1806</v>
       </c>
       <c r="BZ16" t="n">
-        <v>5257</v>
+        <v>3510</v>
       </c>
       <c r="CA16" t="n">
-        <v>4239</v>
+        <v>3221</v>
       </c>
       <c r="CB16" t="n">
-        <v>9496</v>
+        <v>6731</v>
       </c>
       <c r="CC16" t="n">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="CD16" t="n">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="CE16" t="n">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="CF16" t="n">
-        <v>519</v>
+        <v>501</v>
       </c>
       <c r="CG16" t="n">
-        <v>161</v>
+        <v>108</v>
       </c>
       <c r="CH16" t="n">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="CI16" t="n">
-        <v>495</v>
+        <v>380</v>
       </c>
       <c r="CJ16" t="n">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="CK16" t="n">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="CL16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CM16" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="CN16" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="CO16" t="n">
-        <v>150</v>
+        <v>179</v>
       </c>
       <c r="CP16" t="n">
-        <v>243</v>
+        <v>267</v>
       </c>
       <c r="CQ16" t="n">
-        <v>583</v>
+        <v>476</v>
       </c>
       <c r="CR16" t="n">
-        <v>1197</v>
+        <v>1054</v>
       </c>
       <c r="CS16" t="n">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="CT16" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="CU16" t="n">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="CV16" t="n">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="CW16" t="n">
-        <v>205</v>
+        <v>229</v>
       </c>
       <c r="CX16" t="n">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="CY16" t="n">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="CZ16" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="DA16" t="n">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="DB16" t="n">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="DC16" t="n">
-        <v>3581</v>
+        <v>2619</v>
       </c>
       <c r="DD16" t="n">
-        <v>6551</v>
+        <v>4707</v>
       </c>
       <c r="DE16" t="n">
-        <v>4662</v>
+        <v>3580</v>
       </c>
       <c r="DF16" t="n">
-        <v>11213</v>
+        <v>8287</v>
       </c>
       <c r="DG16" t="n">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="DH16" t="n">
-        <v>425</v>
+        <v>377</v>
       </c>
       <c r="DI16" t="n">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="DJ16" t="n">
-        <v>1054</v>
+        <v>1106</v>
       </c>
       <c r="DK16" t="n">
-        <v>266</v>
+        <v>317</v>
       </c>
       <c r="DL16" t="n">
-        <v>48300</v>
+        <v>48667</v>
       </c>
       <c r="DM16" t="n">
         <v>23</v>
@@ -7619,80 +7619,80 @@
         </is>
       </c>
       <c r="DQ16" t="n">
-        <v>1.22</v>
+        <v>1.35</v>
       </c>
       <c r="DR16" t="n">
-        <v>1.61</v>
+        <v>1.52</v>
       </c>
       <c r="DS16" t="n">
-        <v>10.35</v>
+        <v>10.91</v>
       </c>
       <c r="DT16" t="n">
-        <v>4.04</v>
+        <v>3.78</v>
       </c>
       <c r="DU16" t="n">
-        <v>3.35</v>
+        <v>3.48</v>
       </c>
       <c r="DV16" t="n">
-        <v>11.48</v>
+        <v>12.7</v>
       </c>
       <c r="DW16" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="DX16" t="n">
         <v>0.13</v>
       </c>
       <c r="DY16" t="n">
-        <v>2.04</v>
+        <v>1.87</v>
       </c>
       <c r="DZ16" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="EA16" t="n">
-        <v>0.04</v>
+        <v>0.22</v>
       </c>
       <c r="EB16" t="n">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="EC16" t="n">
-        <v>286.91</v>
+        <v>448.52</v>
       </c>
       <c r="ED16" t="n">
-        <v>14.87</v>
+        <v>16.96</v>
       </c>
       <c r="EE16" t="n">
-        <v>7.39</v>
+        <v>8</v>
       </c>
       <c r="EF16" t="n">
-        <v>30.04</v>
+        <v>21.61</v>
       </c>
       <c r="EG16" t="n">
-        <v>3.43</v>
+        <v>3.17</v>
       </c>
       <c r="EH16" t="n">
-        <v>48.91</v>
+        <v>49.78</v>
       </c>
       <c r="EI16" t="n">
-        <v>33</v>
+        <v>38.96</v>
       </c>
       <c r="EJ16" t="n">
-        <v>15.91</v>
+        <v>10.83</v>
       </c>
       <c r="EK16" t="n">
-        <v>125.7</v>
+        <v>121.65</v>
       </c>
       <c r="EL16" t="n">
-        <v>7.09</v>
+        <v>8.35</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Getafe</t>
+          <t>Mallorca</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2859</v>
+        <v>2826</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -7700,346 +7700,346 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E17" t="n">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="F17" t="n">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="G17" t="n">
         <v>2</v>
       </c>
       <c r="H17" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I17" t="n">
-        <v>213</v>
+        <v>238</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K17" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N17" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="O17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P17" t="n">
-        <v>118</v>
+        <v>156</v>
       </c>
       <c r="Q17" t="n">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="R17" t="n">
         <v>5</v>
       </c>
       <c r="S17" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="T17" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="U17" t="n">
+        <v>47</v>
+      </c>
+      <c r="V17" t="n">
+        <v>33</v>
+      </c>
+      <c r="W17" t="n">
         <v>27</v>
       </c>
-      <c r="V17" t="n">
-        <v>22</v>
-      </c>
-      <c r="W17" t="n">
-        <v>13</v>
-      </c>
       <c r="X17" t="n">
-        <v>58</v>
+        <v>93</v>
       </c>
       <c r="Y17" t="n">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="Z17" t="n">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="AA17" t="n">
-        <v>134</v>
+        <v>163</v>
       </c>
       <c r="AB17" t="n">
-        <v>285</v>
+        <v>336</v>
       </c>
       <c r="AC17" t="n">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="AD17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>16</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>42.913043478261</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>8380</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>6599</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>78.747016706444</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>4097</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>3616</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>88.259702221137</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>4283</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>2983</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>69.647443380808</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>923</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>422</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>45.720476706392</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>382</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>109</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>28.534031413613</v>
+      </c>
+      <c r="AX17" t="n">
         <v>3</v>
       </c>
-      <c r="AE17" t="n">
-        <v>5</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>4</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>41.727272727273</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>6746</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>4776</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>70.797509635339</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>2458</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>2078</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>84.540276647681</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>4288</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>2698</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>62.919776119403</v>
-      </c>
-      <c r="AR17" t="n">
-        <v>874</v>
-      </c>
-      <c r="AS17" t="n">
-        <v>344</v>
-      </c>
-      <c r="AT17" t="n">
-        <v>39.359267734554</v>
-      </c>
-      <c r="AU17" t="n">
-        <v>448</v>
-      </c>
-      <c r="AV17" t="n">
-        <v>101</v>
-      </c>
-      <c r="AW17" t="n">
-        <v>22.544642857143</v>
-      </c>
-      <c r="AX17" t="n">
-        <v>5</v>
-      </c>
       <c r="AY17" t="n">
-        <v>390</v>
+        <v>341</v>
       </c>
       <c r="AZ17" t="n">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="BA17" t="n">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="BB17" t="n">
         <v>4</v>
       </c>
       <c r="BC17" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BD17" t="n">
+        <v>5</v>
+      </c>
+      <c r="BE17" t="n">
+        <v>4</v>
+      </c>
+      <c r="BF17" t="n">
+        <v>691</v>
+      </c>
+      <c r="BG17" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH17" t="n">
         <v>1</v>
       </c>
-      <c r="BE17" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF17" t="n">
-        <v>579</v>
-      </c>
-      <c r="BG17" t="n">
-        <v>1</v>
-      </c>
-      <c r="BH17" t="n">
-        <v>5</v>
-      </c>
       <c r="BI17" t="n">
-        <v>2483</v>
+        <v>2236</v>
       </c>
       <c r="BJ17" t="n">
-        <v>1211</v>
+        <v>1126</v>
       </c>
       <c r="BK17" t="n">
-        <v>48.771647200967</v>
+        <v>50.357781753131</v>
       </c>
       <c r="BL17" t="n">
-        <v>1655</v>
+        <v>1530</v>
       </c>
       <c r="BM17" t="n">
-        <v>831</v>
+        <v>758</v>
       </c>
       <c r="BN17" t="n">
-        <v>50.211480362538</v>
+        <v>49.542483660131</v>
       </c>
       <c r="BO17" t="n">
-        <v>828</v>
+        <v>706</v>
       </c>
       <c r="BP17" t="n">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="BQ17" t="n">
-        <v>45.893719806763</v>
+        <v>52.124645892351</v>
       </c>
       <c r="BR17" t="n">
-        <v>3235</v>
+        <v>2890</v>
       </c>
       <c r="BS17" t="n">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="BT17" t="n">
-        <v>323</v>
+        <v>264</v>
       </c>
       <c r="BU17" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="BV17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BW17" t="n">
         <v>3</v>
       </c>
       <c r="BX17" t="n">
-        <v>6.6634069400631</v>
+        <v>6.7459154929577</v>
       </c>
       <c r="BY17" t="n">
-        <v>1720</v>
+        <v>2722</v>
       </c>
       <c r="BZ17" t="n">
-        <v>3796</v>
+        <v>5257</v>
       </c>
       <c r="CA17" t="n">
-        <v>4173</v>
+        <v>4238</v>
       </c>
       <c r="CB17" t="n">
-        <v>7969</v>
+        <v>9495</v>
       </c>
       <c r="CC17" t="n">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="CD17" t="n">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="CE17" t="n">
+        <v>34</v>
+      </c>
+      <c r="CF17" t="n">
+        <v>519</v>
+      </c>
+      <c r="CG17" t="n">
+        <v>161</v>
+      </c>
+      <c r="CH17" t="n">
+        <v>106</v>
+      </c>
+      <c r="CI17" t="n">
+        <v>496</v>
+      </c>
+      <c r="CJ17" t="n">
+        <v>331</v>
+      </c>
+      <c r="CK17" t="n">
+        <v>164</v>
+      </c>
+      <c r="CL17" t="n">
+        <v>4</v>
+      </c>
+      <c r="CM17" t="n">
+        <v>8</v>
+      </c>
+      <c r="CN17" t="n">
+        <v>10</v>
+      </c>
+      <c r="CO17" t="n">
+        <v>151</v>
+      </c>
+      <c r="CP17" t="n">
+        <v>243</v>
+      </c>
+      <c r="CQ17" t="n">
+        <v>584</v>
+      </c>
+      <c r="CR17" t="n">
+        <v>1197</v>
+      </c>
+      <c r="CS17" t="n">
+        <v>34</v>
+      </c>
+      <c r="CT17" t="n">
+        <v>7</v>
+      </c>
+      <c r="CU17" t="n">
+        <v>341</v>
+      </c>
+      <c r="CV17" t="n">
+        <v>107</v>
+      </c>
+      <c r="CW17" t="n">
+        <v>205</v>
+      </c>
+      <c r="CX17" t="n">
+        <v>136</v>
+      </c>
+      <c r="CY17" t="n">
+        <v>121</v>
+      </c>
+      <c r="CZ17" t="n">
+        <v>113</v>
+      </c>
+      <c r="DA17" t="n">
+        <v>107</v>
+      </c>
+      <c r="DB17" t="n">
+        <v>365</v>
+      </c>
+      <c r="DC17" t="n">
+        <v>3580</v>
+      </c>
+      <c r="DD17" t="n">
+        <v>6550</v>
+      </c>
+      <c r="DE17" t="n">
+        <v>4660</v>
+      </c>
+      <c r="DF17" t="n">
+        <v>11210</v>
+      </c>
+      <c r="DG17" t="n">
+        <v>42</v>
+      </c>
+      <c r="DH17" t="n">
+        <v>425</v>
+      </c>
+      <c r="DI17" t="n">
+        <v>179</v>
+      </c>
+      <c r="DJ17" t="n">
+        <v>1054</v>
+      </c>
+      <c r="DK17" t="n">
+        <v>266</v>
+      </c>
+      <c r="DL17" t="n">
+        <v>48300</v>
+      </c>
+      <c r="DM17" t="n">
         <v>23</v>
-      </c>
-      <c r="CF17" t="n">
-        <v>696</v>
-      </c>
-      <c r="CG17" t="n">
-        <v>91</v>
-      </c>
-      <c r="CH17" t="n">
-        <v>89</v>
-      </c>
-      <c r="CI17" t="n">
-        <v>331</v>
-      </c>
-      <c r="CJ17" t="n">
-        <v>379</v>
-      </c>
-      <c r="CK17" t="n">
-        <v>178</v>
-      </c>
-      <c r="CL17" t="n">
-        <v>2</v>
-      </c>
-      <c r="CM17" t="n">
-        <v>7</v>
-      </c>
-      <c r="CN17" t="n">
-        <v>7</v>
-      </c>
-      <c r="CO17" t="n">
-        <v>128</v>
-      </c>
-      <c r="CP17" t="n">
-        <v>174</v>
-      </c>
-      <c r="CQ17" t="n">
-        <v>550</v>
-      </c>
-      <c r="CR17" t="n">
-        <v>1320</v>
-      </c>
-      <c r="CS17" t="n">
-        <v>61</v>
-      </c>
-      <c r="CT17" t="n">
-        <v>3</v>
-      </c>
-      <c r="CU17" t="n">
-        <v>229</v>
-      </c>
-      <c r="CV17" t="n">
-        <v>51</v>
-      </c>
-      <c r="CW17" t="n">
-        <v>140</v>
-      </c>
-      <c r="CX17" t="n">
-        <v>89</v>
-      </c>
-      <c r="CY17" t="n">
-        <v>86</v>
-      </c>
-      <c r="CZ17" t="n">
-        <v>92</v>
-      </c>
-      <c r="DA17" t="n">
-        <v>51</v>
-      </c>
-      <c r="DB17" t="n">
-        <v>349</v>
-      </c>
-      <c r="DC17" t="n">
-        <v>2593</v>
-      </c>
-      <c r="DD17" t="n">
-        <v>5162</v>
-      </c>
-      <c r="DE17" t="n">
-        <v>4787</v>
-      </c>
-      <c r="DF17" t="n">
-        <v>9949</v>
-      </c>
-      <c r="DG17" t="n">
-        <v>47</v>
-      </c>
-      <c r="DH17" t="n">
-        <v>540</v>
-      </c>
-      <c r="DI17" t="n">
-        <v>149</v>
-      </c>
-      <c r="DJ17" t="n">
-        <v>1014</v>
-      </c>
-      <c r="DK17" t="n">
-        <v>313</v>
-      </c>
-      <c r="DL17" t="n">
-        <v>48413</v>
-      </c>
-      <c r="DM17" t="n">
-        <v>22</v>
       </c>
       <c r="DN17" t="n">
         <v>0</v>
@@ -8055,70 +8055,70 @@
         </is>
       </c>
       <c r="DQ17" t="n">
-        <v>0.73</v>
+        <v>1.22</v>
       </c>
       <c r="DR17" t="n">
-        <v>1.23</v>
+        <v>1.61</v>
       </c>
       <c r="DS17" t="n">
-        <v>9.68</v>
+        <v>10.35</v>
       </c>
       <c r="DT17" t="n">
-        <v>2.64</v>
+        <v>4.04</v>
       </c>
       <c r="DU17" t="n">
-        <v>4.77</v>
+        <v>3.35</v>
       </c>
       <c r="DV17" t="n">
-        <v>14.68</v>
+        <v>11.48</v>
       </c>
       <c r="DW17" t="n">
-        <v>2.5</v>
+        <v>1.96</v>
       </c>
       <c r="DX17" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="DY17" t="n">
-        <v>1.23</v>
+        <v>2.04</v>
       </c>
       <c r="DZ17" t="n">
-        <v>0.59</v>
+        <v>1.17</v>
       </c>
       <c r="EA17" t="n">
-        <v>0.14</v>
+        <v>0.04</v>
       </c>
       <c r="EB17" t="n">
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="EC17" t="n">
-        <v>217.09</v>
+        <v>286.91</v>
       </c>
       <c r="ED17" t="n">
-        <v>17.73</v>
+        <v>14.83</v>
       </c>
       <c r="EE17" t="n">
-        <v>8</v>
+        <v>7.3</v>
       </c>
       <c r="EF17" t="n">
-        <v>26.32</v>
+        <v>30.04</v>
       </c>
       <c r="EG17" t="n">
-        <v>3.14</v>
+        <v>3.43</v>
       </c>
       <c r="EH17" t="n">
-        <v>55.05</v>
+        <v>48.96</v>
       </c>
       <c r="EI17" t="n">
-        <v>37.77</v>
+        <v>32.96</v>
       </c>
       <c r="EJ17" t="n">
-        <v>17.27</v>
+        <v>16</v>
       </c>
       <c r="EK17" t="n">
-        <v>147.05</v>
+        <v>125.65</v>
       </c>
       <c r="EL17" t="n">
-        <v>6.09</v>
+        <v>7.09</v>
       </c>
     </row>
     <row r="18">
@@ -8136,13 +8136,13 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E18" t="n">
         <v>23</v>
       </c>
       <c r="F18" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G18" t="n">
         <v>2</v>
@@ -8151,7 +8151,7 @@
         <v>18</v>
       </c>
       <c r="I18" t="n">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="J18" t="n">
         <v>2</v>
@@ -8172,10 +8172,10 @@
         <v>2</v>
       </c>
       <c r="P18" t="n">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Q18" t="n">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="R18" t="n">
         <v>5</v>
@@ -8199,91 +8199,91 @@
         <v>67</v>
       </c>
       <c r="Y18" t="n">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="Z18" t="n">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AA18" t="n">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="AB18" t="n">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="AC18" t="n">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="AD18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AE18" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AF18" t="n">
         <v>2</v>
       </c>
       <c r="AG18" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AH18" t="n">
-        <v>48.636363636364</v>
+        <v>48.260869565217</v>
       </c>
       <c r="AI18" t="n">
-        <v>9152</v>
+        <v>9511</v>
       </c>
       <c r="AJ18" t="n">
-        <v>7481</v>
+        <v>7764</v>
       </c>
       <c r="AK18" t="n">
-        <v>81.741695804196</v>
+        <v>81.631794763958</v>
       </c>
       <c r="AL18" t="n">
-        <v>4527</v>
+        <v>4688</v>
       </c>
       <c r="AM18" t="n">
-        <v>4071</v>
+        <v>4215</v>
       </c>
       <c r="AN18" t="n">
-        <v>89.927104042412</v>
+        <v>89.91040955631399</v>
       </c>
       <c r="AO18" t="n">
-        <v>4625</v>
+        <v>4823</v>
       </c>
       <c r="AP18" t="n">
-        <v>3410</v>
+        <v>3549</v>
       </c>
       <c r="AQ18" t="n">
-        <v>73.72972972973</v>
+        <v>73.584905660377</v>
       </c>
       <c r="AR18" t="n">
-        <v>819</v>
+        <v>843</v>
       </c>
       <c r="AS18" t="n">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="AT18" t="n">
-        <v>49.084249084249</v>
+        <v>48.873072360617</v>
       </c>
       <c r="AU18" t="n">
-        <v>415</v>
+        <v>436</v>
       </c>
       <c r="AV18" t="n">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="AW18" t="n">
-        <v>22.168674698795</v>
+        <v>22.018348623853</v>
       </c>
       <c r="AX18" t="n">
         <v>5</v>
       </c>
       <c r="AY18" t="n">
-        <v>324</v>
+        <v>342</v>
       </c>
       <c r="AZ18" t="n">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="BA18" t="n">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="BB18" t="n">
         <v>6</v>
@@ -8298,52 +8298,52 @@
         <v>4</v>
       </c>
       <c r="BF18" t="n">
-        <v>606</v>
+        <v>639</v>
       </c>
       <c r="BG18" t="n">
         <v>3</v>
       </c>
       <c r="BH18" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BI18" t="n">
-        <v>2042</v>
+        <v>2132</v>
       </c>
       <c r="BJ18" t="n">
-        <v>1017</v>
+        <v>1061</v>
       </c>
       <c r="BK18" t="n">
-        <v>49.804113614104</v>
+        <v>49.765478424015</v>
       </c>
       <c r="BL18" t="n">
-        <v>1454</v>
+        <v>1517</v>
       </c>
       <c r="BM18" t="n">
-        <v>739</v>
+        <v>772</v>
       </c>
       <c r="BN18" t="n">
-        <v>50.825309491059</v>
+        <v>50.889914304548</v>
       </c>
       <c r="BO18" t="n">
-        <v>588</v>
+        <v>615</v>
       </c>
       <c r="BP18" t="n">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="BQ18" t="n">
-        <v>47.278911564626</v>
+        <v>46.991869918699</v>
       </c>
       <c r="BR18" t="n">
-        <v>2738</v>
+        <v>2859</v>
       </c>
       <c r="BS18" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="BT18" t="n">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="BU18" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="BV18" t="n">
         <v>0</v>
@@ -8352,130 +8352,130 @@
         <v>2</v>
       </c>
       <c r="BX18" t="n">
-        <v>6.7205202312139</v>
+        <v>6.7146408839779</v>
       </c>
       <c r="BY18" t="n">
-        <v>1968</v>
+        <v>2122</v>
       </c>
       <c r="BZ18" t="n">
-        <v>4293</v>
+        <v>4629</v>
       </c>
       <c r="CA18" t="n">
-        <v>3872</v>
+        <v>4031</v>
       </c>
       <c r="CB18" t="n">
-        <v>8165</v>
+        <v>8660</v>
       </c>
       <c r="CC18" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="CD18" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="CE18" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="CF18" t="n">
-        <v>574</v>
+        <v>601</v>
       </c>
       <c r="CG18" t="n">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="CH18" t="n">
         <v>86</v>
       </c>
       <c r="CI18" t="n">
-        <v>373</v>
+        <v>389</v>
       </c>
       <c r="CJ18" t="n">
-        <v>291</v>
+        <v>304</v>
       </c>
       <c r="CK18" t="n">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="CL18" t="n">
         <v>0</v>
       </c>
       <c r="CM18" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="CN18" t="n">
         <v>4</v>
       </c>
       <c r="CO18" t="n">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="CP18" t="n">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="CQ18" t="n">
-        <v>548</v>
+        <v>566</v>
       </c>
       <c r="CR18" t="n">
-        <v>1129</v>
+        <v>1168</v>
       </c>
       <c r="CS18" t="n">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="CT18" t="n">
         <v>4</v>
       </c>
       <c r="CU18" t="n">
-        <v>270</v>
+        <v>281</v>
       </c>
       <c r="CV18" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="CW18" t="n">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="CX18" t="n">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="CY18" t="n">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="CZ18" t="n">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="DA18" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="DB18" t="n">
-        <v>331</v>
+        <v>348</v>
       </c>
       <c r="DC18" t="n">
-        <v>2767</v>
+        <v>2952</v>
       </c>
       <c r="DD18" t="n">
-        <v>5515</v>
+        <v>5897</v>
       </c>
       <c r="DE18" t="n">
-        <v>4265</v>
+        <v>4441</v>
       </c>
       <c r="DF18" t="n">
-        <v>9780</v>
+        <v>10338</v>
       </c>
       <c r="DG18" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="DH18" t="n">
-        <v>423</v>
+        <v>444</v>
       </c>
       <c r="DI18" t="n">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="DJ18" t="n">
-        <v>997</v>
+        <v>1038</v>
       </c>
       <c r="DK18" t="n">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="DL18" t="n">
         <v>48315</v>
       </c>
       <c r="DM18" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="DN18" t="n">
         <v>0</v>
@@ -8491,70 +8491,70 @@
         </is>
       </c>
       <c r="DQ18" t="n">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="DR18" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="DS18" t="n">
-        <v>11.55</v>
+        <v>11.35</v>
       </c>
       <c r="DT18" t="n">
-        <v>3.05</v>
+        <v>2.91</v>
       </c>
       <c r="DU18" t="n">
-        <v>5.18</v>
+        <v>5.17</v>
       </c>
       <c r="DV18" t="n">
-        <v>12.27</v>
+        <v>12.17</v>
       </c>
       <c r="DW18" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="DX18" t="n">
         <v>0.09</v>
       </c>
       <c r="DY18" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="DZ18" t="n">
-        <v>1.32</v>
+        <v>1.26</v>
       </c>
       <c r="EA18" t="n">
-        <v>0.41</v>
+        <v>0.43</v>
       </c>
       <c r="EB18" t="n">
         <v>0.09</v>
       </c>
       <c r="EC18" t="n">
-        <v>340.05</v>
+        <v>337.57</v>
       </c>
       <c r="ED18" t="n">
-        <v>14.73</v>
+        <v>14.87</v>
       </c>
       <c r="EE18" t="n">
-        <v>7.45</v>
+        <v>7.57</v>
       </c>
       <c r="EF18" t="n">
-        <v>27.55</v>
+        <v>27.78</v>
       </c>
       <c r="EG18" t="n">
-        <v>2.82</v>
+        <v>2.87</v>
       </c>
       <c r="EH18" t="n">
-        <v>46.23</v>
+        <v>46.13</v>
       </c>
       <c r="EI18" t="n">
-        <v>33.59</v>
+        <v>33.57</v>
       </c>
       <c r="EJ18" t="n">
-        <v>12.64</v>
+        <v>12.57</v>
       </c>
       <c r="EK18" t="n">
-        <v>124.45</v>
+        <v>124.3</v>
       </c>
       <c r="EL18" t="n">
-        <v>7.91</v>
+        <v>7.65</v>
       </c>
     </row>
     <row r="19">
@@ -9008,13 +9008,13 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E20" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F20" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G20" t="n">
         <v>2</v>
@@ -9023,7 +9023,7 @@
         <v>15</v>
       </c>
       <c r="I20" t="n">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="J20" t="n">
         <v>2</v>
@@ -9035,133 +9035,133 @@
         <v>1</v>
       </c>
       <c r="M20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N20" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P20" t="n">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q20" t="n">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="R20" t="n">
         <v>5</v>
       </c>
       <c r="S20" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T20" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="U20" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="V20" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W20" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X20" t="n">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="Y20" t="n">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Z20" t="n">
+        <v>76</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>140</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>304</v>
+      </c>
+      <c r="AC20" t="n">
         <v>75</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>127</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>286</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>72</v>
       </c>
       <c r="AD20" t="n">
         <v>6</v>
       </c>
       <c r="AE20" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AF20" t="n">
         <v>2</v>
       </c>
       <c r="AG20" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AH20" t="n">
-        <v>41.285714285714</v>
+        <v>41.454545454545</v>
       </c>
       <c r="AI20" t="n">
-        <v>7370</v>
+        <v>7770</v>
       </c>
       <c r="AJ20" t="n">
-        <v>5754</v>
+        <v>6068</v>
       </c>
       <c r="AK20" t="n">
-        <v>78.073270013569</v>
+        <v>78.095238095238</v>
       </c>
       <c r="AL20" t="n">
-        <v>3530</v>
+        <v>3781</v>
       </c>
       <c r="AM20" t="n">
-        <v>3130</v>
+        <v>3359</v>
       </c>
       <c r="AN20" t="n">
-        <v>88.668555240793</v>
+        <v>88.83893149960301</v>
       </c>
       <c r="AO20" t="n">
-        <v>3840</v>
+        <v>3989</v>
       </c>
       <c r="AP20" t="n">
-        <v>2624</v>
+        <v>2709</v>
       </c>
       <c r="AQ20" t="n">
-        <v>68.333333333333</v>
+        <v>67.911757332665</v>
       </c>
       <c r="AR20" t="n">
-        <v>774</v>
+        <v>819</v>
       </c>
       <c r="AS20" t="n">
-        <v>319</v>
+        <v>338</v>
       </c>
       <c r="AT20" t="n">
-        <v>41.214470284238</v>
+        <v>41.269841269841</v>
       </c>
       <c r="AU20" t="n">
-        <v>274</v>
+        <v>291</v>
       </c>
       <c r="AV20" t="n">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="AW20" t="n">
-        <v>29.92700729927</v>
+        <v>29.209621993127</v>
       </c>
       <c r="AX20" t="n">
         <v>4</v>
       </c>
       <c r="AY20" t="n">
-        <v>347</v>
+        <v>360</v>
       </c>
       <c r="AZ20" t="n">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="BA20" t="n">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="BB20" t="n">
         <v>2</v>
       </c>
       <c r="BC20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BD20" t="n">
         <v>3</v>
@@ -9170,184 +9170,184 @@
         <v>2</v>
       </c>
       <c r="BF20" t="n">
-        <v>589</v>
+        <v>609</v>
       </c>
       <c r="BG20" t="n">
         <v>2</v>
       </c>
       <c r="BH20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BI20" t="n">
-        <v>2033</v>
+        <v>2133</v>
       </c>
       <c r="BJ20" t="n">
-        <v>987</v>
+        <v>1044</v>
       </c>
       <c r="BK20" t="n">
-        <v>48.548942449582</v>
+        <v>48.945147679325</v>
       </c>
       <c r="BL20" t="n">
-        <v>1476</v>
+        <v>1550</v>
       </c>
       <c r="BM20" t="n">
-        <v>714</v>
+        <v>758</v>
       </c>
       <c r="BN20" t="n">
-        <v>48.373983739837</v>
+        <v>48.903225806452</v>
       </c>
       <c r="BO20" t="n">
-        <v>557</v>
+        <v>583</v>
       </c>
       <c r="BP20" t="n">
-        <v>273</v>
+        <v>286</v>
       </c>
       <c r="BQ20" t="n">
-        <v>49.012567324955</v>
+        <v>49.056603773585</v>
       </c>
       <c r="BR20" t="n">
-        <v>2646</v>
+        <v>2773</v>
       </c>
       <c r="BS20" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="BT20" t="n">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="BU20" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="BV20" t="n">
         <v>0</v>
       </c>
       <c r="BW20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BX20" t="n">
-        <v>6.7313253012048</v>
+        <v>6.7204022988506</v>
       </c>
       <c r="BY20" t="n">
-        <v>2335</v>
+        <v>2445</v>
       </c>
       <c r="BZ20" t="n">
-        <v>4916</v>
+        <v>5159</v>
       </c>
       <c r="CA20" t="n">
-        <v>4179</v>
+        <v>4373</v>
       </c>
       <c r="CB20" t="n">
-        <v>9095</v>
+        <v>9532</v>
       </c>
       <c r="CC20" t="n">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="CD20" t="n">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="CE20" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="CF20" t="n">
-        <v>546</v>
+        <v>569</v>
       </c>
       <c r="CG20" t="n">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="CH20" t="n">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="CI20" t="n">
-        <v>482</v>
+        <v>498</v>
       </c>
       <c r="CJ20" t="n">
-        <v>346</v>
+        <v>364</v>
       </c>
       <c r="CK20" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="CL20" t="n">
         <v>2</v>
       </c>
       <c r="CM20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="CN20" t="n">
         <v>7</v>
       </c>
       <c r="CO20" t="n">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="CP20" t="n">
-        <v>274</v>
+        <v>293</v>
       </c>
       <c r="CQ20" t="n">
-        <v>516</v>
+        <v>542</v>
       </c>
       <c r="CR20" t="n">
-        <v>1043</v>
+        <v>1095</v>
       </c>
       <c r="CS20" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="CT20" t="n">
         <v>2</v>
       </c>
       <c r="CU20" t="n">
-        <v>351</v>
+        <v>373</v>
       </c>
       <c r="CV20" t="n">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="CW20" t="n">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="CX20" t="n">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="CY20" t="n">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="CZ20" t="n">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="DA20" t="n">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="DB20" t="n">
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="DC20" t="n">
-        <v>3095</v>
+        <v>3245</v>
       </c>
       <c r="DD20" t="n">
-        <v>6074</v>
+        <v>6372</v>
       </c>
       <c r="DE20" t="n">
-        <v>4551</v>
+        <v>4755</v>
       </c>
       <c r="DF20" t="n">
-        <v>10625</v>
+        <v>11127</v>
       </c>
       <c r="DG20" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="DH20" t="n">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="DI20" t="n">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="DJ20" t="n">
-        <v>967</v>
+        <v>1013</v>
       </c>
       <c r="DK20" t="n">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="DL20" t="n">
         <v>48318</v>
       </c>
       <c r="DM20" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="DN20" t="n">
         <v>0</v>
@@ -9363,70 +9363,70 @@
         </is>
       </c>
       <c r="DQ20" t="n">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
       <c r="DR20" t="n">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="DS20" t="n">
-        <v>10.86</v>
+        <v>10.64</v>
       </c>
       <c r="DT20" t="n">
-        <v>3.29</v>
+        <v>3.27</v>
       </c>
       <c r="DU20" t="n">
-        <v>3.43</v>
+        <v>3.41</v>
       </c>
       <c r="DV20" t="n">
-        <v>12.29</v>
+        <v>12.18</v>
       </c>
       <c r="DW20" t="n">
-        <v>2.29</v>
+        <v>2.23</v>
       </c>
       <c r="DX20" t="n">
-        <v>0.05</v>
+        <v>0.09</v>
       </c>
       <c r="DY20" t="n">
-        <v>2.43</v>
+        <v>2.36</v>
       </c>
       <c r="DZ20" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="EA20" t="n">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
       <c r="EB20" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="EC20" t="n">
-        <v>274</v>
+        <v>275.82</v>
       </c>
       <c r="ED20" t="n">
-        <v>16.52</v>
+        <v>16.36</v>
       </c>
       <c r="EE20" t="n">
-        <v>8.57</v>
+        <v>8.5</v>
       </c>
       <c r="EF20" t="n">
-        <v>28.05</v>
+        <v>27.68</v>
       </c>
       <c r="EG20" t="n">
-        <v>4.1</v>
+        <v>4.05</v>
       </c>
       <c r="EH20" t="n">
-        <v>47</v>
+        <v>47.45</v>
       </c>
       <c r="EI20" t="n">
-        <v>34</v>
+        <v>34.45</v>
       </c>
       <c r="EJ20" t="n">
         <v>13</v>
       </c>
       <c r="EK20" t="n">
-        <v>126</v>
+        <v>126.05</v>
       </c>
       <c r="EL20" t="n">
-        <v>6.05</v>
+        <v>6.36</v>
       </c>
     </row>
     <row r="21">

--- a/sofascore_team_data/La_Liga_Team_Stats.xlsx
+++ b/sofascore_team_data/La_Liga_Team_Stats.xlsx
@@ -2020,11 +2020,11 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Atlético Madrid</t>
+          <t>Villarreal</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2836</v>
+        <v>2819</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -2035,343 +2035,343 @@
         <v>23</v>
       </c>
       <c r="E4" t="n">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F4" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="I4" t="n">
-        <v>304</v>
+        <v>268</v>
       </c>
       <c r="J4" t="n">
         <v>2</v>
       </c>
       <c r="K4" t="n">
+        <v>2</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
         <v>3</v>
       </c>
-      <c r="L4" t="n">
-        <v>2</v>
-      </c>
-      <c r="M4" t="n">
-        <v>7</v>
-      </c>
       <c r="N4" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O4" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="P4" t="n">
-        <v>212</v>
+        <v>186</v>
       </c>
       <c r="Q4" t="n">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="R4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S4" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="T4" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="U4" t="n">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="V4" t="n">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="W4" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="X4" t="n">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="Y4" t="n">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="Z4" t="n">
         <v>59</v>
       </c>
       <c r="AA4" t="n">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="AB4" t="n">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="AC4" t="n">
-        <v>159</v>
+        <v>91</v>
       </c>
       <c r="AD4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>44</v>
+      </c>
+      <c r="AF4" t="n">
         <v>8</v>
       </c>
-      <c r="AE4" t="n">
-        <v>26</v>
-      </c>
-      <c r="AF4" t="n">
+      <c r="AG4" t="n">
+        <v>38</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>44.227272727273</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>9029</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>7518</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>83.26503488758399</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>4457</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>4003</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>89.813776082567</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>4572</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>3515</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>76.881014873141</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>750</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>374</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>49.866666666667</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>284</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>77</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>27.112676056338</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>405</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>193</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>53</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>22</v>
+      </c>
+      <c r="BD4" t="n">
         <v>5</v>
       </c>
-      <c r="AG4" t="n">
-        <v>23</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>54.434782608696</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>11936</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>10264</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>85.991957104558</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>5482</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>5009</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>91.371762130609</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>6454</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>5255</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>81.42237372172301</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>805</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>472</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>58.633540372671</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>487</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>131</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>26.899383983573</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>10</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>377</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>176</v>
-      </c>
-      <c r="BA4" t="n">
+      <c r="BE4" t="n">
+        <v>4</v>
+      </c>
+      <c r="BF4" t="n">
+        <v>553</v>
+      </c>
+      <c r="BG4" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH4" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI4" t="n">
+        <v>2114</v>
+      </c>
+      <c r="BJ4" t="n">
+        <v>1048</v>
+      </c>
+      <c r="BK4" t="n">
+        <v>49.57426679281</v>
+      </c>
+      <c r="BL4" t="n">
+        <v>1630</v>
+      </c>
+      <c r="BM4" t="n">
+        <v>812</v>
+      </c>
+      <c r="BN4" t="n">
+        <v>49.815950920245</v>
+      </c>
+      <c r="BO4" t="n">
+        <v>484</v>
+      </c>
+      <c r="BP4" t="n">
+        <v>236</v>
+      </c>
+      <c r="BQ4" t="n">
+        <v>48.760330578512</v>
+      </c>
+      <c r="BR4" t="n">
+        <v>2572</v>
+      </c>
+      <c r="BS4" t="n">
         <v>46</v>
       </c>
-      <c r="BB4" t="n">
-        <v>2</v>
-      </c>
-      <c r="BC4" t="n">
-        <v>13</v>
-      </c>
-      <c r="BD4" t="n">
-        <v>2</v>
-      </c>
-      <c r="BE4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF4" t="n">
-        <v>456</v>
-      </c>
-      <c r="BG4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BI4" t="n">
-        <v>2228</v>
-      </c>
-      <c r="BJ4" t="n">
-        <v>1106</v>
-      </c>
-      <c r="BK4" t="n">
-        <v>49.640933572711</v>
-      </c>
-      <c r="BL4" t="n">
-        <v>1573</v>
-      </c>
-      <c r="BM4" t="n">
-        <v>747</v>
-      </c>
-      <c r="BN4" t="n">
-        <v>47.488874761602</v>
-      </c>
-      <c r="BO4" t="n">
-        <v>655</v>
-      </c>
-      <c r="BP4" t="n">
-        <v>359</v>
-      </c>
-      <c r="BQ4" t="n">
-        <v>54.809160305344</v>
-      </c>
-      <c r="BR4" t="n">
-        <v>2887</v>
-      </c>
-      <c r="BS4" t="n">
-        <v>53</v>
-      </c>
       <c r="BT4" t="n">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="BU4" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BV4" t="n">
         <v>1</v>
       </c>
       <c r="BW4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BX4" t="n">
-        <v>6.8939393939394</v>
+        <v>6.8859195402299</v>
       </c>
       <c r="BY4" t="n">
-        <v>2012</v>
+        <v>2503</v>
       </c>
       <c r="BZ4" t="n">
-        <v>4373</v>
+        <v>5162</v>
       </c>
       <c r="CA4" t="n">
-        <v>4037</v>
+        <v>4876</v>
       </c>
       <c r="CB4" t="n">
-        <v>8410</v>
+        <v>10038</v>
       </c>
       <c r="CC4" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="CD4" t="n">
         <v>31</v>
       </c>
       <c r="CE4" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="CF4" t="n">
-        <v>603</v>
+        <v>467</v>
       </c>
       <c r="CG4" t="n">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="CH4" t="n">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="CI4" t="n">
-        <v>387</v>
+        <v>431</v>
       </c>
       <c r="CJ4" t="n">
-        <v>383</v>
+        <v>433</v>
       </c>
       <c r="CK4" t="n">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="CL4" t="n">
+        <v>5</v>
+      </c>
+      <c r="CM4" t="n">
+        <v>9</v>
+      </c>
+      <c r="CN4" t="n">
+        <v>2</v>
+      </c>
+      <c r="CO4" t="n">
+        <v>181</v>
+      </c>
+      <c r="CP4" t="n">
+        <v>201</v>
+      </c>
+      <c r="CQ4" t="n">
+        <v>575</v>
+      </c>
+      <c r="CR4" t="n">
+        <v>1098</v>
+      </c>
+      <c r="CS4" t="n">
+        <v>17</v>
+      </c>
+      <c r="CT4" t="n">
         <v>3</v>
       </c>
-      <c r="CM4" t="n">
-        <v>7</v>
-      </c>
-      <c r="CN4" t="n">
-        <v>4</v>
-      </c>
-      <c r="CO4" t="n">
-        <v>179</v>
-      </c>
-      <c r="CP4" t="n">
-        <v>180</v>
-      </c>
-      <c r="CQ4" t="n">
-        <v>531</v>
-      </c>
-      <c r="CR4" t="n">
-        <v>1161</v>
-      </c>
-      <c r="CS4" t="n">
-        <v>30</v>
-      </c>
-      <c r="CT4" t="n">
-        <v>0</v>
-      </c>
       <c r="CU4" t="n">
-        <v>237</v>
+        <v>287</v>
       </c>
       <c r="CV4" t="n">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="CW4" t="n">
-        <v>136</v>
+        <v>171</v>
       </c>
       <c r="CX4" t="n">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="CY4" t="n">
         <v>116</v>
       </c>
       <c r="CZ4" t="n">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="DA4" t="n">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="DB4" t="n">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="DC4" t="n">
-        <v>2789</v>
+        <v>3300</v>
       </c>
       <c r="DD4" t="n">
-        <v>5614</v>
+        <v>6351</v>
       </c>
       <c r="DE4" t="n">
-        <v>4458</v>
+        <v>5251</v>
       </c>
       <c r="DF4" t="n">
-        <v>10072</v>
+        <v>11602</v>
       </c>
       <c r="DG4" t="n">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="DH4" t="n">
-        <v>444</v>
+        <v>391</v>
       </c>
       <c r="DI4" t="n">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="DJ4" t="n">
-        <v>1112</v>
+        <v>1033</v>
       </c>
       <c r="DK4" t="n">
-        <v>210</v>
+        <v>243</v>
       </c>
       <c r="DL4" t="n">
-        <v>48491</v>
+        <v>48108</v>
       </c>
       <c r="DM4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="DN4" t="n">
         <v>0</v>
@@ -2387,80 +2387,80 @@
         </is>
       </c>
       <c r="DQ4" t="n">
-        <v>1.65</v>
+        <v>1.87</v>
       </c>
       <c r="DR4" t="n">
-        <v>0.78</v>
+        <v>1.04</v>
       </c>
       <c r="DS4" t="n">
-        <v>13.22</v>
+        <v>11.65</v>
       </c>
       <c r="DT4" t="n">
-        <v>5.52</v>
+        <v>4.35</v>
       </c>
       <c r="DU4" t="n">
-        <v>6.91</v>
+        <v>3.96</v>
       </c>
       <c r="DV4" t="n">
-        <v>11.52</v>
+        <v>12.04</v>
       </c>
       <c r="DW4" t="n">
-        <v>1.78</v>
+        <v>2.22</v>
       </c>
       <c r="DX4" t="n">
-        <v>0.09</v>
+        <v>0.13</v>
       </c>
       <c r="DY4" t="n">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="DZ4" t="n">
-        <v>1.96</v>
+        <v>1.61</v>
       </c>
       <c r="EA4" t="n">
-        <v>0.35</v>
+        <v>0.17</v>
       </c>
       <c r="EB4" t="n">
         <v>0.09</v>
       </c>
       <c r="EC4" t="n">
-        <v>446.26</v>
+        <v>326.87</v>
       </c>
       <c r="ED4" t="n">
-        <v>16.39</v>
+        <v>17.61</v>
       </c>
       <c r="EE4" t="n">
-        <v>7.65</v>
+        <v>8.390000000000001</v>
       </c>
       <c r="EF4" t="n">
-        <v>19.83</v>
+        <v>24.04</v>
       </c>
       <c r="EG4" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="EH4" t="n">
-        <v>48.09</v>
+        <v>45.57</v>
       </c>
       <c r="EI4" t="n">
-        <v>32.48</v>
+        <v>35.3</v>
       </c>
       <c r="EJ4" t="n">
-        <v>15.61</v>
+        <v>10.26</v>
       </c>
       <c r="EK4" t="n">
-        <v>125.52</v>
+        <v>111.83</v>
       </c>
       <c r="EL4" t="n">
-        <v>7.04</v>
+        <v>7.22</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Villarreal</t>
+          <t>Atlético Madrid</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2819</v>
+        <v>2836</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -2468,346 +2468,346 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5" t="n">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F5" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I5" t="n">
-        <v>268</v>
+        <v>304</v>
       </c>
       <c r="J5" t="n">
         <v>2</v>
       </c>
       <c r="K5" t="n">
+        <v>3</v>
+      </c>
+      <c r="L5" t="n">
         <v>2</v>
       </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
       <c r="M5" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="N5" t="n">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="O5" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="P5" t="n">
-        <v>186</v>
+        <v>212</v>
       </c>
       <c r="Q5" t="n">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="R5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S5" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="T5" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="U5" t="n">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="V5" t="n">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="W5" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="X5" t="n">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="Y5" t="n">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="Z5" t="n">
         <v>59</v>
       </c>
       <c r="AA5" t="n">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="AB5" t="n">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="AC5" t="n">
-        <v>91</v>
+        <v>159</v>
       </c>
       <c r="AD5" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AE5" t="n">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="AF5" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AG5" t="n">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="AH5" t="n">
-        <v>44.227272727273</v>
+        <v>54.434782608696</v>
       </c>
       <c r="AI5" t="n">
-        <v>9029</v>
+        <v>11936</v>
       </c>
       <c r="AJ5" t="n">
-        <v>7518</v>
+        <v>10264</v>
       </c>
       <c r="AK5" t="n">
-        <v>83.26503488758399</v>
+        <v>85.991957104558</v>
       </c>
       <c r="AL5" t="n">
-        <v>4457</v>
+        <v>5482</v>
       </c>
       <c r="AM5" t="n">
-        <v>4003</v>
+        <v>5009</v>
       </c>
       <c r="AN5" t="n">
-        <v>89.813776082567</v>
+        <v>91.371762130609</v>
       </c>
       <c r="AO5" t="n">
-        <v>4572</v>
+        <v>6454</v>
       </c>
       <c r="AP5" t="n">
-        <v>3515</v>
+        <v>5255</v>
       </c>
       <c r="AQ5" t="n">
-        <v>76.881014873141</v>
+        <v>81.42237372172301</v>
       </c>
       <c r="AR5" t="n">
-        <v>750</v>
+        <v>805</v>
       </c>
       <c r="AS5" t="n">
-        <v>374</v>
+        <v>472</v>
       </c>
       <c r="AT5" t="n">
-        <v>49.866666666667</v>
+        <v>58.633540372671</v>
       </c>
       <c r="AU5" t="n">
-        <v>284</v>
+        <v>487</v>
       </c>
       <c r="AV5" t="n">
-        <v>77</v>
+        <v>131</v>
       </c>
       <c r="AW5" t="n">
-        <v>27.112676056338</v>
+        <v>26.899383983573</v>
       </c>
       <c r="AX5" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AY5" t="n">
-        <v>405</v>
+        <v>377</v>
       </c>
       <c r="AZ5" t="n">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="BA5" t="n">
+        <v>46</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE5" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF5" t="n">
+        <v>456</v>
+      </c>
+      <c r="BG5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH5" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI5" t="n">
+        <v>2228</v>
+      </c>
+      <c r="BJ5" t="n">
+        <v>1106</v>
+      </c>
+      <c r="BK5" t="n">
+        <v>49.640933572711</v>
+      </c>
+      <c r="BL5" t="n">
+        <v>1573</v>
+      </c>
+      <c r="BM5" t="n">
+        <v>747</v>
+      </c>
+      <c r="BN5" t="n">
+        <v>47.488874761602</v>
+      </c>
+      <c r="BO5" t="n">
+        <v>655</v>
+      </c>
+      <c r="BP5" t="n">
+        <v>359</v>
+      </c>
+      <c r="BQ5" t="n">
+        <v>54.809160305344</v>
+      </c>
+      <c r="BR5" t="n">
+        <v>2887</v>
+      </c>
+      <c r="BS5" t="n">
         <v>53</v>
       </c>
-      <c r="BB5" t="n">
-        <v>7</v>
-      </c>
-      <c r="BC5" t="n">
-        <v>22</v>
-      </c>
-      <c r="BD5" t="n">
-        <v>5</v>
-      </c>
-      <c r="BE5" t="n">
-        <v>4</v>
-      </c>
-      <c r="BF5" t="n">
-        <v>553</v>
-      </c>
-      <c r="BG5" t="n">
-        <v>2</v>
-      </c>
-      <c r="BH5" t="n">
-        <v>3</v>
-      </c>
-      <c r="BI5" t="n">
-        <v>2114</v>
-      </c>
-      <c r="BJ5" t="n">
-        <v>1048</v>
-      </c>
-      <c r="BK5" t="n">
-        <v>49.57426679281</v>
-      </c>
-      <c r="BL5" t="n">
-        <v>1630</v>
-      </c>
-      <c r="BM5" t="n">
-        <v>812</v>
-      </c>
-      <c r="BN5" t="n">
-        <v>49.815950920245</v>
-      </c>
-      <c r="BO5" t="n">
-        <v>484</v>
-      </c>
-      <c r="BP5" t="n">
-        <v>236</v>
-      </c>
-      <c r="BQ5" t="n">
-        <v>48.760330578512</v>
-      </c>
-      <c r="BR5" t="n">
-        <v>2572</v>
-      </c>
-      <c r="BS5" t="n">
-        <v>46</v>
-      </c>
       <c r="BT5" t="n">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="BU5" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BV5" t="n">
         <v>1</v>
       </c>
       <c r="BW5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BX5" t="n">
-        <v>6.8859195402299</v>
+        <v>6.8939393939394</v>
       </c>
       <c r="BY5" t="n">
-        <v>2503</v>
+        <v>2012</v>
       </c>
       <c r="BZ5" t="n">
-        <v>5162</v>
+        <v>4373</v>
       </c>
       <c r="CA5" t="n">
-        <v>4876</v>
+        <v>4037</v>
       </c>
       <c r="CB5" t="n">
-        <v>10038</v>
+        <v>8410</v>
       </c>
       <c r="CC5" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="CD5" t="n">
         <v>31</v>
       </c>
       <c r="CE5" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="CF5" t="n">
-        <v>467</v>
+        <v>603</v>
       </c>
       <c r="CG5" t="n">
+        <v>86</v>
+      </c>
+      <c r="CH5" t="n">
+        <v>80</v>
+      </c>
+      <c r="CI5" t="n">
+        <v>387</v>
+      </c>
+      <c r="CJ5" t="n">
+        <v>383</v>
+      </c>
+      <c r="CK5" t="n">
+        <v>204</v>
+      </c>
+      <c r="CL5" t="n">
+        <v>3</v>
+      </c>
+      <c r="CM5" t="n">
+        <v>7</v>
+      </c>
+      <c r="CN5" t="n">
+        <v>4</v>
+      </c>
+      <c r="CO5" t="n">
+        <v>179</v>
+      </c>
+      <c r="CP5" t="n">
+        <v>180</v>
+      </c>
+      <c r="CQ5" t="n">
+        <v>531</v>
+      </c>
+      <c r="CR5" t="n">
+        <v>1161</v>
+      </c>
+      <c r="CS5" t="n">
+        <v>30</v>
+      </c>
+      <c r="CT5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU5" t="n">
+        <v>237</v>
+      </c>
+      <c r="CV5" t="n">
+        <v>57</v>
+      </c>
+      <c r="CW5" t="n">
+        <v>136</v>
+      </c>
+      <c r="CX5" t="n">
         <v>101</v>
-      </c>
-      <c r="CH5" t="n">
-        <v>89</v>
-      </c>
-      <c r="CI5" t="n">
-        <v>431</v>
-      </c>
-      <c r="CJ5" t="n">
-        <v>433</v>
-      </c>
-      <c r="CK5" t="n">
-        <v>198</v>
-      </c>
-      <c r="CL5" t="n">
-        <v>5</v>
-      </c>
-      <c r="CM5" t="n">
-        <v>9</v>
-      </c>
-      <c r="CN5" t="n">
-        <v>2</v>
-      </c>
-      <c r="CO5" t="n">
-        <v>181</v>
-      </c>
-      <c r="CP5" t="n">
-        <v>201</v>
-      </c>
-      <c r="CQ5" t="n">
-        <v>575</v>
-      </c>
-      <c r="CR5" t="n">
-        <v>1098</v>
-      </c>
-      <c r="CS5" t="n">
-        <v>17</v>
-      </c>
-      <c r="CT5" t="n">
-        <v>3</v>
-      </c>
-      <c r="CU5" t="n">
-        <v>287</v>
-      </c>
-      <c r="CV5" t="n">
-        <v>93</v>
-      </c>
-      <c r="CW5" t="n">
-        <v>171</v>
-      </c>
-      <c r="CX5" t="n">
-        <v>116</v>
       </c>
       <c r="CY5" t="n">
         <v>116</v>
       </c>
       <c r="CZ5" t="n">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="DA5" t="n">
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="DB5" t="n">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="DC5" t="n">
-        <v>3300</v>
+        <v>2789</v>
       </c>
       <c r="DD5" t="n">
-        <v>6351</v>
+        <v>5614</v>
       </c>
       <c r="DE5" t="n">
-        <v>5251</v>
+        <v>4458</v>
       </c>
       <c r="DF5" t="n">
-        <v>11602</v>
+        <v>10072</v>
       </c>
       <c r="DG5" t="n">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="DH5" t="n">
-        <v>391</v>
+        <v>444</v>
       </c>
       <c r="DI5" t="n">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="DJ5" t="n">
-        <v>1033</v>
+        <v>1112</v>
       </c>
       <c r="DK5" t="n">
-        <v>243</v>
+        <v>210</v>
       </c>
       <c r="DL5" t="n">
-        <v>48108</v>
+        <v>48491</v>
       </c>
       <c r="DM5" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="DN5" t="n">
         <v>0</v>
@@ -2823,70 +2823,70 @@
         </is>
       </c>
       <c r="DQ5" t="n">
-        <v>1.95</v>
+        <v>1.65</v>
       </c>
       <c r="DR5" t="n">
-        <v>1.09</v>
+        <v>0.78</v>
       </c>
       <c r="DS5" t="n">
-        <v>12.18</v>
+        <v>13.22</v>
       </c>
       <c r="DT5" t="n">
-        <v>4.55</v>
+        <v>5.52</v>
       </c>
       <c r="DU5" t="n">
-        <v>4.14</v>
+        <v>6.91</v>
       </c>
       <c r="DV5" t="n">
-        <v>12.59</v>
+        <v>11.52</v>
       </c>
       <c r="DW5" t="n">
-        <v>2.32</v>
+        <v>1.78</v>
       </c>
       <c r="DX5" t="n">
-        <v>0.14</v>
+        <v>0.09</v>
       </c>
       <c r="DY5" t="n">
-        <v>2.82</v>
+        <v>3</v>
       </c>
       <c r="DZ5" t="n">
-        <v>1.68</v>
+        <v>1.96</v>
       </c>
       <c r="EA5" t="n">
-        <v>0.18</v>
+        <v>0.35</v>
       </c>
       <c r="EB5" t="n">
         <v>0.09</v>
       </c>
       <c r="EC5" t="n">
-        <v>341.73</v>
+        <v>446.26</v>
       </c>
       <c r="ED5" t="n">
-        <v>18.41</v>
+        <v>16.39</v>
       </c>
       <c r="EE5" t="n">
-        <v>8.77</v>
+        <v>7.65</v>
       </c>
       <c r="EF5" t="n">
-        <v>25.14</v>
+        <v>19.83</v>
       </c>
       <c r="EG5" t="n">
-        <v>2.41</v>
+        <v>2</v>
       </c>
       <c r="EH5" t="n">
-        <v>47.64</v>
+        <v>48.09</v>
       </c>
       <c r="EI5" t="n">
-        <v>36.91</v>
+        <v>32.48</v>
       </c>
       <c r="EJ5" t="n">
-        <v>10.73</v>
+        <v>15.61</v>
       </c>
       <c r="EK5" t="n">
-        <v>116.91</v>
+        <v>125.52</v>
       </c>
       <c r="EL5" t="n">
-        <v>7.55</v>
+        <v>7.04</v>
       </c>
     </row>
     <row r="6">
@@ -3340,22 +3340,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E7" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F7" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G7" t="n">
         <v>2</v>
       </c>
       <c r="H7" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I7" t="n">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="J7" t="n">
         <v>3</v>
@@ -3370,52 +3370,52 @@
         <v>11</v>
       </c>
       <c r="N7" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="O7" t="n">
         <v>3</v>
       </c>
       <c r="P7" t="n">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="Q7" t="n">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="R7" t="n">
         <v>10</v>
       </c>
       <c r="S7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="T7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U7" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="V7" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="W7" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="X7" t="n">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="Y7" t="n">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Z7" t="n">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AA7" t="n">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="AB7" t="n">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="AC7" t="n">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AD7" t="n">
         <v>3</v>
@@ -3430,64 +3430,64 @@
         <v>15</v>
       </c>
       <c r="AH7" t="n">
-        <v>42.521739130435</v>
+        <v>42.541666666667</v>
       </c>
       <c r="AI7" t="n">
-        <v>8176</v>
+        <v>8568</v>
       </c>
       <c r="AJ7" t="n">
-        <v>6482</v>
+        <v>6805</v>
       </c>
       <c r="AK7" t="n">
-        <v>79.280821917808</v>
+        <v>79.42343604108299</v>
       </c>
       <c r="AL7" t="n">
-        <v>3906</v>
+        <v>4095</v>
       </c>
       <c r="AM7" t="n">
-        <v>3525</v>
+        <v>3703</v>
       </c>
       <c r="AN7" t="n">
-        <v>90.24577572964699</v>
+        <v>90.42735042735001</v>
       </c>
       <c r="AO7" t="n">
-        <v>4270</v>
+        <v>4473</v>
       </c>
       <c r="AP7" t="n">
-        <v>2957</v>
+        <v>3102</v>
       </c>
       <c r="AQ7" t="n">
-        <v>69.250585480094</v>
+        <v>69.34942991281</v>
       </c>
       <c r="AR7" t="n">
-        <v>789</v>
+        <v>819</v>
       </c>
       <c r="AS7" t="n">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="AT7" t="n">
-        <v>43.219264892269</v>
+        <v>42.735042735043</v>
       </c>
       <c r="AU7" t="n">
-        <v>509</v>
+        <v>533</v>
       </c>
       <c r="AV7" t="n">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="AW7" t="n">
-        <v>23.7721021611</v>
+        <v>23.639774859287</v>
       </c>
       <c r="AX7" t="n">
         <v>7</v>
       </c>
       <c r="AY7" t="n">
-        <v>387</v>
+        <v>406</v>
       </c>
       <c r="AZ7" t="n">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="BA7" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="BB7" t="n">
         <v>3</v>
@@ -3502,7 +3502,7 @@
         <v>4</v>
       </c>
       <c r="BF7" t="n">
-        <v>525</v>
+        <v>542</v>
       </c>
       <c r="BG7" t="n">
         <v>1</v>
@@ -3511,43 +3511,43 @@
         <v>3</v>
       </c>
       <c r="BI7" t="n">
-        <v>2335</v>
+        <v>2411</v>
       </c>
       <c r="BJ7" t="n">
-        <v>1131</v>
+        <v>1174</v>
       </c>
       <c r="BK7" t="n">
-        <v>48.436830835118</v>
+        <v>48.693488179179</v>
       </c>
       <c r="BL7" t="n">
-        <v>1622</v>
+        <v>1682</v>
       </c>
       <c r="BM7" t="n">
-        <v>802</v>
+        <v>837</v>
       </c>
       <c r="BN7" t="n">
-        <v>49.44512946979</v>
+        <v>49.762187871581</v>
       </c>
       <c r="BO7" t="n">
-        <v>713</v>
+        <v>729</v>
       </c>
       <c r="BP7" t="n">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="BQ7" t="n">
-        <v>46.143057503506</v>
+        <v>46.227709190672</v>
       </c>
       <c r="BR7" t="n">
-        <v>2929</v>
+        <v>3039</v>
       </c>
       <c r="BS7" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="BT7" t="n">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="BU7" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="BV7" t="n">
         <v>1</v>
@@ -3556,46 +3556,46 @@
         <v>2</v>
       </c>
       <c r="BX7" t="n">
-        <v>6.7602777777778</v>
+        <v>6.7617021276596</v>
       </c>
       <c r="BY7" t="n">
-        <v>2019</v>
+        <v>2131</v>
       </c>
       <c r="BZ7" t="n">
-        <v>4405</v>
+        <v>4656</v>
       </c>
       <c r="CA7" t="n">
-        <v>5167</v>
+        <v>5397</v>
       </c>
       <c r="CB7" t="n">
-        <v>9572</v>
+        <v>10053</v>
       </c>
       <c r="CC7" t="n">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="CD7" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="CE7" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="CF7" t="n">
-        <v>623</v>
+        <v>658</v>
       </c>
       <c r="CG7" t="n">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="CH7" t="n">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="CI7" t="n">
-        <v>391</v>
+        <v>403</v>
       </c>
       <c r="CJ7" t="n">
-        <v>401</v>
+        <v>414</v>
       </c>
       <c r="CK7" t="n">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="CL7" t="n">
         <v>4</v>
@@ -3607,79 +3607,79 @@
         <v>9</v>
       </c>
       <c r="CO7" t="n">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="CP7" t="n">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="CQ7" t="n">
-        <v>629</v>
+        <v>648</v>
       </c>
       <c r="CR7" t="n">
-        <v>1264</v>
+        <v>1300</v>
       </c>
       <c r="CS7" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="CT7" t="n">
         <v>2</v>
       </c>
       <c r="CU7" t="n">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="CV7" t="n">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="CW7" t="n">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="CX7" t="n">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="CY7" t="n">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="CZ7" t="n">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="DA7" t="n">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="DB7" t="n">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="DC7" t="n">
-        <v>2815</v>
+        <v>2959</v>
       </c>
       <c r="DD7" t="n">
-        <v>5651</v>
+        <v>5948</v>
       </c>
       <c r="DE7" t="n">
-        <v>5653</v>
+        <v>5902</v>
       </c>
       <c r="DF7" t="n">
-        <v>11304</v>
+        <v>11850</v>
       </c>
       <c r="DG7" t="n">
         <v>59</v>
       </c>
       <c r="DH7" t="n">
-        <v>469</v>
+        <v>482</v>
       </c>
       <c r="DI7" t="n">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="DJ7" t="n">
-        <v>1036</v>
+        <v>1079</v>
       </c>
       <c r="DK7" t="n">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="DL7" t="n">
         <v>48490</v>
       </c>
       <c r="DM7" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="DN7" t="n">
         <v>0</v>
@@ -3695,70 +3695,70 @@
         </is>
       </c>
       <c r="DQ7" t="n">
-        <v>1.17</v>
+        <v>1.21</v>
       </c>
       <c r="DR7" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="DS7" t="n">
-        <v>12.87</v>
+        <v>12.71</v>
       </c>
       <c r="DT7" t="n">
-        <v>4.3</v>
+        <v>4.25</v>
       </c>
       <c r="DU7" t="n">
-        <v>4.57</v>
+        <v>4.46</v>
       </c>
       <c r="DV7" t="n">
-        <v>13.17</v>
+        <v>13</v>
       </c>
       <c r="DW7" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="DX7" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="DY7" t="n">
-        <v>2.22</v>
+        <v>2.21</v>
       </c>
       <c r="DZ7" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="EA7" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="EB7" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="EC7" t="n">
-        <v>281.83</v>
+        <v>283.54</v>
       </c>
       <c r="ED7" t="n">
-        <v>16.83</v>
+        <v>16.92</v>
       </c>
       <c r="EE7" t="n">
-        <v>8.17</v>
+        <v>8.33</v>
       </c>
       <c r="EF7" t="n">
-        <v>22.83</v>
+        <v>22.58</v>
       </c>
       <c r="EG7" t="n">
-        <v>3.04</v>
+        <v>3</v>
       </c>
       <c r="EH7" t="n">
-        <v>49.17</v>
+        <v>48.92</v>
       </c>
       <c r="EI7" t="n">
-        <v>34.87</v>
+        <v>34.88</v>
       </c>
       <c r="EJ7" t="n">
-        <v>14.3</v>
+        <v>14.04</v>
       </c>
       <c r="EK7" t="n">
-        <v>127.35</v>
+        <v>126.62</v>
       </c>
       <c r="EL7" t="n">
-        <v>6.52</v>
+        <v>6.46</v>
       </c>
     </row>
     <row r="8">
@@ -3776,22 +3776,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E8" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F8" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I8" t="n">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="J8" t="n">
         <v>6</v>
@@ -3806,16 +3806,16 @@
         <v>4</v>
       </c>
       <c r="N8" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="O8" t="n">
         <v>4</v>
       </c>
       <c r="P8" t="n">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="Q8" t="n">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="R8" t="n">
         <v>2</v>
@@ -3824,106 +3824,106 @@
         <v>9</v>
       </c>
       <c r="T8" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="U8" t="n">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="V8" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="W8" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="X8" t="n">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="Y8" t="n">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="Z8" t="n">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="AA8" t="n">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="AB8" t="n">
-        <v>340</v>
+        <v>353</v>
       </c>
       <c r="AC8" t="n">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
       </c>
       <c r="AE8" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AF8" t="n">
         <v>3</v>
       </c>
       <c r="AG8" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AH8" t="n">
-        <v>50.826086956522</v>
+        <v>51.083333333333</v>
       </c>
       <c r="AI8" t="n">
-        <v>11439</v>
+        <v>11985</v>
       </c>
       <c r="AJ8" t="n">
-        <v>9824</v>
+        <v>10305</v>
       </c>
       <c r="AK8" t="n">
-        <v>85.881633009878</v>
+        <v>85.98247809762201</v>
       </c>
       <c r="AL8" t="n">
-        <v>5605</v>
+        <v>5854</v>
       </c>
       <c r="AM8" t="n">
-        <v>5113</v>
+        <v>5343</v>
       </c>
       <c r="AN8" t="n">
-        <v>91.22212310437099</v>
+        <v>91.270925862658</v>
       </c>
       <c r="AO8" t="n">
-        <v>5834</v>
+        <v>6131</v>
       </c>
       <c r="AP8" t="n">
-        <v>4711</v>
+        <v>4962</v>
       </c>
       <c r="AQ8" t="n">
-        <v>80.750771340418</v>
+        <v>80.932963627467</v>
       </c>
       <c r="AR8" t="n">
-        <v>849</v>
+        <v>879</v>
       </c>
       <c r="AS8" t="n">
-        <v>445</v>
+        <v>464</v>
       </c>
       <c r="AT8" t="n">
-        <v>52.414605418139</v>
+        <v>52.787258248009</v>
       </c>
       <c r="AU8" t="n">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="AV8" t="n">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="AW8" t="n">
-        <v>21.785714285714</v>
+        <v>22.260273972603</v>
       </c>
       <c r="AX8" t="n">
         <v>7</v>
       </c>
       <c r="AY8" t="n">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="AZ8" t="n">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="BA8" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="BB8" t="n">
         <v>4</v>
@@ -3938,7 +3938,7 @@
         <v>3</v>
       </c>
       <c r="BF8" t="n">
-        <v>564</v>
+        <v>599</v>
       </c>
       <c r="BG8" t="n">
         <v>1</v>
@@ -3947,40 +3947,40 @@
         <v>5</v>
       </c>
       <c r="BI8" t="n">
-        <v>1910</v>
+        <v>1986</v>
       </c>
       <c r="BJ8" t="n">
-        <v>946</v>
+        <v>979</v>
       </c>
       <c r="BK8" t="n">
-        <v>49.528795811518</v>
+        <v>49.295065458207</v>
       </c>
       <c r="BL8" t="n">
-        <v>1504</v>
+        <v>1564</v>
       </c>
       <c r="BM8" t="n">
-        <v>758</v>
+        <v>783</v>
       </c>
       <c r="BN8" t="n">
-        <v>50.398936170213</v>
+        <v>50.063938618926</v>
       </c>
       <c r="BO8" t="n">
-        <v>406</v>
+        <v>422</v>
       </c>
       <c r="BP8" t="n">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="BQ8" t="n">
-        <v>46.305418719212</v>
+        <v>46.445497630332</v>
       </c>
       <c r="BR8" t="n">
-        <v>2607</v>
+        <v>2717</v>
       </c>
       <c r="BS8" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="BT8" t="n">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="BU8" t="n">
         <v>45</v>
@@ -3992,46 +3992,46 @@
         <v>1</v>
       </c>
       <c r="BX8" t="n">
-        <v>6.8243835616438</v>
+        <v>6.8191601049869</v>
       </c>
       <c r="BY8" t="n">
-        <v>2404</v>
+        <v>2460</v>
       </c>
       <c r="BZ8" t="n">
-        <v>4849</v>
+        <v>4994</v>
       </c>
       <c r="CA8" t="n">
-        <v>4449</v>
+        <v>4627</v>
       </c>
       <c r="CB8" t="n">
-        <v>9298</v>
+        <v>9621</v>
       </c>
       <c r="CC8" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="CD8" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="CE8" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="CF8" t="n">
-        <v>418</v>
+        <v>435</v>
       </c>
       <c r="CG8" t="n">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="CH8" t="n">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="CI8" t="n">
-        <v>457</v>
+        <v>481</v>
       </c>
       <c r="CJ8" t="n">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="CK8" t="n">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="CL8" t="n">
         <v>4</v>
@@ -4043,79 +4043,79 @@
         <v>8</v>
       </c>
       <c r="CO8" t="n">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="CP8" t="n">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="CQ8" t="n">
-        <v>507</v>
+        <v>520</v>
       </c>
       <c r="CR8" t="n">
-        <v>1111</v>
+        <v>1159</v>
       </c>
       <c r="CS8" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="CT8" t="n">
         <v>8</v>
       </c>
       <c r="CU8" t="n">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="CV8" t="n">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="CW8" t="n">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="CX8" t="n">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="CY8" t="n">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="CZ8" t="n">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="DA8" t="n">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="DB8" t="n">
-        <v>344</v>
+        <v>363</v>
       </c>
       <c r="DC8" t="n">
-        <v>3170</v>
+        <v>3266</v>
       </c>
       <c r="DD8" t="n">
-        <v>6004</v>
+        <v>6207</v>
       </c>
       <c r="DE8" t="n">
-        <v>4806</v>
+        <v>4995</v>
       </c>
       <c r="DF8" t="n">
-        <v>10810</v>
+        <v>11202</v>
       </c>
       <c r="DG8" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="DH8" t="n">
-        <v>415</v>
+        <v>430</v>
       </c>
       <c r="DI8" t="n">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="DJ8" t="n">
-        <v>1020</v>
+        <v>1066</v>
       </c>
       <c r="DK8" t="n">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="DL8" t="n">
         <v>48412</v>
       </c>
       <c r="DM8" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="DN8" t="n">
         <v>0</v>
@@ -4131,70 +4131,70 @@
         </is>
       </c>
       <c r="DQ8" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="DR8" t="n">
-        <v>1.09</v>
+        <v>1.12</v>
       </c>
       <c r="DS8" t="n">
-        <v>10.74</v>
+        <v>10.88</v>
       </c>
       <c r="DT8" t="n">
-        <v>3.96</v>
+        <v>4</v>
       </c>
       <c r="DU8" t="n">
-        <v>4.17</v>
+        <v>4.08</v>
       </c>
       <c r="DV8" t="n">
-        <v>11.7</v>
+        <v>11.67</v>
       </c>
       <c r="DW8" t="n">
-        <v>1.96</v>
+        <v>1.88</v>
       </c>
       <c r="DX8" t="n">
         <v>0.04</v>
       </c>
       <c r="DY8" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="DZ8" t="n">
-        <v>1.09</v>
+        <v>1.12</v>
       </c>
       <c r="EA8" t="n">
         <v>0</v>
       </c>
       <c r="EB8" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="EC8" t="n">
-        <v>427.13</v>
+        <v>429.38</v>
       </c>
       <c r="ED8" t="n">
-        <v>15.04</v>
+        <v>14.79</v>
       </c>
       <c r="EE8" t="n">
-        <v>7.13</v>
+        <v>7.12</v>
       </c>
       <c r="EF8" t="n">
-        <v>24.52</v>
+        <v>24.96</v>
       </c>
       <c r="EG8" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="EH8" t="n">
-        <v>41.13</v>
+        <v>40.79</v>
       </c>
       <c r="EI8" t="n">
-        <v>32.96</v>
+        <v>32.62</v>
       </c>
       <c r="EJ8" t="n">
         <v>8.17</v>
       </c>
       <c r="EK8" t="n">
-        <v>113.35</v>
+        <v>113.21</v>
       </c>
       <c r="EL8" t="n">
-        <v>6.65</v>
+        <v>6.67</v>
       </c>
     </row>
     <row r="9">
@@ -4648,7 +4648,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E10" t="n">
         <v>28</v>
@@ -4663,7 +4663,7 @@
         <v>20</v>
       </c>
       <c r="I10" t="n">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="J10" t="n">
         <v>3</v>
@@ -4684,10 +4684,10 @@
         <v>7</v>
       </c>
       <c r="P10" t="n">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="Q10" t="n">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="R10" t="n">
         <v>8</v>
@@ -4699,103 +4699,103 @@
         <v>9</v>
       </c>
       <c r="U10" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="V10" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="W10" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="X10" t="n">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Y10" t="n">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Z10" t="n">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="AA10" t="n">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="AB10" t="n">
-        <v>362</v>
+        <v>375</v>
       </c>
       <c r="AC10" t="n">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AD10" t="n">
         <v>6</v>
       </c>
       <c r="AE10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AF10" t="n">
         <v>2</v>
       </c>
       <c r="AG10" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AH10" t="n">
-        <v>45.130434782609</v>
+        <v>44.75</v>
       </c>
       <c r="AI10" t="n">
-        <v>8709</v>
+        <v>8967</v>
       </c>
       <c r="AJ10" t="n">
-        <v>6913</v>
+        <v>7091</v>
       </c>
       <c r="AK10" t="n">
-        <v>79.377655299116</v>
+        <v>79.078844652615</v>
       </c>
       <c r="AL10" t="n">
-        <v>4013</v>
+        <v>4127</v>
       </c>
       <c r="AM10" t="n">
-        <v>3556</v>
+        <v>3655</v>
       </c>
       <c r="AN10" t="n">
-        <v>88.61201096436599</v>
+        <v>88.563120911073</v>
       </c>
       <c r="AO10" t="n">
-        <v>4696</v>
+        <v>4840</v>
       </c>
       <c r="AP10" t="n">
-        <v>3357</v>
+        <v>3436</v>
       </c>
       <c r="AQ10" t="n">
-        <v>71.486371379898</v>
+        <v>70.99173553719</v>
       </c>
       <c r="AR10" t="n">
-        <v>863</v>
+        <v>893</v>
       </c>
       <c r="AS10" t="n">
-        <v>401</v>
+        <v>412</v>
       </c>
       <c r="AT10" t="n">
-        <v>46.465816917729</v>
+        <v>46.136618141097</v>
       </c>
       <c r="AU10" t="n">
-        <v>419</v>
+        <v>430</v>
       </c>
       <c r="AV10" t="n">
         <v>106</v>
       </c>
       <c r="AW10" t="n">
-        <v>25.298329355609</v>
+        <v>24.651162790698</v>
       </c>
       <c r="AX10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY10" t="n">
-        <v>359</v>
+        <v>377</v>
       </c>
       <c r="AZ10" t="n">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="BA10" t="n">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="BB10" t="n">
         <v>5</v>
@@ -4810,7 +4810,7 @@
         <v>5</v>
       </c>
       <c r="BF10" t="n">
-        <v>646</v>
+        <v>674</v>
       </c>
       <c r="BG10" t="n">
         <v>1</v>
@@ -4819,43 +4819,43 @@
         <v>5</v>
       </c>
       <c r="BI10" t="n">
-        <v>2313</v>
+        <v>2401</v>
       </c>
       <c r="BJ10" t="n">
-        <v>1155</v>
+        <v>1198</v>
       </c>
       <c r="BK10" t="n">
-        <v>49.935149156939</v>
+        <v>49.895876718034</v>
       </c>
       <c r="BL10" t="n">
-        <v>1588</v>
+        <v>1660</v>
       </c>
       <c r="BM10" t="n">
-        <v>762</v>
+        <v>798</v>
       </c>
       <c r="BN10" t="n">
-        <v>47.984886649874</v>
+        <v>48.072289156627</v>
       </c>
       <c r="BO10" t="n">
-        <v>725</v>
+        <v>741</v>
       </c>
       <c r="BP10" t="n">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="BQ10" t="n">
-        <v>54.206896551724</v>
+        <v>53.981106612686</v>
       </c>
       <c r="BR10" t="n">
-        <v>3013</v>
+        <v>3141</v>
       </c>
       <c r="BS10" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="BT10" t="n">
-        <v>302</v>
+        <v>320</v>
       </c>
       <c r="BU10" t="n">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="BV10" t="n">
         <v>1</v>
@@ -4864,46 +4864,46 @@
         <v>4</v>
       </c>
       <c r="BX10" t="n">
-        <v>6.8148571428571</v>
+        <v>6.8155737704918</v>
       </c>
       <c r="BY10" t="n">
-        <v>2375</v>
+        <v>2473</v>
       </c>
       <c r="BZ10" t="n">
-        <v>4614</v>
+        <v>4812</v>
       </c>
       <c r="CA10" t="n">
-        <v>4460</v>
+        <v>4641</v>
       </c>
       <c r="CB10" t="n">
-        <v>9074</v>
+        <v>9453</v>
       </c>
       <c r="CC10" t="n">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="CD10" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="CE10" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="CF10" t="n">
-        <v>634</v>
+        <v>652</v>
       </c>
       <c r="CG10" t="n">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="CH10" t="n">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="CI10" t="n">
-        <v>414</v>
+        <v>436</v>
       </c>
       <c r="CJ10" t="n">
-        <v>349</v>
+        <v>360</v>
       </c>
       <c r="CK10" t="n">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="CL10" t="n">
         <v>2</v>
@@ -4915,16 +4915,16 @@
         <v>4</v>
       </c>
       <c r="CO10" t="n">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="CP10" t="n">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="CQ10" t="n">
-        <v>571</v>
+        <v>603</v>
       </c>
       <c r="CR10" t="n">
-        <v>1244</v>
+        <v>1304</v>
       </c>
       <c r="CS10" t="n">
         <v>49</v>
@@ -4933,61 +4933,61 @@
         <v>2</v>
       </c>
       <c r="CU10" t="n">
-        <v>293</v>
+        <v>310</v>
       </c>
       <c r="CV10" t="n">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="CW10" t="n">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="CX10" t="n">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="CY10" t="n">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="CZ10" t="n">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="DA10" t="n">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="DB10" t="n">
-        <v>385</v>
+        <v>400</v>
       </c>
       <c r="DC10" t="n">
-        <v>3239</v>
+        <v>3378</v>
       </c>
       <c r="DD10" t="n">
-        <v>5926</v>
+        <v>6187</v>
       </c>
       <c r="DE10" t="n">
-        <v>4905</v>
+        <v>5101</v>
       </c>
       <c r="DF10" t="n">
-        <v>10831</v>
+        <v>11288</v>
       </c>
       <c r="DG10" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="DH10" t="n">
-        <v>447</v>
+        <v>462</v>
       </c>
       <c r="DI10" t="n">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="DJ10" t="n">
-        <v>1112</v>
+        <v>1154</v>
       </c>
       <c r="DK10" t="n">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="DL10" t="n">
         <v>48746</v>
       </c>
       <c r="DM10" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="DN10" t="n">
         <v>0</v>
@@ -5003,70 +5003,70 @@
         </is>
       </c>
       <c r="DQ10" t="n">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="DR10" t="n">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="DS10" t="n">
-        <v>11.04</v>
+        <v>10.83</v>
       </c>
       <c r="DT10" t="n">
-        <v>3.57</v>
+        <v>3.5</v>
       </c>
       <c r="DU10" t="n">
         <v>3.17</v>
       </c>
       <c r="DV10" t="n">
-        <v>13.13</v>
+        <v>13.33</v>
       </c>
       <c r="DW10" t="n">
-        <v>2.35</v>
+        <v>2.42</v>
       </c>
       <c r="DX10" t="n">
         <v>0.17</v>
       </c>
       <c r="DY10" t="n">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="DZ10" t="n">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="EA10" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="EB10" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="EC10" t="n">
-        <v>300.57</v>
+        <v>295.46</v>
       </c>
       <c r="ED10" t="n">
-        <v>15.61</v>
+        <v>15.71</v>
       </c>
       <c r="EE10" t="n">
-        <v>7.61</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="EF10" t="n">
-        <v>28.09</v>
+        <v>28.08</v>
       </c>
       <c r="EG10" t="n">
-        <v>3.57</v>
+        <v>3.62</v>
       </c>
       <c r="EH10" t="n">
-        <v>50.22</v>
+        <v>49.92</v>
       </c>
       <c r="EI10" t="n">
-        <v>33.13</v>
+        <v>33.25</v>
       </c>
       <c r="EJ10" t="n">
-        <v>17.09</v>
+        <v>16.67</v>
       </c>
       <c r="EK10" t="n">
-        <v>131</v>
+        <v>130.88</v>
       </c>
       <c r="EL10" t="n">
-        <v>7.13</v>
+        <v>7.04</v>
       </c>
     </row>
     <row r="11">
@@ -5520,7 +5520,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12" t="n">
         <v>18</v>
@@ -5875,70 +5875,70 @@
         </is>
       </c>
       <c r="DQ12" t="n">
-        <v>0.78</v>
+        <v>0.75</v>
       </c>
       <c r="DR12" t="n">
-        <v>1.17</v>
+        <v>1.12</v>
       </c>
       <c r="DS12" t="n">
-        <v>10</v>
+        <v>9.58</v>
       </c>
       <c r="DT12" t="n">
-        <v>2.74</v>
+        <v>2.62</v>
       </c>
       <c r="DU12" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="DV12" t="n">
-        <v>14.91</v>
+        <v>14.29</v>
       </c>
       <c r="DW12" t="n">
-        <v>2.57</v>
+        <v>2.46</v>
       </c>
       <c r="DX12" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="DY12" t="n">
-        <v>1.26</v>
+        <v>1.21</v>
       </c>
       <c r="DZ12" t="n">
-        <v>0.61</v>
+        <v>0.58</v>
       </c>
       <c r="EA12" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="EB12" t="n">
         <v>0.04</v>
       </c>
       <c r="EC12" t="n">
-        <v>215.48</v>
+        <v>206.5</v>
       </c>
       <c r="ED12" t="n">
-        <v>18.17</v>
+        <v>17.42</v>
       </c>
       <c r="EE12" t="n">
-        <v>8.43</v>
+        <v>8.08</v>
       </c>
       <c r="EF12" t="n">
-        <v>26.35</v>
+        <v>25.25</v>
       </c>
       <c r="EG12" t="n">
-        <v>3.22</v>
+        <v>3.08</v>
       </c>
       <c r="EH12" t="n">
-        <v>55.83</v>
+        <v>53.5</v>
       </c>
       <c r="EI12" t="n">
-        <v>38.52</v>
+        <v>36.92</v>
       </c>
       <c r="EJ12" t="n">
-        <v>17.3</v>
+        <v>16.58</v>
       </c>
       <c r="EK12" t="n">
-        <v>147.17</v>
+        <v>141.04</v>
       </c>
       <c r="EL12" t="n">
-        <v>6.13</v>
+        <v>5.88</v>
       </c>
     </row>
     <row r="13">
@@ -6380,11 +6380,11 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Sevilla</t>
+          <t>Elche</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2833</v>
+        <v>2846</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -6392,346 +6392,346 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E14" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F14" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I14" t="n">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="n">
         <v>4</v>
       </c>
-      <c r="K14" t="n">
+      <c r="N14" t="n">
+        <v>25</v>
+      </c>
+      <c r="O14" t="n">
         <v>5</v>
       </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>5</v>
-      </c>
-      <c r="N14" t="n">
-        <v>21</v>
-      </c>
-      <c r="O14" t="n">
-        <v>6</v>
-      </c>
       <c r="P14" t="n">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="Q14" t="n">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="T14" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="U14" t="n">
+        <v>47</v>
+      </c>
+      <c r="V14" t="n">
         <v>37</v>
       </c>
-      <c r="V14" t="n">
-        <v>27</v>
-      </c>
       <c r="W14" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="X14" t="n">
         <v>92</v>
       </c>
       <c r="Y14" t="n">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="Z14" t="n">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="AA14" t="n">
-        <v>165</v>
+        <v>195</v>
       </c>
       <c r="AB14" t="n">
-        <v>363</v>
+        <v>383</v>
       </c>
       <c r="AC14" t="n">
-        <v>123</v>
+        <v>90</v>
       </c>
       <c r="AD14" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AE14" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="AF14" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>58.541666666667</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>12388</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>10695</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>86.333548595415</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>5842</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>5345</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>91.492639507018</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>6546</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>5350</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>81.729300336083</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>662</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>335</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>50.604229607251</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>365</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>91</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>24.931506849315</v>
+      </c>
+      <c r="AX14" t="n">
         <v>6</v>
       </c>
-      <c r="AG14" t="n">
-        <v>22</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>54.652173913043</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>9898</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>8156</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>82.400484946454</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>4988</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>4512</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>90.45709703287901</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>4910</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>3644</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>74.215885947047</v>
-      </c>
-      <c r="AR14" t="n">
-        <v>857</v>
-      </c>
-      <c r="AS14" t="n">
-        <v>434</v>
-      </c>
-      <c r="AT14" t="n">
-        <v>50.641773628938</v>
-      </c>
-      <c r="AU14" t="n">
-        <v>392</v>
-      </c>
-      <c r="AV14" t="n">
-        <v>101</v>
-      </c>
-      <c r="AW14" t="n">
-        <v>25.765306122449</v>
-      </c>
-      <c r="AX14" t="n">
+      <c r="AY14" t="n">
+        <v>405</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>191</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>74</v>
+      </c>
+      <c r="BB14" t="n">
         <v>4</v>
-      </c>
-      <c r="AY14" t="n">
-        <v>424</v>
-      </c>
-      <c r="AZ14" t="n">
-        <v>184</v>
-      </c>
-      <c r="BA14" t="n">
-        <v>73</v>
-      </c>
-      <c r="BB14" t="n">
-        <v>6</v>
       </c>
       <c r="BC14" t="n">
         <v>13</v>
       </c>
       <c r="BD14" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="BE14" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BF14" t="n">
-        <v>588</v>
+        <v>515</v>
       </c>
       <c r="BG14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BH14" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BI14" t="n">
-        <v>2434</v>
+        <v>2337</v>
       </c>
       <c r="BJ14" t="n">
-        <v>1231</v>
+        <v>1190</v>
       </c>
       <c r="BK14" t="n">
-        <v>50.575184880855</v>
+        <v>50.919982884039</v>
       </c>
       <c r="BL14" t="n">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="BM14" t="n">
-        <v>886</v>
+        <v>932</v>
       </c>
       <c r="BN14" t="n">
-        <v>49.831271091114</v>
+        <v>52.447945976365</v>
       </c>
       <c r="BO14" t="n">
-        <v>656</v>
+        <v>560</v>
       </c>
       <c r="BP14" t="n">
-        <v>345</v>
+        <v>258</v>
       </c>
       <c r="BQ14" t="n">
-        <v>52.591463414634</v>
+        <v>46.071428571429</v>
       </c>
       <c r="BR14" t="n">
-        <v>3024</v>
+        <v>2934</v>
       </c>
       <c r="BS14" t="n">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="BT14" t="n">
-        <v>344</v>
+        <v>305</v>
       </c>
       <c r="BU14" t="n">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="BV14" t="n">
         <v>1</v>
       </c>
       <c r="BW14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BX14" t="n">
-        <v>6.7532577903683</v>
+        <v>6.8290237467018</v>
       </c>
       <c r="BY14" t="n">
-        <v>1447</v>
+        <v>1847</v>
       </c>
       <c r="BZ14" t="n">
-        <v>3008</v>
+        <v>3589</v>
       </c>
       <c r="CA14" t="n">
-        <v>3370</v>
+        <v>3320</v>
       </c>
       <c r="CB14" t="n">
-        <v>6378</v>
+        <v>6909</v>
       </c>
       <c r="CC14" t="n">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="CD14" t="n">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="CE14" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="CF14" t="n">
-        <v>550</v>
+        <v>529</v>
       </c>
       <c r="CG14" t="n">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="CH14" t="n">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="CI14" t="n">
-        <v>366</v>
+        <v>391</v>
       </c>
       <c r="CJ14" t="n">
-        <v>394</v>
+        <v>361</v>
       </c>
       <c r="CK14" t="n">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="CL14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CM14" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="CN14" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="CO14" t="n">
-        <v>177</v>
+        <v>197</v>
       </c>
       <c r="CP14" t="n">
-        <v>192</v>
+        <v>272</v>
       </c>
       <c r="CQ14" t="n">
-        <v>448</v>
+        <v>493</v>
       </c>
       <c r="CR14" t="n">
-        <v>1156</v>
+        <v>1104</v>
       </c>
       <c r="CS14" t="n">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="CT14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CU14" t="n">
-        <v>255</v>
+        <v>349</v>
       </c>
       <c r="CV14" t="n">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="CW14" t="n">
-        <v>185</v>
+        <v>233</v>
       </c>
       <c r="CX14" t="n">
-        <v>70</v>
+        <v>116</v>
       </c>
       <c r="CY14" t="n">
-        <v>79</v>
+        <v>142</v>
       </c>
       <c r="CZ14" t="n">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="DA14" t="n">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="DB14" t="n">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="DC14" t="n">
-        <v>2308</v>
+        <v>2694</v>
       </c>
       <c r="DD14" t="n">
-        <v>4363</v>
+        <v>4851</v>
       </c>
       <c r="DE14" t="n">
-        <v>3780</v>
+        <v>3694</v>
       </c>
       <c r="DF14" t="n">
-        <v>8143</v>
+        <v>8545</v>
       </c>
       <c r="DG14" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="DH14" t="n">
-        <v>452</v>
+        <v>389</v>
       </c>
       <c r="DI14" t="n">
-        <v>134</v>
+        <v>190</v>
       </c>
       <c r="DJ14" t="n">
-        <v>1118</v>
+        <v>1150</v>
       </c>
       <c r="DK14" t="n">
-        <v>302</v>
+        <v>335</v>
       </c>
       <c r="DL14" t="n">
-        <v>48473</v>
+        <v>48667</v>
       </c>
       <c r="DM14" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="DN14" t="n">
         <v>0</v>
@@ -6747,80 +6747,80 @@
         </is>
       </c>
       <c r="DQ14" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="DR14" t="n">
-        <v>1.65</v>
+        <v>1.46</v>
       </c>
       <c r="DS14" t="n">
-        <v>11.74</v>
+        <v>11.17</v>
       </c>
       <c r="DT14" t="n">
-        <v>4</v>
+        <v>3.83</v>
       </c>
       <c r="DU14" t="n">
-        <v>5.35</v>
+        <v>3.75</v>
       </c>
       <c r="DV14" t="n">
-        <v>14.96</v>
+        <v>12.71</v>
       </c>
       <c r="DW14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="DX14" t="n">
-        <v>0.04</v>
+        <v>0.12</v>
       </c>
       <c r="DY14" t="n">
-        <v>1.61</v>
+        <v>1.96</v>
       </c>
       <c r="DZ14" t="n">
-        <v>1.04</v>
+        <v>1.25</v>
       </c>
       <c r="EA14" t="n">
-        <v>0.35</v>
+        <v>0.21</v>
       </c>
       <c r="EB14" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="EC14" t="n">
-        <v>354.61</v>
+        <v>445.62</v>
       </c>
       <c r="ED14" t="n">
-        <v>18.43</v>
+        <v>16.88</v>
       </c>
       <c r="EE14" t="n">
-        <v>8</v>
+        <v>7.96</v>
       </c>
       <c r="EF14" t="n">
-        <v>25.57</v>
+        <v>21.46</v>
       </c>
       <c r="EG14" t="n">
-        <v>3.17</v>
+        <v>3.08</v>
       </c>
       <c r="EH14" t="n">
-        <v>53.52</v>
+        <v>49.58</v>
       </c>
       <c r="EI14" t="n">
-        <v>38.52</v>
+        <v>38.83</v>
       </c>
       <c r="EJ14" t="n">
-        <v>15</v>
+        <v>10.75</v>
       </c>
       <c r="EK14" t="n">
-        <v>131.48</v>
+        <v>122.25</v>
       </c>
       <c r="EL14" t="n">
-        <v>7.17</v>
+        <v>8.119999999999999</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Deportivo Alavés</t>
+          <t>Sevilla</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2885</v>
+        <v>2833</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -6831,340 +6831,340 @@
         <v>23</v>
       </c>
       <c r="E15" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F15" t="n">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="I15" t="n">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="J15" t="n">
         <v>4</v>
       </c>
       <c r="K15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="O15" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="P15" t="n">
+        <v>179</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>91</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>10</v>
+      </c>
+      <c r="T15" t="n">
+        <v>17</v>
+      </c>
+      <c r="U15" t="n">
+        <v>37</v>
+      </c>
+      <c r="V15" t="n">
+        <v>27</v>
+      </c>
+      <c r="W15" t="n">
+        <v>24</v>
+      </c>
+      <c r="X15" t="n">
+        <v>92</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>100</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>78</v>
+      </c>
+      <c r="AA15" t="n">
         <v>165</v>
       </c>
-      <c r="Q15" t="n">
-        <v>102</v>
-      </c>
-      <c r="R15" t="n">
-        <v>2</v>
-      </c>
-      <c r="S15" t="n">
-        <v>3</v>
-      </c>
-      <c r="T15" t="n">
-        <v>14</v>
-      </c>
-      <c r="U15" t="n">
-        <v>48</v>
-      </c>
-      <c r="V15" t="n">
-        <v>36</v>
-      </c>
-      <c r="W15" t="n">
-        <v>34</v>
-      </c>
-      <c r="X15" t="n">
-        <v>89</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>114</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>64</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>188</v>
-      </c>
       <c r="AB15" t="n">
-        <v>417</v>
+        <v>363</v>
       </c>
       <c r="AC15" t="n">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="AD15" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AE15" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="AF15" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AG15" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AH15" t="n">
-        <v>50.260869565217</v>
+        <v>54.652173913043</v>
       </c>
       <c r="AI15" t="n">
-        <v>9847</v>
+        <v>9898</v>
       </c>
       <c r="AJ15" t="n">
-        <v>7937</v>
+        <v>8156</v>
       </c>
       <c r="AK15" t="n">
-        <v>80.603229409973</v>
+        <v>82.400484946454</v>
       </c>
       <c r="AL15" t="n">
-        <v>4466</v>
+        <v>4988</v>
       </c>
       <c r="AM15" t="n">
-        <v>3972</v>
+        <v>4512</v>
       </c>
       <c r="AN15" t="n">
-        <v>88.938647559337</v>
+        <v>90.45709703287901</v>
       </c>
       <c r="AO15" t="n">
-        <v>5381</v>
+        <v>4910</v>
       </c>
       <c r="AP15" t="n">
-        <v>3965</v>
+        <v>3644</v>
       </c>
       <c r="AQ15" t="n">
-        <v>73.68518862664899</v>
+        <v>74.215885947047</v>
       </c>
       <c r="AR15" t="n">
-        <v>769</v>
+        <v>857</v>
       </c>
       <c r="AS15" t="n">
-        <v>352</v>
+        <v>434</v>
       </c>
       <c r="AT15" t="n">
-        <v>45.773732119636</v>
+        <v>50.641773628938</v>
       </c>
       <c r="AU15" t="n">
-        <v>444</v>
+        <v>392</v>
       </c>
       <c r="AV15" t="n">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="AW15" t="n">
-        <v>22.072072072072</v>
+        <v>25.765306122449</v>
       </c>
       <c r="AX15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY15" t="n">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="AZ15" t="n">
         <v>184</v>
       </c>
       <c r="BA15" t="n">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="BB15" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BC15" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BD15" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="BE15" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BF15" t="n">
-        <v>549</v>
+        <v>588</v>
       </c>
       <c r="BG15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BH15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BI15" t="n">
-        <v>2723</v>
+        <v>2434</v>
       </c>
       <c r="BJ15" t="n">
-        <v>1302</v>
+        <v>1231</v>
       </c>
       <c r="BK15" t="n">
-        <v>47.814910025707</v>
+        <v>50.575184880855</v>
       </c>
       <c r="BL15" t="n">
-        <v>1944</v>
+        <v>1778</v>
       </c>
       <c r="BM15" t="n">
-        <v>924</v>
+        <v>886</v>
       </c>
       <c r="BN15" t="n">
-        <v>47.530864197531</v>
+        <v>49.831271091114</v>
       </c>
       <c r="BO15" t="n">
-        <v>779</v>
+        <v>656</v>
       </c>
       <c r="BP15" t="n">
-        <v>378</v>
+        <v>345</v>
       </c>
       <c r="BQ15" t="n">
-        <v>48.523748395379</v>
+        <v>52.591463414634</v>
       </c>
       <c r="BR15" t="n">
-        <v>3265</v>
+        <v>3024</v>
       </c>
       <c r="BS15" t="n">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="BT15" t="n">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="BU15" t="n">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="BV15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BW15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BX15" t="n">
-        <v>6.7135593220339</v>
+        <v>6.7532577903683</v>
       </c>
       <c r="BY15" t="n">
-        <v>1890</v>
+        <v>1447</v>
       </c>
       <c r="BZ15" t="n">
-        <v>4048</v>
+        <v>3008</v>
       </c>
       <c r="CA15" t="n">
-        <v>4059</v>
+        <v>3370</v>
       </c>
       <c r="CB15" t="n">
-        <v>8107</v>
+        <v>6378</v>
       </c>
       <c r="CC15" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="CD15" t="n">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="CE15" t="n">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="CF15" t="n">
-        <v>577</v>
+        <v>550</v>
       </c>
       <c r="CG15" t="n">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="CH15" t="n">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="CI15" t="n">
-        <v>395</v>
+        <v>366</v>
       </c>
       <c r="CJ15" t="n">
-        <v>418</v>
+        <v>394</v>
       </c>
       <c r="CK15" t="n">
-        <v>206</v>
+        <v>180</v>
       </c>
       <c r="CL15" t="n">
         <v>4</v>
       </c>
       <c r="CM15" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="CN15" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="CO15" t="n">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="CP15" t="n">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="CQ15" t="n">
-        <v>633</v>
+        <v>448</v>
       </c>
       <c r="CR15" t="n">
-        <v>1277</v>
+        <v>1156</v>
       </c>
       <c r="CS15" t="n">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="CT15" t="n">
         <v>2</v>
       </c>
       <c r="CU15" t="n">
-        <v>293</v>
+        <v>255</v>
       </c>
       <c r="CV15" t="n">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="CW15" t="n">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="CX15" t="n">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="CY15" t="n">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="CZ15" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="DA15" t="n">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="DB15" t="n">
-        <v>485</v>
+        <v>391</v>
       </c>
       <c r="DC15" t="n">
-        <v>2767</v>
+        <v>2308</v>
       </c>
       <c r="DD15" t="n">
-        <v>5427</v>
+        <v>4363</v>
       </c>
       <c r="DE15" t="n">
-        <v>4530</v>
+        <v>3780</v>
       </c>
       <c r="DF15" t="n">
-        <v>9957</v>
+        <v>8143</v>
       </c>
       <c r="DG15" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="DH15" t="n">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="DI15" t="n">
-        <v>185</v>
+        <v>134</v>
       </c>
       <c r="DJ15" t="n">
-        <v>1164</v>
+        <v>1118</v>
       </c>
       <c r="DK15" t="n">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="DL15" t="n">
-        <v>48317</v>
+        <v>48473</v>
       </c>
       <c r="DM15" t="n">
         <v>23</v>
@@ -7183,80 +7183,80 @@
         </is>
       </c>
       <c r="DQ15" t="n">
-        <v>0.87</v>
+        <v>1.3</v>
       </c>
       <c r="DR15" t="n">
-        <v>1.26</v>
+        <v>1.65</v>
       </c>
       <c r="DS15" t="n">
-        <v>11.61</v>
+        <v>11.74</v>
       </c>
       <c r="DT15" t="n">
-        <v>3.87</v>
+        <v>4</v>
       </c>
       <c r="DU15" t="n">
-        <v>5.04</v>
+        <v>5.35</v>
       </c>
       <c r="DV15" t="n">
-        <v>15.22</v>
+        <v>14.96</v>
       </c>
       <c r="DW15" t="n">
-        <v>2.17</v>
+        <v>3</v>
       </c>
       <c r="DX15" t="n">
-        <v>0.09</v>
+        <v>0.04</v>
       </c>
       <c r="DY15" t="n">
-        <v>2.09</v>
+        <v>1.61</v>
       </c>
       <c r="DZ15" t="n">
-        <v>1.48</v>
+        <v>1.04</v>
       </c>
       <c r="EA15" t="n">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="EB15" t="n">
         <v>0.17</v>
       </c>
       <c r="EC15" t="n">
-        <v>345.09</v>
+        <v>354.61</v>
       </c>
       <c r="ED15" t="n">
-        <v>18.74</v>
+        <v>18.43</v>
       </c>
       <c r="EE15" t="n">
         <v>8</v>
       </c>
       <c r="EF15" t="n">
-        <v>23.87</v>
+        <v>25.57</v>
       </c>
       <c r="EG15" t="n">
-        <v>2.61</v>
+        <v>3.17</v>
       </c>
       <c r="EH15" t="n">
-        <v>56.61</v>
+        <v>53.52</v>
       </c>
       <c r="EI15" t="n">
-        <v>40.17</v>
+        <v>38.52</v>
       </c>
       <c r="EJ15" t="n">
-        <v>16.43</v>
+        <v>15</v>
       </c>
       <c r="EK15" t="n">
-        <v>141.96</v>
+        <v>131.48</v>
       </c>
       <c r="EL15" t="n">
-        <v>8.17</v>
+        <v>7.17</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Elche</t>
+          <t>Deportivo Alavés</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2846</v>
+        <v>2885</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -7267,340 +7267,340 @@
         <v>23</v>
       </c>
       <c r="E16" t="n">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="F16" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="I16" t="n">
-        <v>251</v>
+        <v>267</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K16" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
       <c r="M16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N16" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="O16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P16" t="n">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="Q16" t="n">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S16" t="n">
+        <v>3</v>
+      </c>
+      <c r="T16" t="n">
         <v>14</v>
       </c>
-      <c r="T16" t="n">
-        <v>16</v>
-      </c>
       <c r="U16" t="n">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="V16" t="n">
+        <v>36</v>
+      </c>
+      <c r="W16" t="n">
         <v>34</v>
       </c>
-      <c r="W16" t="n">
-        <v>26</v>
-      </c>
       <c r="X16" t="n">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="Y16" t="n">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="Z16" t="n">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="AA16" t="n">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="AB16" t="n">
-        <v>372</v>
+        <v>417</v>
       </c>
       <c r="AC16" t="n">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="AD16" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AE16" t="n">
         <v>19</v>
       </c>
       <c r="AF16" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AG16" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AH16" t="n">
-        <v>58.304347826087</v>
+        <v>50.260869565217</v>
       </c>
       <c r="AI16" t="n">
-        <v>11931</v>
+        <v>9847</v>
       </c>
       <c r="AJ16" t="n">
-        <v>10316</v>
+        <v>7937</v>
       </c>
       <c r="AK16" t="n">
-        <v>86.463833710502</v>
+        <v>80.603229409973</v>
       </c>
       <c r="AL16" t="n">
-        <v>5646</v>
+        <v>4466</v>
       </c>
       <c r="AM16" t="n">
-        <v>5164</v>
+        <v>3972</v>
       </c>
       <c r="AN16" t="n">
-        <v>91.46298264257899</v>
+        <v>88.938647559337</v>
       </c>
       <c r="AO16" t="n">
-        <v>6285</v>
+        <v>5381</v>
       </c>
       <c r="AP16" t="n">
-        <v>5152</v>
+        <v>3965</v>
       </c>
       <c r="AQ16" t="n">
-        <v>81.97295147175799</v>
+        <v>73.68518862664899</v>
       </c>
       <c r="AR16" t="n">
-        <v>633</v>
+        <v>769</v>
       </c>
       <c r="AS16" t="n">
-        <v>319</v>
+        <v>352</v>
       </c>
       <c r="AT16" t="n">
-        <v>50.394944707741</v>
+        <v>45.773732119636</v>
       </c>
       <c r="AU16" t="n">
-        <v>343</v>
+        <v>444</v>
       </c>
       <c r="AV16" t="n">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="AW16" t="n">
-        <v>24.781341107872</v>
+        <v>22.072072072072</v>
       </c>
       <c r="AX16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AY16" t="n">
-        <v>390</v>
+        <v>431</v>
       </c>
       <c r="AZ16" t="n">
         <v>184</v>
       </c>
       <c r="BA16" t="n">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="BB16" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD16" t="n">
+        <v>3</v>
+      </c>
+      <c r="BE16" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF16" t="n">
+        <v>549</v>
+      </c>
+      <c r="BG16" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH16" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI16" t="n">
+        <v>2723</v>
+      </c>
+      <c r="BJ16" t="n">
+        <v>1302</v>
+      </c>
+      <c r="BK16" t="n">
+        <v>47.814910025707</v>
+      </c>
+      <c r="BL16" t="n">
+        <v>1944</v>
+      </c>
+      <c r="BM16" t="n">
+        <v>924</v>
+      </c>
+      <c r="BN16" t="n">
+        <v>47.530864197531</v>
+      </c>
+      <c r="BO16" t="n">
+        <v>779</v>
+      </c>
+      <c r="BP16" t="n">
+        <v>378</v>
+      </c>
+      <c r="BQ16" t="n">
+        <v>48.523748395379</v>
+      </c>
+      <c r="BR16" t="n">
+        <v>3265</v>
+      </c>
+      <c r="BS16" t="n">
+        <v>51</v>
+      </c>
+      <c r="BT16" t="n">
+        <v>350</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>50</v>
+      </c>
+      <c r="BV16" t="n">
+        <v>2</v>
+      </c>
+      <c r="BW16" t="n">
+        <v>2</v>
+      </c>
+      <c r="BX16" t="n">
+        <v>6.7135593220339</v>
+      </c>
+      <c r="BY16" t="n">
+        <v>1890</v>
+      </c>
+      <c r="BZ16" t="n">
+        <v>4048</v>
+      </c>
+      <c r="CA16" t="n">
+        <v>4059</v>
+      </c>
+      <c r="CB16" t="n">
+        <v>8107</v>
+      </c>
+      <c r="CC16" t="n">
+        <v>50</v>
+      </c>
+      <c r="CD16" t="n">
+        <v>33</v>
+      </c>
+      <c r="CE16" t="n">
+        <v>30</v>
+      </c>
+      <c r="CF16" t="n">
+        <v>577</v>
+      </c>
+      <c r="CG16" t="n">
+        <v>107</v>
+      </c>
+      <c r="CH16" t="n">
+        <v>98</v>
+      </c>
+      <c r="CI16" t="n">
+        <v>395</v>
+      </c>
+      <c r="CJ16" t="n">
+        <v>418</v>
+      </c>
+      <c r="CK16" t="n">
+        <v>206</v>
+      </c>
+      <c r="CL16" t="n">
         <v>4</v>
       </c>
-      <c r="BC16" t="n">
-        <v>13</v>
-      </c>
-      <c r="BD16" t="n">
-        <v>4</v>
-      </c>
-      <c r="BE16" t="n">
-        <v>4</v>
-      </c>
-      <c r="BF16" t="n">
-        <v>497</v>
-      </c>
-      <c r="BG16" t="n">
-        <v>1</v>
-      </c>
-      <c r="BH16" t="n">
-        <v>6</v>
-      </c>
-      <c r="BI16" t="n">
-        <v>2249</v>
-      </c>
-      <c r="BJ16" t="n">
-        <v>1145</v>
-      </c>
-      <c r="BK16" t="n">
-        <v>50.911516229435</v>
-      </c>
-      <c r="BL16" t="n">
-        <v>1705</v>
-      </c>
-      <c r="BM16" t="n">
-        <v>896</v>
-      </c>
-      <c r="BN16" t="n">
-        <v>52.551319648094</v>
-      </c>
-      <c r="BO16" t="n">
-        <v>544</v>
-      </c>
-      <c r="BP16" t="n">
-        <v>249</v>
-      </c>
-      <c r="BQ16" t="n">
-        <v>45.772058823529</v>
-      </c>
-      <c r="BR16" t="n">
-        <v>2798</v>
-      </c>
-      <c r="BS16" t="n">
-        <v>38</v>
-      </c>
-      <c r="BT16" t="n">
-        <v>292</v>
-      </c>
-      <c r="BU16" t="n">
-        <v>46</v>
-      </c>
-      <c r="BV16" t="n">
-        <v>1</v>
-      </c>
-      <c r="BW16" t="n">
-        <v>3</v>
-      </c>
-      <c r="BX16" t="n">
-        <v>6.8225274725275</v>
-      </c>
-      <c r="BY16" t="n">
-        <v>1806</v>
-      </c>
-      <c r="BZ16" t="n">
-        <v>3510</v>
-      </c>
-      <c r="CA16" t="n">
-        <v>3221</v>
-      </c>
-      <c r="CB16" t="n">
-        <v>6731</v>
-      </c>
-      <c r="CC16" t="n">
-        <v>77</v>
-      </c>
-      <c r="CD16" t="n">
-        <v>62</v>
-      </c>
-      <c r="CE16" t="n">
-        <v>49</v>
-      </c>
-      <c r="CF16" t="n">
-        <v>501</v>
-      </c>
-      <c r="CG16" t="n">
-        <v>108</v>
-      </c>
-      <c r="CH16" t="n">
-        <v>108</v>
-      </c>
-      <c r="CI16" t="n">
-        <v>380</v>
-      </c>
-      <c r="CJ16" t="n">
-        <v>348</v>
-      </c>
-      <c r="CK16" t="n">
-        <v>155</v>
-      </c>
-      <c r="CL16" t="n">
-        <v>3</v>
-      </c>
       <c r="CM16" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="CN16" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="CO16" t="n">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="CP16" t="n">
-        <v>267</v>
+        <v>209</v>
       </c>
       <c r="CQ16" t="n">
-        <v>476</v>
+        <v>633</v>
       </c>
       <c r="CR16" t="n">
-        <v>1054</v>
+        <v>1277</v>
       </c>
       <c r="CS16" t="n">
+        <v>35</v>
+      </c>
+      <c r="CT16" t="n">
+        <v>2</v>
+      </c>
+      <c r="CU16" t="n">
+        <v>293</v>
+      </c>
+      <c r="CV16" t="n">
+        <v>89</v>
+      </c>
+      <c r="CW16" t="n">
+        <v>191</v>
+      </c>
+      <c r="CX16" t="n">
+        <v>102</v>
+      </c>
+      <c r="CY16" t="n">
+        <v>114</v>
+      </c>
+      <c r="CZ16" t="n">
+        <v>90</v>
+      </c>
+      <c r="DA16" t="n">
+        <v>89</v>
+      </c>
+      <c r="DB16" t="n">
+        <v>485</v>
+      </c>
+      <c r="DC16" t="n">
+        <v>2767</v>
+      </c>
+      <c r="DD16" t="n">
+        <v>5427</v>
+      </c>
+      <c r="DE16" t="n">
+        <v>4530</v>
+      </c>
+      <c r="DF16" t="n">
+        <v>9957</v>
+      </c>
+      <c r="DG16" t="n">
         <v>42</v>
       </c>
-      <c r="CT16" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU16" t="n">
-        <v>343</v>
-      </c>
-      <c r="CV16" t="n">
-        <v>91</v>
-      </c>
-      <c r="CW16" t="n">
-        <v>229</v>
-      </c>
-      <c r="CX16" t="n">
-        <v>114</v>
-      </c>
-      <c r="CY16" t="n">
-        <v>141</v>
-      </c>
-      <c r="CZ16" t="n">
-        <v>111</v>
-      </c>
-      <c r="DA16" t="n">
-        <v>91</v>
-      </c>
-      <c r="DB16" t="n">
-        <v>382</v>
-      </c>
-      <c r="DC16" t="n">
-        <v>2619</v>
-      </c>
-      <c r="DD16" t="n">
-        <v>4707</v>
-      </c>
-      <c r="DE16" t="n">
-        <v>3580</v>
-      </c>
-      <c r="DF16" t="n">
-        <v>8287</v>
-      </c>
-      <c r="DG16" t="n">
-        <v>47</v>
-      </c>
       <c r="DH16" t="n">
-        <v>377</v>
+        <v>460</v>
       </c>
       <c r="DI16" t="n">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="DJ16" t="n">
-        <v>1106</v>
+        <v>1164</v>
       </c>
       <c r="DK16" t="n">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="DL16" t="n">
-        <v>48667</v>
+        <v>48317</v>
       </c>
       <c r="DM16" t="n">
         <v>23</v>
@@ -7619,70 +7619,70 @@
         </is>
       </c>
       <c r="DQ16" t="n">
-        <v>1.35</v>
+        <v>0.87</v>
       </c>
       <c r="DR16" t="n">
-        <v>1.52</v>
+        <v>1.26</v>
       </c>
       <c r="DS16" t="n">
-        <v>10.91</v>
+        <v>11.61</v>
       </c>
       <c r="DT16" t="n">
-        <v>3.78</v>
+        <v>3.87</v>
       </c>
       <c r="DU16" t="n">
-        <v>3.48</v>
+        <v>5.04</v>
       </c>
       <c r="DV16" t="n">
-        <v>12.7</v>
+        <v>15.22</v>
       </c>
       <c r="DW16" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="DX16" t="n">
-        <v>0.13</v>
+        <v>0.09</v>
       </c>
       <c r="DY16" t="n">
-        <v>1.87</v>
+        <v>2.09</v>
       </c>
       <c r="DZ16" t="n">
-        <v>1.13</v>
+        <v>1.48</v>
       </c>
       <c r="EA16" t="n">
-        <v>0.22</v>
+        <v>0.3</v>
       </c>
       <c r="EB16" t="n">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="EC16" t="n">
-        <v>448.52</v>
+        <v>345.09</v>
       </c>
       <c r="ED16" t="n">
-        <v>16.96</v>
+        <v>18.74</v>
       </c>
       <c r="EE16" t="n">
         <v>8</v>
       </c>
       <c r="EF16" t="n">
-        <v>21.61</v>
+        <v>23.87</v>
       </c>
       <c r="EG16" t="n">
-        <v>3.17</v>
+        <v>2.61</v>
       </c>
       <c r="EH16" t="n">
-        <v>49.78</v>
+        <v>56.61</v>
       </c>
       <c r="EI16" t="n">
-        <v>38.96</v>
+        <v>40.17</v>
       </c>
       <c r="EJ16" t="n">
-        <v>10.83</v>
+        <v>16.43</v>
       </c>
       <c r="EK16" t="n">
-        <v>121.65</v>
+        <v>141.96</v>
       </c>
       <c r="EL16" t="n">
-        <v>8.35</v>
+        <v>8.17</v>
       </c>
     </row>
     <row r="17">

--- a/sofascore_team_data/La_Liga_Team_Stats.xlsx
+++ b/sofascore_team_data/La_Liga_Team_Stats.xlsx
@@ -1596,28 +1596,28 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E3" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F3" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="n">
-        <v>467</v>
+        <v>494</v>
       </c>
       <c r="J3" t="n">
         <v>4</v>
       </c>
       <c r="K3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -1626,19 +1626,19 @@
         <v>17</v>
       </c>
       <c r="N3" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O3" t="n">
         <v>10</v>
       </c>
       <c r="P3" t="n">
-        <v>300</v>
+        <v>318</v>
       </c>
       <c r="Q3" t="n">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="R3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S3" t="n">
         <v>23</v>
@@ -1647,109 +1647,109 @@
         <v>32</v>
       </c>
       <c r="U3" t="n">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="V3" t="n">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="W3" t="n">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="X3" t="n">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Y3" t="n">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="Z3" t="n">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="AA3" t="n">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="AB3" t="n">
-        <v>503</v>
+        <v>522</v>
       </c>
       <c r="AC3" t="n">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="AD3" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AE3" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AF3" t="n">
         <v>5</v>
       </c>
       <c r="AG3" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AH3" t="n">
-        <v>68.73913043478299</v>
+        <v>68.833333333333</v>
       </c>
       <c r="AI3" t="n">
-        <v>14816</v>
+        <v>15555</v>
       </c>
       <c r="AJ3" t="n">
-        <v>13243</v>
+        <v>13910</v>
       </c>
       <c r="AK3" t="n">
-        <v>89.383099352052</v>
+        <v>89.42462230794</v>
       </c>
       <c r="AL3" t="n">
-        <v>6003</v>
+        <v>6287</v>
       </c>
       <c r="AM3" t="n">
-        <v>5596</v>
+        <v>5867</v>
       </c>
       <c r="AN3" t="n">
-        <v>93.220056638347</v>
+        <v>93.319548274217</v>
       </c>
       <c r="AO3" t="n">
-        <v>8813</v>
+        <v>9268</v>
       </c>
       <c r="AP3" t="n">
-        <v>7647</v>
+        <v>8043</v>
       </c>
       <c r="AQ3" t="n">
-        <v>86.769544990355</v>
+        <v>86.78247734139001</v>
       </c>
       <c r="AR3" t="n">
-        <v>652</v>
+        <v>680</v>
       </c>
       <c r="AS3" t="n">
-        <v>366</v>
+        <v>384</v>
       </c>
       <c r="AT3" t="n">
-        <v>56.134969325153</v>
+        <v>56.470588235294</v>
       </c>
       <c r="AU3" t="n">
-        <v>333</v>
+        <v>363</v>
       </c>
       <c r="AV3" t="n">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AW3" t="n">
-        <v>26.426426426426</v>
+        <v>27.272727272727</v>
       </c>
       <c r="AX3" t="n">
         <v>9</v>
       </c>
       <c r="AY3" t="n">
-        <v>370</v>
+        <v>389</v>
       </c>
       <c r="AZ3" t="n">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="BA3" t="n">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="BB3" t="n">
         <v>1</v>
       </c>
       <c r="BC3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BD3" t="n">
         <v>4</v>
@@ -1758,7 +1758,7 @@
         <v>3</v>
       </c>
       <c r="BF3" t="n">
-        <v>396</v>
+        <v>411</v>
       </c>
       <c r="BG3" t="n">
         <v>2</v>
@@ -1767,43 +1767,43 @@
         <v>3</v>
       </c>
       <c r="BI3" t="n">
-        <v>2125</v>
+        <v>2217</v>
       </c>
       <c r="BJ3" t="n">
-        <v>1163</v>
+        <v>1209</v>
       </c>
       <c r="BK3" t="n">
-        <v>54.729411764706</v>
+        <v>54.533152909337</v>
       </c>
       <c r="BL3" t="n">
-        <v>1676</v>
+        <v>1750</v>
       </c>
       <c r="BM3" t="n">
-        <v>897</v>
+        <v>934</v>
       </c>
       <c r="BN3" t="n">
-        <v>53.520286396181</v>
+        <v>53.371428571429</v>
       </c>
       <c r="BO3" t="n">
-        <v>449</v>
+        <v>467</v>
       </c>
       <c r="BP3" t="n">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="BQ3" t="n">
-        <v>59.24276169265</v>
+        <v>58.886509635974</v>
       </c>
       <c r="BR3" t="n">
-        <v>2721</v>
+        <v>2845</v>
       </c>
       <c r="BS3" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="BT3" t="n">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="BU3" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="BV3" t="n">
         <v>2</v>
@@ -1812,130 +1812,130 @@
         <v>2</v>
       </c>
       <c r="BX3" t="n">
-        <v>7.0724431818182</v>
+        <v>7.0592391304348</v>
       </c>
       <c r="BY3" t="n">
-        <v>1047</v>
+        <v>1099</v>
       </c>
       <c r="BZ3" t="n">
-        <v>2006</v>
+        <v>2091</v>
       </c>
       <c r="CA3" t="n">
-        <v>2894</v>
+        <v>3047</v>
       </c>
       <c r="CB3" t="n">
-        <v>4900</v>
+        <v>5138</v>
       </c>
       <c r="CC3" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="CD3" t="n">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="CE3" t="n">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="CF3" t="n">
-        <v>565</v>
+        <v>609</v>
       </c>
       <c r="CG3" t="n">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="CH3" t="n">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="CI3" t="n">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="CJ3" t="n">
-        <v>316</v>
+        <v>334</v>
       </c>
       <c r="CK3" t="n">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="CL3" t="n">
         <v>12</v>
       </c>
       <c r="CM3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="CN3" t="n">
         <v>4</v>
       </c>
       <c r="CO3" t="n">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="CP3" t="n">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="CQ3" t="n">
-        <v>512</v>
+        <v>530</v>
       </c>
       <c r="CR3" t="n">
-        <v>1236</v>
+        <v>1282</v>
       </c>
       <c r="CS3" t="n">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="CT3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="CU3" t="n">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="CV3" t="n">
+        <v>56</v>
+      </c>
+      <c r="CW3" t="n">
+        <v>184</v>
+      </c>
+      <c r="CX3" t="n">
+        <v>47</v>
+      </c>
+      <c r="CY3" t="n">
+        <v>81</v>
+      </c>
+      <c r="CZ3" t="n">
+        <v>95</v>
+      </c>
+      <c r="DA3" t="n">
         <v>55</v>
       </c>
-      <c r="CW3" t="n">
-        <v>173</v>
-      </c>
-      <c r="CX3" t="n">
-        <v>45</v>
-      </c>
-      <c r="CY3" t="n">
-        <v>78</v>
-      </c>
-      <c r="CZ3" t="n">
-        <v>86</v>
-      </c>
-      <c r="DA3" t="n">
-        <v>54</v>
-      </c>
       <c r="DB3" t="n">
-        <v>443</v>
+        <v>462</v>
       </c>
       <c r="DC3" t="n">
-        <v>1731</v>
+        <v>1818</v>
       </c>
       <c r="DD3" t="n">
-        <v>3156</v>
+        <v>3291</v>
       </c>
       <c r="DE3" t="n">
-        <v>3346</v>
+        <v>3519</v>
       </c>
       <c r="DF3" t="n">
-        <v>6502</v>
+        <v>6810</v>
       </c>
       <c r="DG3" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="DH3" t="n">
-        <v>400</v>
+        <v>414</v>
       </c>
       <c r="DI3" t="n">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="DJ3" t="n">
-        <v>1095</v>
+        <v>1143</v>
       </c>
       <c r="DK3" t="n">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="DL3" t="n">
         <v>48301</v>
       </c>
       <c r="DM3" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="DN3" t="n">
         <v>0</v>
@@ -1951,70 +1951,70 @@
         </is>
       </c>
       <c r="DQ3" t="n">
-        <v>2.74</v>
+        <v>2.67</v>
       </c>
       <c r="DR3" t="n">
-        <v>1</v>
+        <v>1.04</v>
       </c>
       <c r="DS3" t="n">
-        <v>20.3</v>
+        <v>20.58</v>
       </c>
       <c r="DT3" t="n">
-        <v>7.52</v>
+        <v>7.38</v>
       </c>
       <c r="DU3" t="n">
-        <v>7.52</v>
+        <v>7.5</v>
       </c>
       <c r="DV3" t="n">
-        <v>9.220000000000001</v>
+        <v>9.08</v>
       </c>
       <c r="DW3" t="n">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="DX3" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="DY3" t="n">
-        <v>4.65</v>
+        <v>4.58</v>
       </c>
       <c r="DZ3" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="EA3" t="n">
-        <v>1</v>
+        <v>1.04</v>
       </c>
       <c r="EB3" t="n">
         <v>0.17</v>
       </c>
       <c r="EC3" t="n">
-        <v>575.78</v>
+        <v>579.58</v>
       </c>
       <c r="ED3" t="n">
-        <v>16.09</v>
+        <v>16.21</v>
       </c>
       <c r="EE3" t="n">
-        <v>7.04</v>
+        <v>7.12</v>
       </c>
       <c r="EF3" t="n">
-        <v>17.22</v>
+        <v>17.12</v>
       </c>
       <c r="EG3" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="EH3" t="n">
-        <v>50.57</v>
+        <v>50.38</v>
       </c>
       <c r="EI3" t="n">
-        <v>39</v>
+        <v>38.92</v>
       </c>
       <c r="EJ3" t="n">
-        <v>11.57</v>
+        <v>11.46</v>
       </c>
       <c r="EK3" t="n">
-        <v>118.3</v>
+        <v>118.54</v>
       </c>
       <c r="EL3" t="n">
-        <v>11.35</v>
+        <v>11.21</v>
       </c>
     </row>
     <row r="4">
@@ -3186,7 +3186,7 @@
         <v>71</v>
       </c>
       <c r="CT6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CU6" t="n">
         <v>306</v>
@@ -5944,11 +5944,11 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Sevilla</t>
+          <t>Girona FC</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2833</v>
+        <v>24264</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -5959,340 +5959,340 @@
         <v>24</v>
       </c>
       <c r="E13" t="n">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F13" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I13" t="n">
-        <v>274</v>
+        <v>236</v>
       </c>
       <c r="J13" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K13" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O13" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="P13" t="n">
-        <v>181</v>
+        <v>155</v>
       </c>
       <c r="Q13" t="n">
+        <v>81</v>
+      </c>
+      <c r="R13" t="n">
+        <v>2</v>
+      </c>
+      <c r="S13" t="n">
+        <v>8</v>
+      </c>
+      <c r="T13" t="n">
+        <v>14</v>
+      </c>
+      <c r="U13" t="n">
+        <v>49</v>
+      </c>
+      <c r="V13" t="n">
+        <v>34</v>
+      </c>
+      <c r="W13" t="n">
+        <v>34</v>
+      </c>
+      <c r="X13" t="n">
         <v>93</v>
       </c>
-      <c r="R13" t="n">
-        <v>0</v>
-      </c>
-      <c r="S13" t="n">
-        <v>10</v>
-      </c>
-      <c r="T13" t="n">
-        <v>18</v>
-      </c>
-      <c r="U13" t="n">
-        <v>37</v>
-      </c>
-      <c r="V13" t="n">
-        <v>27</v>
-      </c>
-      <c r="W13" t="n">
-        <v>24</v>
-      </c>
-      <c r="X13" t="n">
-        <v>94</v>
-      </c>
       <c r="Y13" t="n">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="Z13" t="n">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="AA13" t="n">
-        <v>168</v>
+        <v>219</v>
       </c>
       <c r="AB13" t="n">
-        <v>368</v>
+        <v>444</v>
       </c>
       <c r="AC13" t="n">
-        <v>123</v>
+        <v>95</v>
       </c>
       <c r="AD13" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AE13" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AF13" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AG13" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="AH13" t="n">
-        <v>53.458333333333</v>
+        <v>48.541666666667</v>
       </c>
       <c r="AI13" t="n">
-        <v>10095</v>
+        <v>10624</v>
       </c>
       <c r="AJ13" t="n">
-        <v>8278</v>
+        <v>8998</v>
       </c>
       <c r="AK13" t="n">
-        <v>82.000990589401</v>
+        <v>84.695030120482</v>
       </c>
       <c r="AL13" t="n">
-        <v>5067</v>
+        <v>5652</v>
       </c>
       <c r="AM13" t="n">
-        <v>4581</v>
+        <v>5166</v>
       </c>
       <c r="AN13" t="n">
-        <v>90.40852575488501</v>
+        <v>91.40127388534999</v>
       </c>
       <c r="AO13" t="n">
-        <v>5028</v>
+        <v>4972</v>
       </c>
       <c r="AP13" t="n">
-        <v>3697</v>
+        <v>3832</v>
       </c>
       <c r="AQ13" t="n">
-        <v>73.528241845664</v>
+        <v>77.07160096540601</v>
       </c>
       <c r="AR13" t="n">
-        <v>881</v>
+        <v>783</v>
       </c>
       <c r="AS13" t="n">
-        <v>442</v>
+        <v>400</v>
       </c>
       <c r="AT13" t="n">
-        <v>50.170261066969</v>
+        <v>51.085568326948</v>
       </c>
       <c r="AU13" t="n">
-        <v>399</v>
+        <v>331</v>
       </c>
       <c r="AV13" t="n">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="AW13" t="n">
-        <v>26.065162907268</v>
+        <v>19.939577039275</v>
       </c>
       <c r="AX13" t="n">
         <v>4</v>
       </c>
       <c r="AY13" t="n">
-        <v>437</v>
+        <v>368</v>
       </c>
       <c r="AZ13" t="n">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="BA13" t="n">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="BB13" t="n">
         <v>6</v>
       </c>
       <c r="BC13" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BD13" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="BE13" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BF13" t="n">
-        <v>627</v>
+        <v>639</v>
       </c>
       <c r="BG13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BH13" t="n">
         <v>4</v>
       </c>
       <c r="BI13" t="n">
-        <v>2518</v>
+        <v>2335</v>
       </c>
       <c r="BJ13" t="n">
-        <v>1267</v>
+        <v>1174</v>
       </c>
       <c r="BK13" t="n">
-        <v>50.317712470214</v>
+        <v>50.278372591006</v>
       </c>
       <c r="BL13" t="n">
-        <v>1829</v>
+        <v>1775</v>
       </c>
       <c r="BM13" t="n">
-        <v>911</v>
+        <v>897</v>
       </c>
       <c r="BN13" t="n">
-        <v>49.808638600328</v>
+        <v>50.535211267606</v>
       </c>
       <c r="BO13" t="n">
-        <v>689</v>
+        <v>560</v>
       </c>
       <c r="BP13" t="n">
-        <v>356</v>
+        <v>277</v>
       </c>
       <c r="BQ13" t="n">
-        <v>51.66908563135</v>
+        <v>49.464285714286</v>
       </c>
       <c r="BR13" t="n">
-        <v>3135</v>
+        <v>2820</v>
       </c>
       <c r="BS13" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BT13" t="n">
-        <v>360</v>
+        <v>270</v>
       </c>
       <c r="BU13" t="n">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="BV13" t="n">
         <v>2</v>
       </c>
       <c r="BW13" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BX13" t="n">
-        <v>6.7364864864865</v>
+        <v>6.7392953929539</v>
       </c>
       <c r="BY13" t="n">
-        <v>1581</v>
+        <v>2653</v>
       </c>
       <c r="BZ13" t="n">
-        <v>3360</v>
+        <v>5162</v>
       </c>
       <c r="CA13" t="n">
-        <v>3511</v>
+        <v>4589</v>
       </c>
       <c r="CB13" t="n">
-        <v>6871</v>
+        <v>9751</v>
       </c>
       <c r="CC13" t="n">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="CD13" t="n">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="CE13" t="n">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="CF13" t="n">
-        <v>570</v>
+        <v>462</v>
       </c>
       <c r="CG13" t="n">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="CH13" t="n">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="CI13" t="n">
-        <v>399</v>
+        <v>490</v>
       </c>
       <c r="CJ13" t="n">
-        <v>399</v>
+        <v>328</v>
       </c>
       <c r="CK13" t="n">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="CL13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="CM13" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="CN13" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="CO13" t="n">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="CP13" t="n">
-        <v>198</v>
+        <v>273</v>
       </c>
       <c r="CQ13" t="n">
-        <v>472</v>
+        <v>527</v>
       </c>
       <c r="CR13" t="n">
-        <v>1201</v>
+        <v>1101</v>
       </c>
       <c r="CS13" t="n">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="CT13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CU13" t="n">
-        <v>267</v>
+        <v>373</v>
       </c>
       <c r="CV13" t="n">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="CW13" t="n">
-        <v>195</v>
+        <v>247</v>
       </c>
       <c r="CX13" t="n">
-        <v>72</v>
+        <v>126</v>
       </c>
       <c r="CY13" t="n">
-        <v>86</v>
+        <v>173</v>
       </c>
       <c r="CZ13" t="n">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="DA13" t="n">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="DB13" t="n">
-        <v>398</v>
+        <v>453</v>
       </c>
       <c r="DC13" t="n">
-        <v>2479</v>
+        <v>3507</v>
       </c>
       <c r="DD13" t="n">
-        <v>4770</v>
+        <v>6435</v>
       </c>
       <c r="DE13" t="n">
-        <v>3942</v>
+        <v>4934</v>
       </c>
       <c r="DF13" t="n">
-        <v>8712</v>
+        <v>11369</v>
       </c>
       <c r="DG13" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="DH13" t="n">
-        <v>466</v>
+        <v>383</v>
       </c>
       <c r="DI13" t="n">
-        <v>146</v>
+        <v>213</v>
       </c>
       <c r="DJ13" t="n">
-        <v>1149</v>
+        <v>1093</v>
       </c>
       <c r="DK13" t="n">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="DL13" t="n">
-        <v>48473</v>
+        <v>48069</v>
       </c>
       <c r="DM13" t="n">
         <v>24</v>
@@ -6311,80 +6311,80 @@
         </is>
       </c>
       <c r="DQ13" t="n">
-        <v>1.29</v>
+        <v>1</v>
       </c>
       <c r="DR13" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="DS13" t="n">
-        <v>11.42</v>
+        <v>9.83</v>
       </c>
       <c r="DT13" t="n">
-        <v>3.92</v>
+        <v>3.88</v>
       </c>
       <c r="DU13" t="n">
-        <v>5.12</v>
+        <v>3.96</v>
       </c>
       <c r="DV13" t="n">
-        <v>15</v>
+        <v>11.25</v>
       </c>
       <c r="DW13" t="n">
-        <v>3.04</v>
+        <v>2.25</v>
       </c>
       <c r="DX13" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="DY13" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="DZ13" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="EA13" t="n">
         <v>0.12</v>
       </c>
-      <c r="DY13" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="DZ13" t="n">
-        <v>1</v>
-      </c>
-      <c r="EA13" t="n">
-        <v>0.33</v>
-      </c>
       <c r="EB13" t="n">
-        <v>0.17</v>
+        <v>0.25</v>
       </c>
       <c r="EC13" t="n">
-        <v>344.92</v>
+        <v>374.92</v>
       </c>
       <c r="ED13" t="n">
-        <v>18.21</v>
+        <v>15.33</v>
       </c>
       <c r="EE13" t="n">
-        <v>8.289999999999999</v>
+        <v>7.79</v>
       </c>
       <c r="EF13" t="n">
-        <v>26.12</v>
+        <v>26.62</v>
       </c>
       <c r="EG13" t="n">
-        <v>3.04</v>
+        <v>3.17</v>
       </c>
       <c r="EH13" t="n">
-        <v>52.79</v>
+        <v>48.92</v>
       </c>
       <c r="EI13" t="n">
-        <v>37.96</v>
+        <v>37.38</v>
       </c>
       <c r="EJ13" t="n">
-        <v>14.83</v>
+        <v>11.54</v>
       </c>
       <c r="EK13" t="n">
-        <v>130.62</v>
+        <v>117.5</v>
       </c>
       <c r="EL13" t="n">
-        <v>7</v>
+        <v>9.119999999999999</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Deportivo Alavés</t>
+          <t>Sevilla</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2885</v>
+        <v>2833</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -6395,340 +6395,340 @@
         <v>24</v>
       </c>
       <c r="E14" t="n">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F14" t="n">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="I14" t="n">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="J14" t="n">
         <v>4</v>
       </c>
       <c r="K14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="O14" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="P14" t="n">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="Q14" t="n">
+        <v>93</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>10</v>
+      </c>
+      <c r="T14" t="n">
+        <v>18</v>
+      </c>
+      <c r="U14" t="n">
+        <v>37</v>
+      </c>
+      <c r="V14" t="n">
+        <v>27</v>
+      </c>
+      <c r="W14" t="n">
+        <v>24</v>
+      </c>
+      <c r="X14" t="n">
+        <v>94</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>101</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>79</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>168</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>368</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>123</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>24</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>53.458333333333</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>10095</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>8278</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>82.000990589401</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>5067</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>4581</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>90.40852575488501</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>5028</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>3697</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>73.528241845664</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>881</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>442</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>50.170261066969</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>399</v>
+      </c>
+      <c r="AV14" t="n">
         <v>104</v>
       </c>
-      <c r="R14" t="n">
-        <v>3</v>
-      </c>
-      <c r="S14" t="n">
-        <v>3</v>
-      </c>
-      <c r="T14" t="n">
-        <v>14</v>
-      </c>
-      <c r="U14" t="n">
-        <v>51</v>
-      </c>
-      <c r="V14" t="n">
-        <v>38</v>
-      </c>
-      <c r="W14" t="n">
-        <v>36</v>
-      </c>
-      <c r="X14" t="n">
-        <v>90</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>121</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>68</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>193</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>422</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>119</v>
-      </c>
-      <c r="AD14" t="n">
+      <c r="AW14" t="n">
+        <v>26.065162907268</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>437</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>199</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>73</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>9</v>
+      </c>
+      <c r="BE14" t="n">
         <v>7</v>
       </c>
-      <c r="AE14" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>18</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>51.25</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>10416</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>8430</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>80.93317972350199</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>4628</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>4113</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>88.872082973207</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>5788</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>4317</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>74.585348997927</v>
-      </c>
-      <c r="AR14" t="n">
-        <v>807</v>
-      </c>
-      <c r="AS14" t="n">
-        <v>372</v>
-      </c>
-      <c r="AT14" t="n">
-        <v>46.096654275093</v>
-      </c>
-      <c r="AU14" t="n">
-        <v>477</v>
-      </c>
-      <c r="AV14" t="n">
-        <v>107</v>
-      </c>
-      <c r="AW14" t="n">
-        <v>22.431865828092</v>
-      </c>
-      <c r="AX14" t="n">
-        <v>3</v>
-      </c>
-      <c r="AY14" t="n">
-        <v>438</v>
-      </c>
-      <c r="AZ14" t="n">
-        <v>192</v>
-      </c>
-      <c r="BA14" t="n">
-        <v>61</v>
-      </c>
-      <c r="BB14" t="n">
-        <v>2</v>
-      </c>
-      <c r="BC14" t="n">
-        <v>10</v>
-      </c>
-      <c r="BD14" t="n">
-        <v>3</v>
-      </c>
-      <c r="BE14" t="n">
-        <v>3</v>
-      </c>
       <c r="BF14" t="n">
-        <v>569</v>
+        <v>627</v>
       </c>
       <c r="BG14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BH14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BI14" t="n">
-        <v>2807</v>
+        <v>2518</v>
       </c>
       <c r="BJ14" t="n">
-        <v>1350</v>
+        <v>1267</v>
       </c>
       <c r="BK14" t="n">
-        <v>48.094050587816</v>
+        <v>50.317712470214</v>
       </c>
       <c r="BL14" t="n">
-        <v>1995</v>
+        <v>1829</v>
       </c>
       <c r="BM14" t="n">
-        <v>950</v>
+        <v>911</v>
       </c>
       <c r="BN14" t="n">
-        <v>47.619047619048</v>
+        <v>49.808638600328</v>
       </c>
       <c r="BO14" t="n">
-        <v>812</v>
+        <v>689</v>
       </c>
       <c r="BP14" t="n">
-        <v>400</v>
+        <v>356</v>
       </c>
       <c r="BQ14" t="n">
-        <v>49.261083743842</v>
+        <v>51.66908563135</v>
       </c>
       <c r="BR14" t="n">
-        <v>3399</v>
+        <v>3135</v>
       </c>
       <c r="BS14" t="n">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="BT14" t="n">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="BU14" t="n">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="BV14" t="n">
         <v>2</v>
       </c>
       <c r="BW14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BX14" t="n">
-        <v>6.7146341463415</v>
+        <v>6.7364864864865</v>
       </c>
       <c r="BY14" t="n">
-        <v>1922</v>
+        <v>1581</v>
       </c>
       <c r="BZ14" t="n">
-        <v>4101</v>
+        <v>3360</v>
       </c>
       <c r="CA14" t="n">
-        <v>4128</v>
+        <v>3511</v>
       </c>
       <c r="CB14" t="n">
-        <v>8229</v>
+        <v>6871</v>
       </c>
       <c r="CC14" t="n">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="CD14" t="n">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="CE14" t="n">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="CF14" t="n">
-        <v>616</v>
+        <v>570</v>
       </c>
       <c r="CG14" t="n">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="CH14" t="n">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="CI14" t="n">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="CJ14" t="n">
-        <v>423</v>
+        <v>399</v>
       </c>
       <c r="CK14" t="n">
-        <v>209</v>
+        <v>185</v>
       </c>
       <c r="CL14" t="n">
         <v>4</v>
       </c>
       <c r="CM14" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="CN14" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="CO14" t="n">
-        <v>209</v>
+        <v>185</v>
       </c>
       <c r="CP14" t="n">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="CQ14" t="n">
-        <v>645</v>
+        <v>472</v>
       </c>
       <c r="CR14" t="n">
-        <v>1325</v>
+        <v>1201</v>
       </c>
       <c r="CS14" t="n">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="CT14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="CU14" t="n">
-        <v>297</v>
+        <v>267</v>
       </c>
       <c r="CV14" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="CW14" t="n">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="CX14" t="n">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="CY14" t="n">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="CZ14" t="n">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="DA14" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="DB14" t="n">
-        <v>498</v>
+        <v>398</v>
       </c>
       <c r="DC14" t="n">
-        <v>2832</v>
+        <v>2479</v>
       </c>
       <c r="DD14" t="n">
-        <v>5545</v>
+        <v>4770</v>
       </c>
       <c r="DE14" t="n">
-        <v>4609</v>
+        <v>3942</v>
       </c>
       <c r="DF14" t="n">
-        <v>10154</v>
+        <v>8712</v>
       </c>
       <c r="DG14" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="DH14" t="n">
-        <v>486</v>
+        <v>466</v>
       </c>
       <c r="DI14" t="n">
-        <v>186</v>
+        <v>146</v>
       </c>
       <c r="DJ14" t="n">
-        <v>1203</v>
+        <v>1149</v>
       </c>
       <c r="DK14" t="n">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="DL14" t="n">
-        <v>48317</v>
+        <v>48473</v>
       </c>
       <c r="DM14" t="n">
         <v>24</v>
@@ -6747,80 +6747,80 @@
         </is>
       </c>
       <c r="DQ14" t="n">
-        <v>0.88</v>
+        <v>1.29</v>
       </c>
       <c r="DR14" t="n">
-        <v>1.25</v>
+        <v>1.62</v>
       </c>
       <c r="DS14" t="n">
-        <v>11.62</v>
+        <v>11.42</v>
       </c>
       <c r="DT14" t="n">
-        <v>3.75</v>
+        <v>3.92</v>
       </c>
       <c r="DU14" t="n">
-        <v>4.96</v>
+        <v>5.12</v>
       </c>
       <c r="DV14" t="n">
-        <v>15.12</v>
+        <v>15</v>
       </c>
       <c r="DW14" t="n">
-        <v>2.08</v>
+        <v>3.04</v>
       </c>
       <c r="DX14" t="n">
-        <v>0.08</v>
+        <v>0.17</v>
       </c>
       <c r="DY14" t="n">
-        <v>2.12</v>
+        <v>1.54</v>
       </c>
       <c r="DZ14" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="EA14" t="n">
-        <v>0.29</v>
+        <v>0.33</v>
       </c>
       <c r="EB14" t="n">
         <v>0.17</v>
       </c>
       <c r="EC14" t="n">
-        <v>351.25</v>
+        <v>344.92</v>
       </c>
       <c r="ED14" t="n">
-        <v>18.25</v>
+        <v>18.21</v>
       </c>
       <c r="EE14" t="n">
-        <v>8</v>
+        <v>8.289999999999999</v>
       </c>
       <c r="EF14" t="n">
-        <v>23.71</v>
+        <v>26.12</v>
       </c>
       <c r="EG14" t="n">
-        <v>2.54</v>
+        <v>3.04</v>
       </c>
       <c r="EH14" t="n">
-        <v>56.25</v>
+        <v>52.79</v>
       </c>
       <c r="EI14" t="n">
-        <v>39.58</v>
+        <v>37.96</v>
       </c>
       <c r="EJ14" t="n">
-        <v>16.67</v>
+        <v>14.83</v>
       </c>
       <c r="EK14" t="n">
-        <v>141.62</v>
+        <v>130.62</v>
       </c>
       <c r="EL14" t="n">
-        <v>8.039999999999999</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Deportivo Alavés</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2828</v>
+        <v>2885</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -6831,340 +6831,340 @@
         <v>24</v>
       </c>
       <c r="E15" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F15" t="n">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="I15" t="n">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="J15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K15" t="n">
+        <v>4</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="n">
         <v>5</v>
       </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>10</v>
-      </c>
       <c r="N15" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="O15" t="n">
         <v>3</v>
       </c>
       <c r="P15" t="n">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="Q15" t="n">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="R15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S15" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="T15" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="U15" t="n">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="V15" t="n">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="W15" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="X15" t="n">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="Y15" t="n">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="Z15" t="n">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="AA15" t="n">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="AB15" t="n">
-        <v>355</v>
+        <v>422</v>
       </c>
       <c r="AC15" t="n">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="AD15" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AE15" t="n">
         <v>19</v>
       </c>
       <c r="AF15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AG15" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AH15" t="n">
-        <v>48.458333333333</v>
+        <v>51.25</v>
       </c>
       <c r="AI15" t="n">
-        <v>9953</v>
+        <v>10416</v>
       </c>
       <c r="AJ15" t="n">
-        <v>8138</v>
+        <v>8430</v>
       </c>
       <c r="AK15" t="n">
-        <v>81.764292173214</v>
+        <v>80.93317972350199</v>
       </c>
       <c r="AL15" t="n">
-        <v>4985</v>
+        <v>4628</v>
       </c>
       <c r="AM15" t="n">
-        <v>4489</v>
+        <v>4113</v>
       </c>
       <c r="AN15" t="n">
-        <v>90.050150451354</v>
+        <v>88.872082973207</v>
       </c>
       <c r="AO15" t="n">
-        <v>4968</v>
+        <v>5788</v>
       </c>
       <c r="AP15" t="n">
-        <v>3649</v>
+        <v>4317</v>
       </c>
       <c r="AQ15" t="n">
-        <v>73.450080515298</v>
+        <v>74.585348997927</v>
       </c>
       <c r="AR15" t="n">
-        <v>881</v>
+        <v>807</v>
       </c>
       <c r="AS15" t="n">
-        <v>432</v>
+        <v>372</v>
       </c>
       <c r="AT15" t="n">
-        <v>49.035187287174</v>
+        <v>46.096654275093</v>
       </c>
       <c r="AU15" t="n">
-        <v>448</v>
+        <v>477</v>
       </c>
       <c r="AV15" t="n">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="AW15" t="n">
-        <v>22.098214285714</v>
+        <v>22.431865828092</v>
       </c>
       <c r="AX15" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AY15" t="n">
-        <v>359</v>
+        <v>438</v>
       </c>
       <c r="AZ15" t="n">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="BA15" t="n">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="BB15" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="BC15" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="BD15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BE15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BF15" t="n">
-        <v>679</v>
+        <v>569</v>
       </c>
       <c r="BG15" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH15" t="n">
         <v>3</v>
       </c>
-      <c r="BH15" t="n">
-        <v>14</v>
-      </c>
       <c r="BI15" t="n">
-        <v>2214</v>
+        <v>2807</v>
       </c>
       <c r="BJ15" t="n">
-        <v>1100</v>
+        <v>1350</v>
       </c>
       <c r="BK15" t="n">
-        <v>49.683830171635</v>
+        <v>48.094050587816</v>
       </c>
       <c r="BL15" t="n">
-        <v>1577</v>
+        <v>1995</v>
       </c>
       <c r="BM15" t="n">
-        <v>799</v>
+        <v>950</v>
       </c>
       <c r="BN15" t="n">
-        <v>50.665821179455</v>
+        <v>47.619047619048</v>
       </c>
       <c r="BO15" t="n">
-        <v>637</v>
+        <v>812</v>
       </c>
       <c r="BP15" t="n">
-        <v>301</v>
+        <v>400</v>
       </c>
       <c r="BQ15" t="n">
-        <v>47.252747252747</v>
+        <v>49.261083743842</v>
       </c>
       <c r="BR15" t="n">
-        <v>2970</v>
+        <v>3399</v>
       </c>
       <c r="BS15" t="n">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="BT15" t="n">
-        <v>290</v>
+        <v>363</v>
       </c>
       <c r="BU15" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="BV15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BW15" t="n">
         <v>2</v>
       </c>
       <c r="BX15" t="n">
-        <v>6.7253968253968</v>
+        <v>6.7146341463415</v>
       </c>
       <c r="BY15" t="n">
-        <v>2180</v>
+        <v>1922</v>
       </c>
       <c r="BZ15" t="n">
-        <v>4756</v>
+        <v>4101</v>
       </c>
       <c r="CA15" t="n">
-        <v>4218</v>
+        <v>4128</v>
       </c>
       <c r="CB15" t="n">
-        <v>8974</v>
+        <v>8229</v>
       </c>
       <c r="CC15" t="n">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="CD15" t="n">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="CE15" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="CF15" t="n">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="CG15" t="n">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="CH15" t="n">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="CI15" t="n">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="CJ15" t="n">
-        <v>316</v>
+        <v>423</v>
       </c>
       <c r="CK15" t="n">
-        <v>140</v>
+        <v>209</v>
       </c>
       <c r="CL15" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CM15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="CN15" t="n">
+        <v>8</v>
+      </c>
+      <c r="CO15" t="n">
+        <v>209</v>
+      </c>
+      <c r="CP15" t="n">
+        <v>212</v>
+      </c>
+      <c r="CQ15" t="n">
+        <v>645</v>
+      </c>
+      <c r="CR15" t="n">
+        <v>1325</v>
+      </c>
+      <c r="CS15" t="n">
+        <v>37</v>
+      </c>
+      <c r="CT15" t="n">
         <v>4</v>
       </c>
-      <c r="CO15" t="n">
-        <v>198</v>
-      </c>
-      <c r="CP15" t="n">
-        <v>219</v>
-      </c>
-      <c r="CQ15" t="n">
-        <v>597</v>
-      </c>
-      <c r="CR15" t="n">
-        <v>1218</v>
-      </c>
-      <c r="CS15" t="n">
-        <v>62</v>
-      </c>
-      <c r="CT15" t="n">
-        <v>5</v>
-      </c>
       <c r="CU15" t="n">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="CV15" t="n">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="CW15" t="n">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="CX15" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="CY15" t="n">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="CZ15" t="n">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="DA15" t="n">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="DB15" t="n">
-        <v>364</v>
+        <v>498</v>
       </c>
       <c r="DC15" t="n">
-        <v>3052</v>
+        <v>2832</v>
       </c>
       <c r="DD15" t="n">
-        <v>6081</v>
+        <v>5545</v>
       </c>
       <c r="DE15" t="n">
-        <v>4640</v>
+        <v>4609</v>
       </c>
       <c r="DF15" t="n">
-        <v>10721</v>
+        <v>10154</v>
       </c>
       <c r="DG15" t="n">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="DH15" t="n">
-        <v>458</v>
+        <v>486</v>
       </c>
       <c r="DI15" t="n">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="DJ15" t="n">
-        <v>1083</v>
+        <v>1203</v>
       </c>
       <c r="DK15" t="n">
-        <v>266</v>
+        <v>324</v>
       </c>
       <c r="DL15" t="n">
-        <v>48315</v>
+        <v>48317</v>
       </c>
       <c r="DM15" t="n">
         <v>24</v>
@@ -7183,80 +7183,80 @@
         </is>
       </c>
       <c r="DQ15" t="n">
-        <v>1.04</v>
+        <v>0.88</v>
       </c>
       <c r="DR15" t="n">
-        <v>1.54</v>
+        <v>1.25</v>
       </c>
       <c r="DS15" t="n">
-        <v>11.08</v>
+        <v>11.62</v>
       </c>
       <c r="DT15" t="n">
-        <v>2.88</v>
+        <v>3.75</v>
       </c>
       <c r="DU15" t="n">
-        <v>5.04</v>
+        <v>4.96</v>
       </c>
       <c r="DV15" t="n">
-        <v>12.08</v>
+        <v>15.12</v>
       </c>
       <c r="DW15" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="DX15" t="n">
         <v>0.08</v>
       </c>
       <c r="DY15" t="n">
-        <v>1.88</v>
+        <v>2.12</v>
       </c>
       <c r="DZ15" t="n">
-        <v>1.21</v>
+        <v>1.5</v>
       </c>
       <c r="EA15" t="n">
-        <v>0.42</v>
+        <v>0.29</v>
       </c>
       <c r="EB15" t="n">
-        <v>0.08</v>
+        <v>0.17</v>
       </c>
       <c r="EC15" t="n">
-        <v>339.08</v>
+        <v>351.25</v>
       </c>
       <c r="ED15" t="n">
-        <v>14.96</v>
+        <v>18.25</v>
       </c>
       <c r="EE15" t="n">
-        <v>7.62</v>
+        <v>8</v>
       </c>
       <c r="EF15" t="n">
-        <v>28.29</v>
+        <v>23.71</v>
       </c>
       <c r="EG15" t="n">
-        <v>2.79</v>
+        <v>2.54</v>
       </c>
       <c r="EH15" t="n">
-        <v>45.83</v>
+        <v>56.25</v>
       </c>
       <c r="EI15" t="n">
-        <v>33.29</v>
+        <v>39.58</v>
       </c>
       <c r="EJ15" t="n">
-        <v>12.54</v>
+        <v>16.67</v>
       </c>
       <c r="EK15" t="n">
-        <v>123.75</v>
+        <v>141.62</v>
       </c>
       <c r="EL15" t="n">
-        <v>7.38</v>
+        <v>8.039999999999999</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Girona FC</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>24264</v>
+        <v>2828</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -7264,346 +7264,346 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E16" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F16" t="n">
         <v>37</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H16" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="I16" t="n">
-        <v>223</v>
+        <v>266</v>
       </c>
       <c r="J16" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K16" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="N16" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="O16" t="n">
         <v>3</v>
       </c>
       <c r="P16" t="n">
-        <v>144</v>
+        <v>171</v>
       </c>
       <c r="Q16" t="n">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="R16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S16" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="T16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="U16" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="V16" t="n">
+        <v>33</v>
+      </c>
+      <c r="W16" t="n">
         <v>29</v>
       </c>
-      <c r="W16" t="n">
-        <v>30</v>
-      </c>
       <c r="X16" t="n">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="Y16" t="n">
-        <v>71</v>
+        <v>114</v>
       </c>
       <c r="Z16" t="n">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="AA16" t="n">
-        <v>207</v>
+        <v>177</v>
       </c>
       <c r="AB16" t="n">
-        <v>426</v>
+        <v>356</v>
       </c>
       <c r="AC16" t="n">
-        <v>92</v>
+        <v>121</v>
       </c>
       <c r="AD16" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AE16" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AF16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AG16" t="n">
         <v>16</v>
       </c>
       <c r="AH16" t="n">
-        <v>49.391304347826</v>
+        <v>48.458333333333</v>
       </c>
       <c r="AI16" t="n">
-        <v>10316</v>
+        <v>9953</v>
       </c>
       <c r="AJ16" t="n">
-        <v>8760</v>
+        <v>8137</v>
       </c>
       <c r="AK16" t="n">
-        <v>84.916634354401</v>
+        <v>81.754244951271</v>
       </c>
       <c r="AL16" t="n">
-        <v>5479</v>
+        <v>4983</v>
       </c>
       <c r="AM16" t="n">
-        <v>5013</v>
+        <v>4487</v>
       </c>
       <c r="AN16" t="n">
-        <v>91.49479832086099</v>
+        <v>90.046156933574</v>
       </c>
       <c r="AO16" t="n">
-        <v>4837</v>
+        <v>4970</v>
       </c>
       <c r="AP16" t="n">
-        <v>3747</v>
+        <v>3650</v>
       </c>
       <c r="AQ16" t="n">
-        <v>77.46537109778799</v>
+        <v>73.44064386317901</v>
       </c>
       <c r="AR16" t="n">
-        <v>755</v>
+        <v>881</v>
       </c>
       <c r="AS16" t="n">
-        <v>386</v>
+        <v>430</v>
       </c>
       <c r="AT16" t="n">
-        <v>51.12582781457</v>
+        <v>48.808172531215</v>
       </c>
       <c r="AU16" t="n">
-        <v>318</v>
+        <v>447</v>
       </c>
       <c r="AV16" t="n">
-        <v>63</v>
+        <v>98</v>
       </c>
       <c r="AW16" t="n">
-        <v>19.811320754717</v>
+        <v>21.923937360179</v>
       </c>
       <c r="AX16" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AY16" t="n">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="AZ16" t="n">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="BA16" t="n">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="BB16" t="n">
         <v>6</v>
       </c>
       <c r="BC16" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="BD16" t="n">
         <v>5</v>
       </c>
       <c r="BE16" t="n">
+        <v>4</v>
+      </c>
+      <c r="BF16" t="n">
+        <v>679</v>
+      </c>
+      <c r="BG16" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH16" t="n">
+        <v>14</v>
+      </c>
+      <c r="BI16" t="n">
+        <v>2217</v>
+      </c>
+      <c r="BJ16" t="n">
+        <v>1102</v>
+      </c>
+      <c r="BK16" t="n">
+        <v>49.706811005864</v>
+      </c>
+      <c r="BL16" t="n">
+        <v>1579</v>
+      </c>
+      <c r="BM16" t="n">
+        <v>801</v>
+      </c>
+      <c r="BN16" t="n">
+        <v>50.728309056365</v>
+      </c>
+      <c r="BO16" t="n">
+        <v>638</v>
+      </c>
+      <c r="BP16" t="n">
+        <v>301</v>
+      </c>
+      <c r="BQ16" t="n">
+        <v>47.17868338558</v>
+      </c>
+      <c r="BR16" t="n">
+        <v>2971</v>
+      </c>
+      <c r="BS16" t="n">
+        <v>36</v>
+      </c>
+      <c r="BT16" t="n">
+        <v>290</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>48</v>
+      </c>
+      <c r="BV16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW16" t="n">
+        <v>2</v>
+      </c>
+      <c r="BX16" t="n">
+        <v>6.7253968253968</v>
+      </c>
+      <c r="BY16" t="n">
+        <v>2180</v>
+      </c>
+      <c r="BZ16" t="n">
+        <v>4756</v>
+      </c>
+      <c r="CA16" t="n">
+        <v>4218</v>
+      </c>
+      <c r="CB16" t="n">
+        <v>8974</v>
+      </c>
+      <c r="CC16" t="n">
+        <v>56</v>
+      </c>
+      <c r="CD16" t="n">
+        <v>39</v>
+      </c>
+      <c r="CE16" t="n">
+        <v>35</v>
+      </c>
+      <c r="CF16" t="n">
+        <v>613</v>
+      </c>
+      <c r="CG16" t="n">
+        <v>118</v>
+      </c>
+      <c r="CH16" t="n">
+        <v>88</v>
+      </c>
+      <c r="CI16" t="n">
+        <v>408</v>
+      </c>
+      <c r="CJ16" t="n">
+        <v>318</v>
+      </c>
+      <c r="CK16" t="n">
+        <v>140</v>
+      </c>
+      <c r="CL16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM16" t="n">
+        <v>13</v>
+      </c>
+      <c r="CN16" t="n">
+        <v>4</v>
+      </c>
+      <c r="CO16" t="n">
+        <v>200</v>
+      </c>
+      <c r="CP16" t="n">
+        <v>219</v>
+      </c>
+      <c r="CQ16" t="n">
+        <v>597</v>
+      </c>
+      <c r="CR16" t="n">
+        <v>1219</v>
+      </c>
+      <c r="CS16" t="n">
+        <v>62</v>
+      </c>
+      <c r="CT16" t="n">
         <v>5</v>
       </c>
-      <c r="BF16" t="n">
-        <v>595</v>
-      </c>
-      <c r="BG16" t="n">
-        <v>2</v>
-      </c>
-      <c r="BH16" t="n">
-        <v>4</v>
-      </c>
-      <c r="BI16" t="n">
-        <v>2243</v>
-      </c>
-      <c r="BJ16" t="n">
-        <v>1128</v>
-      </c>
-      <c r="BK16" t="n">
-        <v>50.289790459206</v>
-      </c>
-      <c r="BL16" t="n">
-        <v>1701</v>
-      </c>
-      <c r="BM16" t="n">
-        <v>860</v>
-      </c>
-      <c r="BN16" t="n">
-        <v>50.558495002939</v>
-      </c>
-      <c r="BO16" t="n">
-        <v>542</v>
-      </c>
-      <c r="BP16" t="n">
-        <v>268</v>
-      </c>
-      <c r="BQ16" t="n">
-        <v>49.446494464945</v>
-      </c>
-      <c r="BR16" t="n">
-        <v>2701</v>
-      </c>
-      <c r="BS16" t="n">
-        <v>47</v>
-      </c>
-      <c r="BT16" t="n">
-        <v>260</v>
-      </c>
-      <c r="BU16" t="n">
-        <v>53</v>
-      </c>
-      <c r="BV16" t="n">
-        <v>2</v>
-      </c>
-      <c r="BW16" t="n">
-        <v>6</v>
-      </c>
-      <c r="BX16" t="n">
-        <v>6.7299435028249</v>
-      </c>
-      <c r="BY16" t="n">
-        <v>2464</v>
-      </c>
-      <c r="BZ16" t="n">
-        <v>4766</v>
-      </c>
-      <c r="CA16" t="n">
-        <v>4318</v>
-      </c>
-      <c r="CB16" t="n">
-        <v>9084</v>
-      </c>
-      <c r="CC16" t="n">
-        <v>58</v>
-      </c>
-      <c r="CD16" t="n">
-        <v>40</v>
-      </c>
-      <c r="CE16" t="n">
-        <v>32</v>
-      </c>
-      <c r="CF16" t="n">
-        <v>447</v>
-      </c>
-      <c r="CG16" t="n">
-        <v>117</v>
-      </c>
-      <c r="CH16" t="n">
-        <v>122</v>
-      </c>
-      <c r="CI16" t="n">
-        <v>460</v>
-      </c>
-      <c r="CJ16" t="n">
-        <v>309</v>
-      </c>
-      <c r="CK16" t="n">
-        <v>161</v>
-      </c>
-      <c r="CL16" t="n">
-        <v>1</v>
-      </c>
-      <c r="CM16" t="n">
-        <v>7</v>
-      </c>
-      <c r="CN16" t="n">
-        <v>10</v>
-      </c>
-      <c r="CO16" t="n">
-        <v>159</v>
-      </c>
-      <c r="CP16" t="n">
-        <v>253</v>
-      </c>
-      <c r="CQ16" t="n">
-        <v>505</v>
-      </c>
-      <c r="CR16" t="n">
-        <v>1067</v>
-      </c>
-      <c r="CS16" t="n">
-        <v>40</v>
-      </c>
-      <c r="CT16" t="n">
-        <v>1</v>
-      </c>
       <c r="CU16" t="n">
-        <v>346</v>
+        <v>290</v>
       </c>
       <c r="CV16" t="n">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="CW16" t="n">
-        <v>229</v>
+        <v>186</v>
       </c>
       <c r="CX16" t="n">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="CY16" t="n">
-        <v>161</v>
+        <v>118</v>
       </c>
       <c r="CZ16" t="n">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="DA16" t="n">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="DB16" t="n">
-        <v>434</v>
+        <v>364</v>
       </c>
       <c r="DC16" t="n">
-        <v>3276</v>
+        <v>3053</v>
       </c>
       <c r="DD16" t="n">
-        <v>5980</v>
+        <v>6082</v>
       </c>
       <c r="DE16" t="n">
-        <v>4650</v>
+        <v>4640</v>
       </c>
       <c r="DF16" t="n">
-        <v>10630</v>
+        <v>10722</v>
       </c>
       <c r="DG16" t="n">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="DH16" t="n">
-        <v>375</v>
+        <v>458</v>
       </c>
       <c r="DI16" t="n">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="DJ16" t="n">
-        <v>1040</v>
+        <v>1083</v>
       </c>
       <c r="DK16" t="n">
-        <v>309</v>
+        <v>266</v>
       </c>
       <c r="DL16" t="n">
-        <v>48069</v>
+        <v>48315</v>
       </c>
       <c r="DM16" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="DN16" t="n">
         <v>0</v>
@@ -7619,70 +7619,70 @@
         </is>
       </c>
       <c r="DQ16" t="n">
-        <v>0.96</v>
+        <v>1.04</v>
       </c>
       <c r="DR16" t="n">
-        <v>1.61</v>
+        <v>1.54</v>
       </c>
       <c r="DS16" t="n">
-        <v>9.699999999999999</v>
+        <v>11.08</v>
       </c>
       <c r="DT16" t="n">
-        <v>3.65</v>
+        <v>2.88</v>
       </c>
       <c r="DU16" t="n">
-        <v>4</v>
+        <v>5.04</v>
       </c>
       <c r="DV16" t="n">
-        <v>11.3</v>
+        <v>12.08</v>
       </c>
       <c r="DW16" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="DX16" t="n">
-        <v>0.26</v>
+        <v>0.08</v>
       </c>
       <c r="DY16" t="n">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="DZ16" t="n">
-        <v>1.3</v>
+        <v>1.21</v>
       </c>
       <c r="EA16" t="n">
-        <v>0.13</v>
+        <v>0.42</v>
       </c>
       <c r="EB16" t="n">
-        <v>0.26</v>
+        <v>0.08</v>
       </c>
       <c r="EC16" t="n">
-        <v>380.87</v>
+        <v>339.04</v>
       </c>
       <c r="ED16" t="n">
-        <v>15.17</v>
+        <v>15.04</v>
       </c>
       <c r="EE16" t="n">
-        <v>7.7</v>
+        <v>7.62</v>
       </c>
       <c r="EF16" t="n">
-        <v>25.87</v>
+        <v>28.29</v>
       </c>
       <c r="EG16" t="n">
-        <v>3.13</v>
+        <v>2.79</v>
       </c>
       <c r="EH16" t="n">
-        <v>49.04</v>
+        <v>45.92</v>
       </c>
       <c r="EI16" t="n">
-        <v>37.39</v>
+        <v>33.38</v>
       </c>
       <c r="EJ16" t="n">
-        <v>11.65</v>
+        <v>12.54</v>
       </c>
       <c r="EK16" t="n">
-        <v>117.43</v>
+        <v>123.79</v>
       </c>
       <c r="EL16" t="n">
-        <v>9</v>
+        <v>7.38</v>
       </c>
     </row>
     <row r="17">
@@ -9044,10 +9044,10 @@
         <v>2</v>
       </c>
       <c r="P20" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q20" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="R20" t="n">
         <v>5</v>
@@ -9059,13 +9059,13 @@
         <v>14</v>
       </c>
       <c r="U20" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V20" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W20" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="X20" t="n">
         <v>73</v>
@@ -9080,7 +9080,7 @@
         <v>147</v>
       </c>
       <c r="AB20" t="n">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="AC20" t="n">
         <v>78</v>
@@ -9101,13 +9101,13 @@
         <v>41.695652173913</v>
       </c>
       <c r="AI20" t="n">
-        <v>8153</v>
+        <v>8154</v>
       </c>
       <c r="AJ20" t="n">
         <v>6382</v>
       </c>
       <c r="AK20" t="n">
-        <v>78.277934502637</v>
+        <v>78.26833455972501</v>
       </c>
       <c r="AL20" t="n">
         <v>3980</v>
@@ -9119,31 +9119,31 @@
         <v>89.095477386935</v>
       </c>
       <c r="AO20" t="n">
-        <v>4173</v>
+        <v>4174</v>
       </c>
       <c r="AP20" t="n">
         <v>2836</v>
       </c>
       <c r="AQ20" t="n">
-        <v>67.960699736401</v>
+        <v>67.944417824629</v>
       </c>
       <c r="AR20" t="n">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="AS20" t="n">
         <v>359</v>
       </c>
       <c r="AT20" t="n">
-        <v>42.086752637749</v>
+        <v>42.037470725995</v>
       </c>
       <c r="AU20" t="n">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="AV20" t="n">
         <v>87</v>
       </c>
       <c r="AW20" t="n">
-        <v>27.884615384615</v>
+        <v>28.064516129032</v>
       </c>
       <c r="AX20" t="n">
         <v>4</v>
@@ -9152,7 +9152,7 @@
         <v>376</v>
       </c>
       <c r="AZ20" t="n">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="BA20" t="n">
         <v>89</v>
@@ -9179,31 +9179,31 @@
         <v>5</v>
       </c>
       <c r="BI20" t="n">
-        <v>2215</v>
+        <v>2218</v>
       </c>
       <c r="BJ20" t="n">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="BK20" t="n">
-        <v>49.074492099323</v>
+        <v>49.053201082056</v>
       </c>
       <c r="BL20" t="n">
-        <v>1610</v>
+        <v>1612</v>
       </c>
       <c r="BM20" t="n">
         <v>791</v>
       </c>
       <c r="BN20" t="n">
-        <v>49.130434782609</v>
+        <v>49.069478908189</v>
       </c>
       <c r="BO20" t="n">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="BP20" t="n">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="BQ20" t="n">
-        <v>48.925619834711</v>
+        <v>49.009900990099</v>
       </c>
       <c r="BR20" t="n">
         <v>2905</v>
@@ -9230,13 +9230,13 @@
         <v>2488</v>
       </c>
       <c r="BZ20" t="n">
-        <v>5259</v>
+        <v>5260</v>
       </c>
       <c r="CA20" t="n">
-        <v>4647</v>
+        <v>4645</v>
       </c>
       <c r="CB20" t="n">
-        <v>9906</v>
+        <v>9905</v>
       </c>
       <c r="CC20" t="n">
         <v>62</v>
@@ -9254,13 +9254,13 @@
         <v>150</v>
       </c>
       <c r="CH20" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="CI20" t="n">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="CJ20" t="n">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="CK20" t="n">
         <v>161</v>
@@ -9281,7 +9281,7 @@
         <v>298</v>
       </c>
       <c r="CQ20" t="n">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="CR20" t="n">
         <v>1149</v>
@@ -9314,16 +9314,16 @@
         <v>102</v>
       </c>
       <c r="DB20" t="n">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="DC20" t="n">
         <v>3306</v>
       </c>
       <c r="DD20" t="n">
-        <v>6517</v>
+        <v>6519</v>
       </c>
       <c r="DE20" t="n">
-        <v>5052</v>
+        <v>5050</v>
       </c>
       <c r="DF20" t="n">
         <v>11569</v>
@@ -9387,10 +9387,10 @@
         <v>0.13</v>
       </c>
       <c r="DY20" t="n">
-        <v>2.39</v>
+        <v>2.35</v>
       </c>
       <c r="DZ20" t="n">
-        <v>1.52</v>
+        <v>1.48</v>
       </c>
       <c r="EA20" t="n">
         <v>0.26</v>
@@ -9405,7 +9405,7 @@
         <v>16.35</v>
       </c>
       <c r="EE20" t="n">
-        <v>8.57</v>
+        <v>8.65</v>
       </c>
       <c r="EF20" t="n">
         <v>27</v>
@@ -9414,13 +9414,13 @@
         <v>3.87</v>
       </c>
       <c r="EH20" t="n">
-        <v>47.26</v>
+        <v>47.3</v>
       </c>
       <c r="EI20" t="n">
         <v>34.39</v>
       </c>
       <c r="EJ20" t="n">
-        <v>12.87</v>
+        <v>12.91</v>
       </c>
       <c r="EK20" t="n">
         <v>126.3</v>

--- a/sofascore_team_data/La_Liga_Team_Stats.xlsx
+++ b/sofascore_team_data/La_Liga_Team_Stats.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EL21"/>
+  <dimension ref="A1:DP21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1034,116 +1034,6 @@
           <t>statisticsType_statisticsType</t>
         </is>
       </c>
-      <c r="DQ1" s="1" t="inlineStr">
-        <is>
-          <t>goalsScored_per_90</t>
-        </is>
-      </c>
-      <c r="DR1" s="1" t="inlineStr">
-        <is>
-          <t>goalsConceded_per_90</t>
-        </is>
-      </c>
-      <c r="DS1" s="1" t="inlineStr">
-        <is>
-          <t>shots_per_90</t>
-        </is>
-      </c>
-      <c r="DT1" s="1" t="inlineStr">
-        <is>
-          <t>shotsOnTarget_per_90</t>
-        </is>
-      </c>
-      <c r="DU1" s="1" t="inlineStr">
-        <is>
-          <t>corners_per_90</t>
-        </is>
-      </c>
-      <c r="DV1" s="1" t="inlineStr">
-        <is>
-          <t>fouls_per_90</t>
-        </is>
-      </c>
-      <c r="DW1" s="1" t="inlineStr">
-        <is>
-          <t>yellowCards_per_90</t>
-        </is>
-      </c>
-      <c r="DX1" s="1" t="inlineStr">
-        <is>
-          <t>redCards_per_90</t>
-        </is>
-      </c>
-      <c r="DY1" s="1" t="inlineStr">
-        <is>
-          <t>bigChances_per_90</t>
-        </is>
-      </c>
-      <c r="DZ1" s="1" t="inlineStr">
-        <is>
-          <t>bigChancesMissed_per_90</t>
-        </is>
-      </c>
-      <c r="EA1" s="1" t="inlineStr">
-        <is>
-          <t>hitWoodwork_per_90</t>
-        </is>
-      </c>
-      <c r="EB1" s="1" t="inlineStr">
-        <is>
-          <t>penaltyGoals_per_90</t>
-        </is>
-      </c>
-      <c r="EC1" s="1" t="inlineStr">
-        <is>
-          <t>accuratePasses_per_90</t>
-        </is>
-      </c>
-      <c r="ED1" s="1" t="inlineStr">
-        <is>
-          <t>tackles_per_90</t>
-        </is>
-      </c>
-      <c r="EE1" s="1" t="inlineStr">
-        <is>
-          <t>interceptions_per_90</t>
-        </is>
-      </c>
-      <c r="EF1" s="1" t="inlineStr">
-        <is>
-          <t>clearances_per_90</t>
-        </is>
-      </c>
-      <c r="EG1" s="1" t="inlineStr">
-        <is>
-          <t>saves_per_90</t>
-        </is>
-      </c>
-      <c r="EH1" s="1" t="inlineStr">
-        <is>
-          <t>duelsWon_per_90</t>
-        </is>
-      </c>
-      <c r="EI1" s="1" t="inlineStr">
-        <is>
-          <t>groundDuelsWon_per_90</t>
-        </is>
-      </c>
-      <c r="EJ1" s="1" t="inlineStr">
-        <is>
-          <t>aerialDuelsWon_per_90</t>
-        </is>
-      </c>
-      <c r="EK1" s="1" t="inlineStr">
-        <is>
-          <t>possessionLost_per_90</t>
-        </is>
-      </c>
-      <c r="EL1" s="1" t="inlineStr">
-        <is>
-          <t>successfulDribbles_per_90</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1514,72 +1404,6 @@
           <t>team</t>
         </is>
       </c>
-      <c r="DQ2" t="n">
-        <v>2.21</v>
-      </c>
-      <c r="DR2" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="DS2" t="n">
-        <v>18.58</v>
-      </c>
-      <c r="DT2" t="n">
-        <v>7.04</v>
-      </c>
-      <c r="DU2" t="n">
-        <v>6.42</v>
-      </c>
-      <c r="DV2" t="n">
-        <v>10</v>
-      </c>
-      <c r="DW2" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="DX2" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="DY2" t="n">
-        <v>3.58</v>
-      </c>
-      <c r="DZ2" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="EA2" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="EB2" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="EC2" t="n">
-        <v>520.71</v>
-      </c>
-      <c r="ED2" t="n">
-        <v>17.38</v>
-      </c>
-      <c r="EE2" t="n">
-        <v>7.08</v>
-      </c>
-      <c r="EF2" t="n">
-        <v>17.04</v>
-      </c>
-      <c r="EG2" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="EH2" t="n">
-        <v>51.38</v>
-      </c>
-      <c r="EI2" t="n">
-        <v>40.92</v>
-      </c>
-      <c r="EJ2" t="n">
-        <v>10.46</v>
-      </c>
-      <c r="EK2" t="n">
-        <v>109.25</v>
-      </c>
-      <c r="EL2" t="n">
-        <v>10.54</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1950,72 +1774,6 @@
           <t>team</t>
         </is>
       </c>
-      <c r="DQ3" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="DR3" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="DS3" t="n">
-        <v>20.58</v>
-      </c>
-      <c r="DT3" t="n">
-        <v>7.38</v>
-      </c>
-      <c r="DU3" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="DV3" t="n">
-        <v>9.08</v>
-      </c>
-      <c r="DW3" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="DX3" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="DY3" t="n">
-        <v>4.58</v>
-      </c>
-      <c r="DZ3" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="EA3" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="EB3" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="EC3" t="n">
-        <v>579.58</v>
-      </c>
-      <c r="ED3" t="n">
-        <v>16.21</v>
-      </c>
-      <c r="EE3" t="n">
-        <v>7.12</v>
-      </c>
-      <c r="EF3" t="n">
-        <v>17.12</v>
-      </c>
-      <c r="EG3" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="EH3" t="n">
-        <v>50.38</v>
-      </c>
-      <c r="EI3" t="n">
-        <v>38.92</v>
-      </c>
-      <c r="EJ3" t="n">
-        <v>11.46</v>
-      </c>
-      <c r="EK3" t="n">
-        <v>118.54</v>
-      </c>
-      <c r="EL3" t="n">
-        <v>11.21</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2386,72 +2144,6 @@
           <t>team</t>
         </is>
       </c>
-      <c r="DQ4" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="DR4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="DS4" t="n">
-        <v>12</v>
-      </c>
-      <c r="DT4" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="DU4" t="n">
-        <v>4.13</v>
-      </c>
-      <c r="DV4" t="n">
-        <v>12.78</v>
-      </c>
-      <c r="DW4" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="DX4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="DY4" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="DZ4" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="EA4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="EB4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="EC4" t="n">
-        <v>338.57</v>
-      </c>
-      <c r="ED4" t="n">
-        <v>18.22</v>
-      </c>
-      <c r="EE4" t="n">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="EF4" t="n">
-        <v>25.22</v>
-      </c>
-      <c r="EG4" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="EH4" t="n">
-        <v>47.65</v>
-      </c>
-      <c r="EI4" t="n">
-        <v>37</v>
-      </c>
-      <c r="EJ4" t="n">
-        <v>10.65</v>
-      </c>
-      <c r="EK4" t="n">
-        <v>118.35</v>
-      </c>
-      <c r="EL4" t="n">
-        <v>7.43</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2822,72 +2514,6 @@
           <t>team</t>
         </is>
       </c>
-      <c r="DQ5" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="DR5" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="DS5" t="n">
-        <v>13.04</v>
-      </c>
-      <c r="DT5" t="n">
-        <v>5.42</v>
-      </c>
-      <c r="DU5" t="n">
-        <v>6.96</v>
-      </c>
-      <c r="DV5" t="n">
-        <v>11.58</v>
-      </c>
-      <c r="DW5" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="DX5" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="DY5" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="DZ5" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="EA5" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="EB5" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="EC5" t="n">
-        <v>444.88</v>
-      </c>
-      <c r="ED5" t="n">
-        <v>16.17</v>
-      </c>
-      <c r="EE5" t="n">
-        <v>7.58</v>
-      </c>
-      <c r="EF5" t="n">
-        <v>19.96</v>
-      </c>
-      <c r="EG5" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="EH5" t="n">
-        <v>47.79</v>
-      </c>
-      <c r="EI5" t="n">
-        <v>32.5</v>
-      </c>
-      <c r="EJ5" t="n">
-        <v>15.29</v>
-      </c>
-      <c r="EK5" t="n">
-        <v>126</v>
-      </c>
-      <c r="EL5" t="n">
-        <v>7.25</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -3258,72 +2884,6 @@
           <t>team</t>
         </is>
       </c>
-      <c r="DQ6" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="DR6" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="DS6" t="n">
-        <v>14.79</v>
-      </c>
-      <c r="DT6" t="n">
-        <v>5</v>
-      </c>
-      <c r="DU6" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="DV6" t="n">
-        <v>10.33</v>
-      </c>
-      <c r="DW6" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="DX6" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="DY6" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="DZ6" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="EA6" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="EB6" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="EC6" t="n">
-        <v>385.33</v>
-      </c>
-      <c r="ED6" t="n">
-        <v>17.04</v>
-      </c>
-      <c r="EE6" t="n">
-        <v>9.17</v>
-      </c>
-      <c r="EF6" t="n">
-        <v>30.75</v>
-      </c>
-      <c r="EG6" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="EH6" t="n">
-        <v>49.54</v>
-      </c>
-      <c r="EI6" t="n">
-        <v>36.88</v>
-      </c>
-      <c r="EJ6" t="n">
-        <v>12.67</v>
-      </c>
-      <c r="EK6" t="n">
-        <v>120.67</v>
-      </c>
-      <c r="EL6" t="n">
-        <v>7.17</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -3694,72 +3254,6 @@
           <t>team</t>
         </is>
       </c>
-      <c r="DQ7" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="DR7" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="DS7" t="n">
-        <v>12.71</v>
-      </c>
-      <c r="DT7" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="DU7" t="n">
-        <v>4.46</v>
-      </c>
-      <c r="DV7" t="n">
-        <v>13</v>
-      </c>
-      <c r="DW7" t="n">
-        <v>2</v>
-      </c>
-      <c r="DX7" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="DY7" t="n">
-        <v>2.21</v>
-      </c>
-      <c r="DZ7" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="EA7" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="EB7" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="EC7" t="n">
-        <v>283.54</v>
-      </c>
-      <c r="ED7" t="n">
-        <v>16.88</v>
-      </c>
-      <c r="EE7" t="n">
-        <v>8.33</v>
-      </c>
-      <c r="EF7" t="n">
-        <v>22.58</v>
-      </c>
-      <c r="EG7" t="n">
-        <v>3</v>
-      </c>
-      <c r="EH7" t="n">
-        <v>48.92</v>
-      </c>
-      <c r="EI7" t="n">
-        <v>34.88</v>
-      </c>
-      <c r="EJ7" t="n">
-        <v>14.04</v>
-      </c>
-      <c r="EK7" t="n">
-        <v>126.71</v>
-      </c>
-      <c r="EL7" t="n">
-        <v>6.5</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -4130,72 +3624,6 @@
           <t>team</t>
         </is>
       </c>
-      <c r="DQ8" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="DR8" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="DS8" t="n">
-        <v>10.88</v>
-      </c>
-      <c r="DT8" t="n">
-        <v>4</v>
-      </c>
-      <c r="DU8" t="n">
-        <v>4.08</v>
-      </c>
-      <c r="DV8" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="DW8" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="DX8" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="DY8" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="DZ8" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="EA8" t="n">
-        <v>0</v>
-      </c>
-      <c r="EB8" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="EC8" t="n">
-        <v>429.38</v>
-      </c>
-      <c r="ED8" t="n">
-        <v>14.75</v>
-      </c>
-      <c r="EE8" t="n">
-        <v>7.08</v>
-      </c>
-      <c r="EF8" t="n">
-        <v>25.17</v>
-      </c>
-      <c r="EG8" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="EH8" t="n">
-        <v>40.83</v>
-      </c>
-      <c r="EI8" t="n">
-        <v>32.62</v>
-      </c>
-      <c r="EJ8" t="n">
-        <v>8.210000000000001</v>
-      </c>
-      <c r="EK8" t="n">
-        <v>113.08</v>
-      </c>
-      <c r="EL8" t="n">
-        <v>6.71</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -4566,72 +3994,6 @@
           <t>team</t>
         </is>
       </c>
-      <c r="DQ9" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="DR9" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="DS9" t="n">
-        <v>12.96</v>
-      </c>
-      <c r="DT9" t="n">
-        <v>4.83</v>
-      </c>
-      <c r="DU9" t="n">
-        <v>5.83</v>
-      </c>
-      <c r="DV9" t="n">
-        <v>14.58</v>
-      </c>
-      <c r="DW9" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="DX9" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="DY9" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="DZ9" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="EA9" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="EB9" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="EC9" t="n">
-        <v>351.21</v>
-      </c>
-      <c r="ED9" t="n">
-        <v>19</v>
-      </c>
-      <c r="EE9" t="n">
-        <v>7.79</v>
-      </c>
-      <c r="EF9" t="n">
-        <v>24.96</v>
-      </c>
-      <c r="EG9" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="EH9" t="n">
-        <v>51.96</v>
-      </c>
-      <c r="EI9" t="n">
-        <v>37.38</v>
-      </c>
-      <c r="EJ9" t="n">
-        <v>14.58</v>
-      </c>
-      <c r="EK9" t="n">
-        <v>128.46</v>
-      </c>
-      <c r="EL9" t="n">
-        <v>7.62</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -5002,72 +4364,6 @@
           <t>team</t>
         </is>
       </c>
-      <c r="DQ10" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="DR10" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="DS10" t="n">
-        <v>14.33</v>
-      </c>
-      <c r="DT10" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="DU10" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="DV10" t="n">
-        <v>13.67</v>
-      </c>
-      <c r="DW10" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="DX10" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="DY10" t="n">
-        <v>2.21</v>
-      </c>
-      <c r="DZ10" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="EA10" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="EB10" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="EC10" t="n">
-        <v>337.71</v>
-      </c>
-      <c r="ED10" t="n">
-        <v>14.83</v>
-      </c>
-      <c r="EE10" t="n">
-        <v>9.210000000000001</v>
-      </c>
-      <c r="EF10" t="n">
-        <v>22.25</v>
-      </c>
-      <c r="EG10" t="n">
-        <v>2.79</v>
-      </c>
-      <c r="EH10" t="n">
-        <v>48.54</v>
-      </c>
-      <c r="EI10" t="n">
-        <v>33.42</v>
-      </c>
-      <c r="EJ10" t="n">
-        <v>15.12</v>
-      </c>
-      <c r="EK10" t="n">
-        <v>143.75</v>
-      </c>
-      <c r="EL10" t="n">
-        <v>7.38</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -5438,72 +4734,6 @@
           <t>team</t>
         </is>
       </c>
-      <c r="DQ11" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="DR11" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="DS11" t="n">
-        <v>10.83</v>
-      </c>
-      <c r="DT11" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="DU11" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="DV11" t="n">
-        <v>13.33</v>
-      </c>
-      <c r="DW11" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="DX11" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="DY11" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="DZ11" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="EA11" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="EB11" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="EC11" t="n">
-        <v>295.46</v>
-      </c>
-      <c r="ED11" t="n">
-        <v>15.71</v>
-      </c>
-      <c r="EE11" t="n">
-        <v>8.039999999999999</v>
-      </c>
-      <c r="EF11" t="n">
-        <v>28.08</v>
-      </c>
-      <c r="EG11" t="n">
-        <v>3.62</v>
-      </c>
-      <c r="EH11" t="n">
-        <v>49.92</v>
-      </c>
-      <c r="EI11" t="n">
-        <v>33.25</v>
-      </c>
-      <c r="EJ11" t="n">
-        <v>16.67</v>
-      </c>
-      <c r="EK11" t="n">
-        <v>130.88</v>
-      </c>
-      <c r="EL11" t="n">
-        <v>7.04</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -5874,72 +5104,6 @@
           <t>team</t>
         </is>
       </c>
-      <c r="DQ12" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="DR12" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="DS12" t="n">
-        <v>9.789999999999999</v>
-      </c>
-      <c r="DT12" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="DU12" t="n">
-        <v>4.62</v>
-      </c>
-      <c r="DV12" t="n">
-        <v>15.17</v>
-      </c>
-      <c r="DW12" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="DX12" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="DY12" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="DZ12" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="EA12" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="EB12" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="EC12" t="n">
-        <v>214.29</v>
-      </c>
-      <c r="ED12" t="n">
-        <v>18.67</v>
-      </c>
-      <c r="EE12" t="n">
-        <v>8.539999999999999</v>
-      </c>
-      <c r="EF12" t="n">
-        <v>26.54</v>
-      </c>
-      <c r="EG12" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="EH12" t="n">
-        <v>56.33</v>
-      </c>
-      <c r="EI12" t="n">
-        <v>39.21</v>
-      </c>
-      <c r="EJ12" t="n">
-        <v>17.12</v>
-      </c>
-      <c r="EK12" t="n">
-        <v>146.92</v>
-      </c>
-      <c r="EL12" t="n">
-        <v>6.21</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -6310,72 +5474,6 @@
           <t>team</t>
         </is>
       </c>
-      <c r="DQ13" t="n">
-        <v>1</v>
-      </c>
-      <c r="DR13" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="DS13" t="n">
-        <v>9.83</v>
-      </c>
-      <c r="DT13" t="n">
-        <v>3.88</v>
-      </c>
-      <c r="DU13" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="DV13" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="DW13" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="DX13" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="DY13" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="DZ13" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="EA13" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="EB13" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="EC13" t="n">
-        <v>374.92</v>
-      </c>
-      <c r="ED13" t="n">
-        <v>15.33</v>
-      </c>
-      <c r="EE13" t="n">
-        <v>7.79</v>
-      </c>
-      <c r="EF13" t="n">
-        <v>26.62</v>
-      </c>
-      <c r="EG13" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="EH13" t="n">
-        <v>48.92</v>
-      </c>
-      <c r="EI13" t="n">
-        <v>37.38</v>
-      </c>
-      <c r="EJ13" t="n">
-        <v>11.54</v>
-      </c>
-      <c r="EK13" t="n">
-        <v>117.5</v>
-      </c>
-      <c r="EL13" t="n">
-        <v>9.119999999999999</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -6746,72 +5844,6 @@
           <t>team</t>
         </is>
       </c>
-      <c r="DQ14" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="DR14" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="DS14" t="n">
-        <v>11.42</v>
-      </c>
-      <c r="DT14" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="DU14" t="n">
-        <v>5.12</v>
-      </c>
-      <c r="DV14" t="n">
-        <v>15</v>
-      </c>
-      <c r="DW14" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="DX14" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="DY14" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="DZ14" t="n">
-        <v>1</v>
-      </c>
-      <c r="EA14" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="EB14" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="EC14" t="n">
-        <v>344.92</v>
-      </c>
-      <c r="ED14" t="n">
-        <v>18.21</v>
-      </c>
-      <c r="EE14" t="n">
-        <v>8.289999999999999</v>
-      </c>
-      <c r="EF14" t="n">
-        <v>26.12</v>
-      </c>
-      <c r="EG14" t="n">
-        <v>3.04</v>
-      </c>
-      <c r="EH14" t="n">
-        <v>52.79</v>
-      </c>
-      <c r="EI14" t="n">
-        <v>37.96</v>
-      </c>
-      <c r="EJ14" t="n">
-        <v>14.83</v>
-      </c>
-      <c r="EK14" t="n">
-        <v>130.62</v>
-      </c>
-      <c r="EL14" t="n">
-        <v>7</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -7182,72 +6214,6 @@
           <t>team</t>
         </is>
       </c>
-      <c r="DQ15" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="DR15" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="DS15" t="n">
-        <v>11.62</v>
-      </c>
-      <c r="DT15" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="DU15" t="n">
-        <v>4.96</v>
-      </c>
-      <c r="DV15" t="n">
-        <v>15.12</v>
-      </c>
-      <c r="DW15" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="DX15" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="DY15" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="DZ15" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="EA15" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="EB15" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="EC15" t="n">
-        <v>351.25</v>
-      </c>
-      <c r="ED15" t="n">
-        <v>18.25</v>
-      </c>
-      <c r="EE15" t="n">
-        <v>8</v>
-      </c>
-      <c r="EF15" t="n">
-        <v>23.71</v>
-      </c>
-      <c r="EG15" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="EH15" t="n">
-        <v>56.25</v>
-      </c>
-      <c r="EI15" t="n">
-        <v>39.58</v>
-      </c>
-      <c r="EJ15" t="n">
-        <v>16.67</v>
-      </c>
-      <c r="EK15" t="n">
-        <v>141.62</v>
-      </c>
-      <c r="EL15" t="n">
-        <v>8.039999999999999</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -7618,72 +6584,6 @@
           <t>team</t>
         </is>
       </c>
-      <c r="DQ16" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="DR16" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="DS16" t="n">
-        <v>11.08</v>
-      </c>
-      <c r="DT16" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="DU16" t="n">
-        <v>5.04</v>
-      </c>
-      <c r="DV16" t="n">
-        <v>12.08</v>
-      </c>
-      <c r="DW16" t="n">
-        <v>2</v>
-      </c>
-      <c r="DX16" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="DY16" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="DZ16" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="EA16" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="EB16" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="EC16" t="n">
-        <v>339.04</v>
-      </c>
-      <c r="ED16" t="n">
-        <v>15.04</v>
-      </c>
-      <c r="EE16" t="n">
-        <v>7.62</v>
-      </c>
-      <c r="EF16" t="n">
-        <v>28.29</v>
-      </c>
-      <c r="EG16" t="n">
-        <v>2.79</v>
-      </c>
-      <c r="EH16" t="n">
-        <v>45.92</v>
-      </c>
-      <c r="EI16" t="n">
-        <v>33.38</v>
-      </c>
-      <c r="EJ16" t="n">
-        <v>12.54</v>
-      </c>
-      <c r="EK16" t="n">
-        <v>123.79</v>
-      </c>
-      <c r="EL16" t="n">
-        <v>7.38</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -8054,72 +6954,6 @@
           <t>team</t>
         </is>
       </c>
-      <c r="DQ17" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="DR17" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="DS17" t="n">
-        <v>11.17</v>
-      </c>
-      <c r="DT17" t="n">
-        <v>3.83</v>
-      </c>
-      <c r="DU17" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="DV17" t="n">
-        <v>12.71</v>
-      </c>
-      <c r="DW17" t="n">
-        <v>2</v>
-      </c>
-      <c r="DX17" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="DY17" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="DZ17" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="EA17" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="EB17" t="n">
-        <v>0</v>
-      </c>
-      <c r="EC17" t="n">
-        <v>445.62</v>
-      </c>
-      <c r="ED17" t="n">
-        <v>16.88</v>
-      </c>
-      <c r="EE17" t="n">
-        <v>7.96</v>
-      </c>
-      <c r="EF17" t="n">
-        <v>21.46</v>
-      </c>
-      <c r="EG17" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="EH17" t="n">
-        <v>49.58</v>
-      </c>
-      <c r="EI17" t="n">
-        <v>38.83</v>
-      </c>
-      <c r="EJ17" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="EK17" t="n">
-        <v>122.25</v>
-      </c>
-      <c r="EL17" t="n">
-        <v>8.119999999999999</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -8490,72 +7324,6 @@
           <t>team</t>
         </is>
       </c>
-      <c r="DQ18" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="DR18" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="DS18" t="n">
-        <v>13.35</v>
-      </c>
-      <c r="DT18" t="n">
-        <v>4.61</v>
-      </c>
-      <c r="DU18" t="n">
-        <v>5.78</v>
-      </c>
-      <c r="DV18" t="n">
-        <v>13.57</v>
-      </c>
-      <c r="DW18" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="DX18" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="DY18" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="DZ18" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="EA18" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="EB18" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="EC18" t="n">
-        <v>361.78</v>
-      </c>
-      <c r="ED18" t="n">
-        <v>16.96</v>
-      </c>
-      <c r="EE18" t="n">
-        <v>7.83</v>
-      </c>
-      <c r="EF18" t="n">
-        <v>24.78</v>
-      </c>
-      <c r="EG18" t="n">
-        <v>2.83</v>
-      </c>
-      <c r="EH18" t="n">
-        <v>43.3</v>
-      </c>
-      <c r="EI18" t="n">
-        <v>33.13</v>
-      </c>
-      <c r="EJ18" t="n">
-        <v>10.17</v>
-      </c>
-      <c r="EK18" t="n">
-        <v>127.96</v>
-      </c>
-      <c r="EL18" t="n">
-        <v>6.43</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -8926,72 +7694,6 @@
           <t>team</t>
         </is>
       </c>
-      <c r="DQ19" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="DR19" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="DS19" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="DT19" t="n">
-        <v>4</v>
-      </c>
-      <c r="DU19" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="DV19" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="DW19" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="DX19" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="DY19" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="DZ19" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="EA19" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="EB19" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="EC19" t="n">
-        <v>297.38</v>
-      </c>
-      <c r="ED19" t="n">
-        <v>14.54</v>
-      </c>
-      <c r="EE19" t="n">
-        <v>7.17</v>
-      </c>
-      <c r="EF19" t="n">
-        <v>29.29</v>
-      </c>
-      <c r="EG19" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="EH19" t="n">
-        <v>48.71</v>
-      </c>
-      <c r="EI19" t="n">
-        <v>32.62</v>
-      </c>
-      <c r="EJ19" t="n">
-        <v>16.08</v>
-      </c>
-      <c r="EK19" t="n">
-        <v>126.25</v>
-      </c>
-      <c r="EL19" t="n">
-        <v>7.17</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -9362,72 +8064,6 @@
           <t>team</t>
         </is>
       </c>
-      <c r="DQ20" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="DR20" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="DS20" t="n">
-        <v>10.57</v>
-      </c>
-      <c r="DT20" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="DU20" t="n">
-        <v>3.39</v>
-      </c>
-      <c r="DV20" t="n">
-        <v>12.13</v>
-      </c>
-      <c r="DW20" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="DX20" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="DY20" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="DZ20" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="EA20" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="EB20" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="EC20" t="n">
-        <v>277.48</v>
-      </c>
-      <c r="ED20" t="n">
-        <v>16.35</v>
-      </c>
-      <c r="EE20" t="n">
-        <v>8.65</v>
-      </c>
-      <c r="EF20" t="n">
-        <v>27</v>
-      </c>
-      <c r="EG20" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="EH20" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="EI20" t="n">
-        <v>34.39</v>
-      </c>
-      <c r="EJ20" t="n">
-        <v>12.91</v>
-      </c>
-      <c r="EK20" t="n">
-        <v>126.3</v>
-      </c>
-      <c r="EL20" t="n">
-        <v>6.39</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -9797,72 +8433,6 @@
         <is>
           <t>team</t>
         </is>
-      </c>
-      <c r="DQ21" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="DR21" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="DS21" t="n">
-        <v>9.609999999999999</v>
-      </c>
-      <c r="DT21" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="DU21" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="DV21" t="n">
-        <v>12.65</v>
-      </c>
-      <c r="DW21" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="DX21" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="DY21" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="DZ21" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="EA21" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="EB21" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="EC21" t="n">
-        <v>312.57</v>
-      </c>
-      <c r="ED21" t="n">
-        <v>17.91</v>
-      </c>
-      <c r="EE21" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="EF21" t="n">
-        <v>26.96</v>
-      </c>
-      <c r="EG21" t="n">
-        <v>4.52</v>
-      </c>
-      <c r="EH21" t="n">
-        <v>50</v>
-      </c>
-      <c r="EI21" t="n">
-        <v>35.74</v>
-      </c>
-      <c r="EJ21" t="n">
-        <v>14.26</v>
-      </c>
-      <c r="EK21" t="n">
-        <v>119.26</v>
-      </c>
-      <c r="EL21" t="n">
-        <v>7.65</v>
       </c>
     </row>
   </sheetData>
